--- a/escenarios_montecarlo/escenario_001.xlsx
+++ b/escenarios_montecarlo/escenario_001.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.754541195946429</v>
+        <v>16.33712098741224</v>
       </c>
       <c r="D2" t="n">
-        <v>21.32016840118918</v>
+        <v>34.44409185237669</v>
       </c>
       <c r="E2" t="n">
-        <v>7.736031463810178</v>
+        <v>51.74565059985921</v>
       </c>
       <c r="F2" t="n">
-        <v>13.69816461999115</v>
+        <v>29.03671795044046</v>
       </c>
       <c r="G2" t="n">
-        <v>22.32597271704335</v>
+        <v>63.78772014741623</v>
       </c>
       <c r="H2" t="n">
-        <v>78.62021149360916</v>
+        <v>18.25793058449953</v>
       </c>
       <c r="I2" t="n">
-        <v>20.89079049332685</v>
+        <v>70.81124456795651</v>
       </c>
       <c r="J2" t="n">
-        <v>35.52187276806372</v>
+        <v>51.35982676394654</v>
       </c>
       <c r="K2" t="n">
-        <v>294.9017999754328</v>
+        <v>42.06591548664458</v>
       </c>
       <c r="L2" t="n">
-        <v>54.66095636181853</v>
+        <v>20.01736991769108</v>
       </c>
       <c r="M2" t="n">
-        <v>64.82093492038993</v>
+        <v>32.71637691673685</v>
       </c>
       <c r="N2" t="n">
-        <v>71.45558913127078</v>
+        <v>61.83854087655205</v>
       </c>
       <c r="O2" t="n">
-        <v>101.69121608269</v>
+        <v>46.71110413787389</v>
       </c>
       <c r="P2" t="n">
-        <v>60.58340572949677</v>
+        <v>29.92604574077615</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.42692448046847</v>
+        <v>60.97845502221536</v>
       </c>
       <c r="R2" t="n">
-        <v>54.79834738481088</v>
+        <v>69.12762135089849</v>
       </c>
       <c r="S2" t="n">
-        <v>37.81986700216743</v>
+        <v>154.3501142607601</v>
       </c>
       <c r="T2" t="n">
-        <v>89.85146596358251</v>
+        <v>96.36318199623219</v>
       </c>
       <c r="U2" t="n">
-        <v>28.44334505824385</v>
+        <v>128.539794621416</v>
       </c>
       <c r="V2" t="n">
-        <v>44.29701247067608</v>
+        <v>64.20830218135202</v>
       </c>
       <c r="W2" t="n">
-        <v>27.16054030823937</v>
+        <v>52.87245500020306</v>
       </c>
       <c r="X2" t="n">
-        <v>41.62396695454537</v>
+        <v>109.1532086176861</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.9410966430525</v>
+        <v>109.7553614178429</v>
       </c>
       <c r="Z2" t="n">
-        <v>43.17788366121341</v>
+        <v>49.164290921565</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.72308326249902</v>
+        <v>79.72265682776192</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.07786635112882</v>
+        <v>115.4323892860623</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0140159840608</v>
+        <v>172.9971142692478</v>
       </c>
       <c r="AD2" t="n">
-        <v>157.6690799892696</v>
+        <v>130.1270345711937</v>
       </c>
       <c r="AE2" t="n">
-        <v>55.03494428090943</v>
+        <v>58.65000753073534</v>
       </c>
       <c r="AF2" t="n">
-        <v>107.9308713587338</v>
+        <v>92.07063542863537</v>
       </c>
       <c r="AG2" t="n">
-        <v>130.2198748602086</v>
+        <v>55.63556053828174</v>
       </c>
       <c r="AH2" t="n">
-        <v>63.95879409764814</v>
+        <v>54.63231546643679</v>
       </c>
       <c r="AI2" t="n">
-        <v>94.43184274784338</v>
+        <v>57.4007472488974</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41.06934793201036</v>
+        <v>50.35921319677184</v>
       </c>
       <c r="AK2" t="n">
-        <v>60.09027205649886</v>
+        <v>59.02555791276495</v>
       </c>
       <c r="AL2" t="n">
-        <v>45.81760056287704</v>
+        <v>35.68375897466102</v>
       </c>
       <c r="AM2" t="n">
-        <v>16.58614107311241</v>
+        <v>81.07371659971395</v>
       </c>
       <c r="AN2" t="n">
-        <v>36.86199999999999</v>
+        <v>41.4708167281211</v>
       </c>
       <c r="AO2" t="n">
-        <v>40.06444276367556</v>
+        <v>33.96106474138615</v>
       </c>
       <c r="AP2" t="n">
-        <v>25.3276813231112</v>
+        <v>29.35759468823393</v>
       </c>
       <c r="AQ2" t="n">
-        <v>38.07758585435474</v>
+        <v>38.97336684963025</v>
       </c>
       <c r="AR2" t="n">
-        <v>19.60549194788217</v>
+        <v>15.77976349644936</v>
       </c>
       <c r="AS2" t="n">
-        <v>23.09654174316593</v>
+        <v>18.95745853460939</v>
       </c>
       <c r="AT2" t="n">
-        <v>18.66151893249643</v>
+        <v>23.54774204334026</v>
       </c>
       <c r="AU2" t="n">
-        <v>37.94045846669884</v>
+        <v>15.03040120872466</v>
       </c>
       <c r="AV2" t="n">
-        <v>14.55072998654554</v>
+        <v>38.9816649403238</v>
       </c>
       <c r="AW2" t="n">
-        <v>18.15832258322988</v>
+        <v>23.57713901693769</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.88041069067965</v>
+        <v>8.859818742245983</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3037688</v>
+        <v>1.983460477692405</v>
       </c>
       <c r="D3" t="n">
-        <v>3.192448647095841</v>
+        <v>0.219531828632537</v>
       </c>
       <c r="E3" t="n">
-        <v>2.115631028412501</v>
+        <v>0.04630700106103738</v>
       </c>
       <c r="F3" t="n">
-        <v>2.551596559558605</v>
+        <v>1.617779283142272</v>
       </c>
       <c r="G3" t="n">
-        <v>1.440484141542417</v>
+        <v>7.363993764561035</v>
       </c>
       <c r="H3" t="n">
-        <v>2.46736685722784</v>
+        <v>1.395302600094793</v>
       </c>
       <c r="I3" t="n">
-        <v>1.878102517985612</v>
+        <v>6.348098934336666</v>
       </c>
       <c r="J3" t="n">
-        <v>3.051671940477209</v>
+        <v>0.7515530379783398</v>
       </c>
       <c r="K3" t="n">
-        <v>7.616805654870335</v>
+        <v>4.52462163776756</v>
       </c>
       <c r="L3" t="n">
-        <v>4.333756296475006</v>
+        <v>8.215619247299506</v>
       </c>
       <c r="M3" t="n">
-        <v>20.87317769669846</v>
+        <v>1.363780354555263</v>
       </c>
       <c r="N3" t="n">
-        <v>2.765336399436495</v>
+        <v>4.575445590448165</v>
       </c>
       <c r="O3" t="n">
-        <v>6.225366945681494</v>
+        <v>3.543490901095663</v>
       </c>
       <c r="P3" t="n">
-        <v>2.821720976235666</v>
+        <v>2.153255745130223</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.795492299263314</v>
+        <v>2.837624941938999</v>
       </c>
       <c r="R3" t="n">
-        <v>6.80461334218387</v>
+        <v>5.742593893133034</v>
       </c>
       <c r="S3" t="n">
-        <v>3.187246700008221</v>
+        <v>2.256109082066387</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6535122170205097</v>
+        <v>4.977345559563339</v>
       </c>
       <c r="U3" t="n">
-        <v>3.279197100499522</v>
+        <v>6.825568533831412</v>
       </c>
       <c r="V3" t="n">
-        <v>2.793614720654531</v>
+        <v>2.054951606384955</v>
       </c>
       <c r="W3" t="n">
-        <v>6.104051844225062</v>
+        <v>10.06476847222517</v>
       </c>
       <c r="X3" t="n">
-        <v>5.324998300969984</v>
+        <v>4.360166682440047</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.055839860005549</v>
+        <v>3.218194493073351</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.256858428467697</v>
+        <v>2.888647973709575</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.908501248725113</v>
+        <v>2.162725488766139</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.849714888467211</v>
+        <v>1.624155348653294</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.284303526187358</v>
+        <v>7.703379021229969</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.460397540327052</v>
+        <v>6.147094469014894</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.091306214664853</v>
+        <v>1.973682399115261</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.026049155659589</v>
+        <v>6.307199291086016</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.7053709011254</v>
+        <v>3.479643507413316</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.668122703053567</v>
+        <v>3.716950254803628</v>
       </c>
       <c r="AI3" t="n">
-        <v>10.15615826332446</v>
+        <v>3.414661742758063</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.292860419457238</v>
+        <v>3.067961599895696</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.750364074231477</v>
+        <v>1.836354577439627</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.840138891698517</v>
+        <v>2.118850632063662</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.990648873109963</v>
+        <v>11.6231676226587</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.458907031765116</v>
+        <v>2.305774006128665</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.220129767368255</v>
+        <v>1.24054693412651</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.890468650571463</v>
+        <v>6.634904464143474</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.433678283499322</v>
+        <v>7.074057508195009</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.862043782844353</v>
+        <v>3.180316583279597</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.914198066073851</v>
+        <v>5.338800701083565</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.255885784322247</v>
+        <v>4.514546088884294</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.345439799952691</v>
+        <v>10.93471087449702</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.387062980815864</v>
+        <v>1.537568700656714</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.013517295553109</v>
+        <v>1.275620826644495</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.92006915433669</v>
+        <v>3.462551197918862</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.77847140118744</v>
+        <v>8.984132313991937</v>
       </c>
       <c r="D4" t="n">
-        <v>53.40567534323689</v>
+        <v>5.4217629614256</v>
       </c>
       <c r="E4" t="n">
-        <v>11.52187756005757</v>
+        <v>18.70070405168523</v>
       </c>
       <c r="F4" t="n">
-        <v>23.38635709158294</v>
+        <v>11.96499088780651</v>
       </c>
       <c r="G4" t="n">
-        <v>7.382901373795365</v>
+        <v>21.96305741099798</v>
       </c>
       <c r="H4" t="n">
-        <v>69.73338888304991</v>
+        <v>15.74479017285746</v>
       </c>
       <c r="I4" t="n">
-        <v>32.76268009368593</v>
+        <v>55.04404639452036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.06454203240403</v>
+        <v>17.31906073617321</v>
       </c>
       <c r="K4" t="n">
-        <v>80.04780651750461</v>
+        <v>84.75417506572553</v>
       </c>
       <c r="L4" t="n">
-        <v>109.3396689953079</v>
+        <v>44.34245371276306</v>
       </c>
       <c r="M4" t="n">
-        <v>112.011090657883</v>
+        <v>25.29576804042791</v>
       </c>
       <c r="N4" t="n">
-        <v>74.93112381059423</v>
+        <v>114.5081295092346</v>
       </c>
       <c r="O4" t="n">
-        <v>53.61247167788645</v>
+        <v>62.81290552184657</v>
       </c>
       <c r="P4" t="n">
-        <v>37.38066243539069</v>
+        <v>173.9858444868763</v>
       </c>
       <c r="Q4" t="n">
-        <v>168.9033757076548</v>
+        <v>94.2458977540994</v>
       </c>
       <c r="R4" t="n">
-        <v>22.09200120424928</v>
+        <v>31.28147622175978</v>
       </c>
       <c r="S4" t="n">
-        <v>35.2417226250269</v>
+        <v>11.77013432423644</v>
       </c>
       <c r="T4" t="n">
-        <v>42.97170822283197</v>
+        <v>117.4328224777249</v>
       </c>
       <c r="U4" t="n">
-        <v>71.61616568355386</v>
+        <v>77.38078244852893</v>
       </c>
       <c r="V4" t="n">
-        <v>41.85890543681459</v>
+        <v>57.18998465543184</v>
       </c>
       <c r="W4" t="n">
-        <v>55.20072908680581</v>
+        <v>94.48617373735033</v>
       </c>
       <c r="X4" t="n">
-        <v>58.14041166766647</v>
+        <v>101.6342860304056</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.06420707278495</v>
+        <v>27.33059080622195</v>
       </c>
       <c r="Z4" t="n">
-        <v>47.23118739581425</v>
+        <v>46.0374384681647</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.7537844</v>
+        <v>46.72213168077045</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.71440304892278</v>
+        <v>84.08701199216894</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.87290527775858</v>
+        <v>123.0157421033966</v>
       </c>
       <c r="AD4" t="n">
-        <v>48.48185851708821</v>
+        <v>29.48663202546981</v>
       </c>
       <c r="AE4" t="n">
-        <v>84.83434068211167</v>
+        <v>129.0958176508547</v>
       </c>
       <c r="AF4" t="n">
-        <v>97.4631592709777</v>
+        <v>82.5310234105113</v>
       </c>
       <c r="AG4" t="n">
-        <v>91.64803845978757</v>
+        <v>57.12651299948703</v>
       </c>
       <c r="AH4" t="n">
-        <v>85.40769370416091</v>
+        <v>22.24273901229612</v>
       </c>
       <c r="AI4" t="n">
-        <v>28.67618110264693</v>
+        <v>23.99245575689017</v>
       </c>
       <c r="AJ4" t="n">
-        <v>108.2969916016011</v>
+        <v>108.8032332517682</v>
       </c>
       <c r="AK4" t="n">
-        <v>51.68066052906271</v>
+        <v>11.450753781682</v>
       </c>
       <c r="AL4" t="n">
-        <v>27.3845161054743</v>
+        <v>35.39828784898506</v>
       </c>
       <c r="AM4" t="n">
-        <v>66.77799649373416</v>
+        <v>72.77451944222589</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.92097194438078</v>
+        <v>43.42304072974375</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.18588911928749</v>
+        <v>17.9201148209251</v>
       </c>
       <c r="AP4" t="n">
-        <v>9.933250658812588</v>
+        <v>4.65461913723803</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.16945296863919</v>
+        <v>21.41600977756774</v>
       </c>
       <c r="AR4" t="n">
-        <v>14.57508124630237</v>
+        <v>12.04395820048384</v>
       </c>
       <c r="AS4" t="n">
-        <v>15.01676151669496</v>
+        <v>16.96043245289911</v>
       </c>
       <c r="AT4" t="n">
-        <v>10.8140748730672</v>
+        <v>12.85911679886918</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.793200000000001</v>
+        <v>8.519348308637092</v>
       </c>
       <c r="AV4" t="n">
-        <v>10.49263753503903</v>
+        <v>24.06614723759115</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.02419491095867</v>
+        <v>7.930074134529066</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.863165682330726</v>
+        <v>5.126085627134419</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>24.13696363587817</v>
+        <v>52.98662163779652</v>
       </c>
       <c r="D5" t="n">
-        <v>4.058329066204506</v>
+        <v>16.36973220472063</v>
       </c>
       <c r="E5" t="n">
-        <v>21.87228746307365</v>
+        <v>3.32292906693001</v>
       </c>
       <c r="F5" t="n">
-        <v>23.20667867678707</v>
+        <v>66.2901026577731</v>
       </c>
       <c r="G5" t="n">
-        <v>2.378992763516445</v>
+        <v>27.88566059185201</v>
       </c>
       <c r="H5" t="n">
-        <v>12.65910447152369</v>
+        <v>14.80599117010444</v>
       </c>
       <c r="I5" t="n">
-        <v>20.5591417242694</v>
+        <v>23.84329225912304</v>
       </c>
       <c r="J5" t="n">
-        <v>23.36253829762615</v>
+        <v>18.40065140637541</v>
       </c>
       <c r="K5" t="n">
-        <v>41.79415923934641</v>
+        <v>3.323390504370692</v>
       </c>
       <c r="L5" t="n">
-        <v>46.64565638659668</v>
+        <v>231.9913308586651</v>
       </c>
       <c r="M5" t="n">
-        <v>34.04440458962559</v>
+        <v>12.66816953832923</v>
       </c>
       <c r="N5" t="n">
-        <v>116.418144411806</v>
+        <v>33.71688899134607</v>
       </c>
       <c r="O5" t="n">
-        <v>21.48377396204339</v>
+        <v>8.572363294838388</v>
       </c>
       <c r="P5" t="n">
-        <v>25.32395888768414</v>
+        <v>39.09577296620586</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.8239728576178</v>
+        <v>13.32493494859447</v>
       </c>
       <c r="R5" t="n">
-        <v>130.6530422758869</v>
+        <v>17.90864664354667</v>
       </c>
       <c r="S5" t="n">
-        <v>48.12969992989484</v>
+        <v>52.96173934908827</v>
       </c>
       <c r="T5" t="n">
-        <v>36.93398557178844</v>
+        <v>30.4228932127825</v>
       </c>
       <c r="U5" t="n">
-        <v>45.89575131516058</v>
+        <v>113.365086121607</v>
       </c>
       <c r="V5" t="n">
-        <v>71.5746933171491</v>
+        <v>80.50209145377531</v>
       </c>
       <c r="W5" t="n">
-        <v>111.0296327308642</v>
+        <v>56.57103196695397</v>
       </c>
       <c r="X5" t="n">
-        <v>41.27554025864227</v>
+        <v>46.06832870978881</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.435256893338</v>
+        <v>48.59291670544299</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.438253631584967</v>
+        <v>140.0448576008316</v>
       </c>
       <c r="AA5" t="n">
-        <v>23.81817618903879</v>
+        <v>36.75062901610104</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.81470662176076</v>
+        <v>31.06738281350908</v>
       </c>
       <c r="AC5" t="n">
-        <v>29.15893626721649</v>
+        <v>20.87645895293493</v>
       </c>
       <c r="AD5" t="n">
-        <v>49.87134471468888</v>
+        <v>23.75653589943594</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.24584994004089</v>
+        <v>74.01384811153069</v>
       </c>
       <c r="AF5" t="n">
-        <v>33.31899927053254</v>
+        <v>19.51173517760109</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.556215571304053</v>
+        <v>143.1081387388469</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.989390320649147</v>
+        <v>12.25344071406275</v>
       </c>
       <c r="AI5" t="n">
-        <v>23.35848144809343</v>
+        <v>26.68229458819773</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27.06924484648725</v>
+        <v>3.347486764534269</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.09312772956823</v>
+        <v>55.4204244014655</v>
       </c>
       <c r="AL5" t="n">
-        <v>21.76478883892497</v>
+        <v>16.04959840861838</v>
       </c>
       <c r="AM5" t="n">
-        <v>23.7648763603513</v>
+        <v>19.61430135630865</v>
       </c>
       <c r="AN5" t="n">
-        <v>41.29558060249211</v>
+        <v>21.50498838515771</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.597871936587596</v>
+        <v>29.13332054929509</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.391098144163576</v>
+        <v>39.18462667586445</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27.24987850524553</v>
+        <v>21.39605757683128</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.75025651389855</v>
+        <v>40.53153002757087</v>
       </c>
       <c r="AS5" t="n">
-        <v>22.73379794274157</v>
+        <v>51.30916921410412</v>
       </c>
       <c r="AT5" t="n">
-        <v>8.418508735857312</v>
+        <v>45.05729007239147</v>
       </c>
       <c r="AU5" t="n">
-        <v>19.50715680864624</v>
+        <v>40.14710005764918</v>
       </c>
       <c r="AV5" t="n">
-        <v>24.17699798436769</v>
+        <v>16.68793341564145</v>
       </c>
       <c r="AW5" t="n">
-        <v>24.75428665823308</v>
+        <v>40.92886956930651</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.549114318575282</v>
+        <v>86.53613122137592</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.55732176860367</v>
+        <v>1.111315629534695</v>
       </c>
       <c r="D6" t="n">
-        <v>2.1952161</v>
+        <v>2.176607265137252</v>
       </c>
       <c r="E6" t="n">
-        <v>1.191717099931441</v>
+        <v>4.306176827834589</v>
       </c>
       <c r="F6" t="n">
-        <v>17.52771411175343</v>
+        <v>3.883059644700618</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7629362229873504</v>
+        <v>33.20113140309106</v>
       </c>
       <c r="H6" t="n">
-        <v>10.8622899</v>
+        <v>10.34909206020533</v>
       </c>
       <c r="I6" t="n">
-        <v>4.024635308548104</v>
+        <v>9.012994287569423</v>
       </c>
       <c r="J6" t="n">
-        <v>18.09469472919707</v>
+        <v>194.0392408206305</v>
       </c>
       <c r="K6" t="n">
-        <v>45.01822092110859</v>
+        <v>26.00081087641262</v>
       </c>
       <c r="L6" t="n">
-        <v>27.92631574803504</v>
+        <v>62.17103308214589</v>
       </c>
       <c r="M6" t="n">
-        <v>8.787156003110578</v>
+        <v>3.780065312350663</v>
       </c>
       <c r="N6" t="n">
-        <v>59.82775422837003</v>
+        <v>29.64828258376181</v>
       </c>
       <c r="O6" t="n">
-        <v>13.90343040439625</v>
+        <v>89.65487786478953</v>
       </c>
       <c r="P6" t="n">
-        <v>20.51243587085024</v>
+        <v>42.51133723302574</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.345520308746178</v>
+        <v>19.17178132700725</v>
       </c>
       <c r="R6" t="n">
-        <v>74.71886845375391</v>
+        <v>18.46762463908727</v>
       </c>
       <c r="S6" t="n">
-        <v>23.56650438236879</v>
+        <v>13.52289100805393</v>
       </c>
       <c r="T6" t="n">
-        <v>30.0223889868489</v>
+        <v>22.51232867674883</v>
       </c>
       <c r="U6" t="n">
-        <v>24.08838848026523</v>
+        <v>30.26438386598899</v>
       </c>
       <c r="V6" t="n">
-        <v>18.61702421264565</v>
+        <v>50.9245741346152</v>
       </c>
       <c r="W6" t="n">
-        <v>8.14308208832575</v>
+        <v>25.57627723222853</v>
       </c>
       <c r="X6" t="n">
-        <v>11.0009204454239</v>
+        <v>13.04003306758183</v>
       </c>
       <c r="Y6" t="n">
-        <v>25.38907409538388</v>
+        <v>9.429325456893221</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.78458046549171</v>
+        <v>18.56988020707383</v>
       </c>
       <c r="AA6" t="n">
-        <v>30.22173897739782</v>
+        <v>16.88059348957767</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.61617236205728</v>
+        <v>19.59131824152864</v>
       </c>
       <c r="AC6" t="n">
-        <v>20.24758870599729</v>
+        <v>24.58732869192942</v>
       </c>
       <c r="AD6" t="n">
-        <v>49.87712399306888</v>
+        <v>15.60796017432478</v>
       </c>
       <c r="AE6" t="n">
-        <v>31.50282733160401</v>
+        <v>17.77180812691714</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.98888661760824</v>
+        <v>14.46489249027787</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.266472269827583</v>
+        <v>10.87857427947996</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.840928454111108</v>
+        <v>6.150341636942359</v>
       </c>
       <c r="AI6" t="n">
-        <v>12.29082360596984</v>
+        <v>8.821734535203563</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.760610705106491</v>
+        <v>3.04863101255195</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.507141600280622</v>
+        <v>6.946287836069616</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.642621403972611</v>
+        <v>9.025008475645995</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.67356832552675</v>
+        <v>8.249311344415025</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.932219222120779</v>
+        <v>1.727355082096177</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.084279221193371</v>
+        <v>2.188900034652776</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.008183646458544</v>
+        <v>11.60384207032494</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.172215891530278</v>
+        <v>3.242378187545373</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.483482454884244</v>
+        <v>4.015577343827081</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.90059015661673</v>
+        <v>2.662741709170018</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.124007791093663</v>
+        <v>3.36235860557653</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.334178631363043</v>
+        <v>0.8901687268973394</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.539786920994732</v>
+        <v>0.4253743472759305</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.063946465999093</v>
+        <v>3.97869315382825</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.86278012964124</v>
+        <v>4.467270645400356</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.62</v>
+        <v>3.483910429345609</v>
       </c>
       <c r="D7" t="n">
-        <v>10.17</v>
+        <v>9.70978334734756</v>
       </c>
       <c r="E7" t="n">
-        <v>2.01</v>
+        <v>7.015505222025004</v>
       </c>
       <c r="F7" t="n">
-        <v>13.15</v>
+        <v>8.938913773935594</v>
       </c>
       <c r="G7" t="n">
-        <v>38.08</v>
+        <v>12.13274394279168</v>
       </c>
       <c r="H7" t="n">
-        <v>8.65</v>
+        <v>22.99738842894364</v>
       </c>
       <c r="I7" t="n">
-        <v>1.74</v>
+        <v>4.539147200881506</v>
       </c>
       <c r="J7" t="n">
-        <v>23.6375</v>
+        <v>12.3672223739374</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>67.29816987734593</v>
       </c>
       <c r="L7" t="n">
-        <v>11.81</v>
+        <v>62.58837523795359</v>
       </c>
       <c r="M7" t="n">
-        <v>38.6</v>
+        <v>74.01067089380768</v>
       </c>
       <c r="N7" t="n">
-        <v>114.03</v>
+        <v>57.88850500089125</v>
       </c>
       <c r="O7" t="n">
-        <v>51.03</v>
+        <v>13.31968587373045</v>
       </c>
       <c r="P7" t="n">
-        <v>30.52</v>
+        <v>14.45391527749111</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.637009684386538</v>
+        <v>76.92487867713079</v>
       </c>
       <c r="R7" t="n">
-        <v>81.89</v>
+        <v>11.67442746955887</v>
       </c>
       <c r="S7" t="n">
-        <v>22.95</v>
+        <v>2.453189534121488</v>
       </c>
       <c r="T7" t="n">
-        <v>24.33</v>
+        <v>7.301340521558271</v>
       </c>
       <c r="U7" t="n">
-        <v>3.45178522680766</v>
+        <v>17.49719497755379</v>
       </c>
       <c r="V7" t="n">
-        <v>32.13</v>
+        <v>21.11008123104733</v>
       </c>
       <c r="W7" t="n">
-        <v>9.869999999999999</v>
+        <v>59.32201520362893</v>
       </c>
       <c r="X7" t="n">
-        <v>6.87</v>
+        <v>28.84517396792667</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.53</v>
+        <v>126.6202279372487</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.22</v>
+        <v>1.859972549668654</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>1.965717761181071</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.630000000000001</v>
+        <v>17.95185260807663</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.81</v>
+        <v>1.872450898845503</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.9030271608204468</v>
+        <v>12.46019836982166</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.87</v>
+        <v>57.7702648141004</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.13</v>
+        <v>2.823383464286877</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.07</v>
+        <v>2.831093711099793</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.919042495965574</v>
+        <v>10.67552072042466</v>
       </c>
       <c r="AI7" t="n">
-        <v>19.68</v>
+        <v>6.690918343917479</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.83</v>
+        <v>3.935778477034224</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.56</v>
+        <v>114.5274886981091</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.599266113592854</v>
+        <v>18.73554013258629</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.45</v>
+        <v>0.8231960917992442</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.53</v>
+        <v>3.856062799652979</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.88</v>
+        <v>1.559351757661984</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.720000000000001</v>
+        <v>8.732441877085877</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.17</v>
+        <v>10.45889427183364</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.5304966661197413</v>
+        <v>0.7305061149560624</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.31</v>
+        <v>5.629416395917702</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.53</v>
+        <v>0.6256763146545971</v>
       </c>
       <c r="AU7" t="n">
-        <v>14.81</v>
+        <v>23.62656453764996</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.77759680876609</v>
+        <v>19.36186463206577</v>
       </c>
       <c r="AW7" t="n">
-        <v>58.95</v>
+        <v>7.427247221432274</v>
       </c>
       <c r="AX7" t="n">
-        <v>1</v>
+        <v>2.175761349775134</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.01506321636317</v>
+        <v>14.64881705334445</v>
       </c>
       <c r="D8" t="n">
-        <v>17.1719861678182</v>
+        <v>20.17058659523777</v>
       </c>
       <c r="E8" t="n">
-        <v>59.26693709202283</v>
+        <v>50.14011117112404</v>
       </c>
       <c r="F8" t="n">
-        <v>22.83318846828866</v>
+        <v>21.11221662866818</v>
       </c>
       <c r="G8" t="n">
-        <v>31.19451818366601</v>
+        <v>21.321579583679</v>
       </c>
       <c r="H8" t="n">
-        <v>25.12988958394108</v>
+        <v>18.01897716083868</v>
       </c>
       <c r="I8" t="n">
-        <v>14.15641948845616</v>
+        <v>31.92643874567806</v>
       </c>
       <c r="J8" t="n">
-        <v>30.34415208643725</v>
+        <v>26.6203183469442</v>
       </c>
       <c r="K8" t="n">
-        <v>21.55754039741068</v>
+        <v>28.77068140266533</v>
       </c>
       <c r="L8" t="n">
-        <v>29.45317110613245</v>
+        <v>48.05075512648517</v>
       </c>
       <c r="M8" t="n">
-        <v>33.26651815690624</v>
+        <v>23.97878439372359</v>
       </c>
       <c r="N8" t="n">
-        <v>186.4728531807068</v>
+        <v>42.70921748345547</v>
       </c>
       <c r="O8" t="n">
-        <v>88.98564563001156</v>
+        <v>135.8628051165483</v>
       </c>
       <c r="P8" t="n">
-        <v>56.53557530778401</v>
+        <v>42.01257425798105</v>
       </c>
       <c r="Q8" t="n">
-        <v>146.6070625141529</v>
+        <v>126.7258495271715</v>
       </c>
       <c r="R8" t="n">
-        <v>20.51714250255479</v>
+        <v>22.85922153727394</v>
       </c>
       <c r="S8" t="n">
-        <v>45.85720184930282</v>
+        <v>40.05890093766673</v>
       </c>
       <c r="T8" t="n">
-        <v>64.33678709229721</v>
+        <v>38.71699679725884</v>
       </c>
       <c r="U8" t="n">
-        <v>28.96595200863273</v>
+        <v>39.39631101082418</v>
       </c>
       <c r="V8" t="n">
-        <v>57.45255523647366</v>
+        <v>64.26897599102438</v>
       </c>
       <c r="W8" t="n">
-        <v>95.05620768129644</v>
+        <v>43.26513010359892</v>
       </c>
       <c r="X8" t="n">
-        <v>44.69746510133608</v>
+        <v>89.64581306942071</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.39878552070007</v>
+        <v>98.30315433881637</v>
       </c>
       <c r="Z8" t="n">
-        <v>65.2269250119905</v>
+        <v>84.41360418877001</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.29424138647713</v>
+        <v>93.19051981159501</v>
       </c>
       <c r="AB8" t="n">
-        <v>73.17654137321028</v>
+        <v>99.01984710301002</v>
       </c>
       <c r="AC8" t="n">
-        <v>123.695422404193</v>
+        <v>147.4717360373796</v>
       </c>
       <c r="AD8" t="n">
-        <v>101.1286428873576</v>
+        <v>61.47113902099695</v>
       </c>
       <c r="AE8" t="n">
-        <v>140.248756583984</v>
+        <v>206.1594740020003</v>
       </c>
       <c r="AF8" t="n">
-        <v>74.08255397721774</v>
+        <v>105.5324165905977</v>
       </c>
       <c r="AG8" t="n">
-        <v>234.671157366456</v>
+        <v>369.7600994334654</v>
       </c>
       <c r="AH8" t="n">
-        <v>31.73569273459649</v>
+        <v>70.91837669652455</v>
       </c>
       <c r="AI8" t="n">
-        <v>60.37382543006893</v>
+        <v>46.15574751215633</v>
       </c>
       <c r="AJ8" t="n">
-        <v>76.80018761529661</v>
+        <v>25.12736275203555</v>
       </c>
       <c r="AK8" t="n">
-        <v>140.7552801469316</v>
+        <v>50.61984400982311</v>
       </c>
       <c r="AL8" t="n">
-        <v>32.1241334720462</v>
+        <v>59.55056427694114</v>
       </c>
       <c r="AM8" t="n">
-        <v>59.01321144601189</v>
+        <v>33.99434228102621</v>
       </c>
       <c r="AN8" t="n">
-        <v>68.47329454955106</v>
+        <v>34.02919618964528</v>
       </c>
       <c r="AO8" t="n">
-        <v>42.8369410585273</v>
+        <v>30.00088162138793</v>
       </c>
       <c r="AP8" t="n">
-        <v>22.6434892155522</v>
+        <v>22.23665885587933</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18.61562513143539</v>
+        <v>48.42887847153646</v>
       </c>
       <c r="AR8" t="n">
-        <v>25.38769636837891</v>
+        <v>29.15504932186644</v>
       </c>
       <c r="AS8" t="n">
-        <v>17.21210272907023</v>
+        <v>13.63759410735299</v>
       </c>
       <c r="AT8" t="n">
-        <v>26.16284367175507</v>
+        <v>24.63539987834099</v>
       </c>
       <c r="AU8" t="n">
-        <v>16.04977157894001</v>
+        <v>26.71338432445098</v>
       </c>
       <c r="AV8" t="n">
-        <v>22.31246521611158</v>
+        <v>20.04267770692278</v>
       </c>
       <c r="AW8" t="n">
-        <v>23.6794625</v>
+        <v>24.68691708803003</v>
       </c>
       <c r="AX8" t="n">
-        <v>26.45626655348495</v>
+        <v>19.50034061168763</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.742216963691488</v>
+        <v>15.91295086059408</v>
       </c>
       <c r="D9" t="n">
-        <v>3.308447653429604</v>
+        <v>2.580800670820548</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05913584490487561</v>
+        <v>1.420854768484584</v>
       </c>
       <c r="F9" t="n">
-        <v>14.58499651523791</v>
+        <v>2.077983335121413</v>
       </c>
       <c r="G9" t="n">
-        <v>4.387381393482813</v>
+        <v>1.690428236055926</v>
       </c>
       <c r="H9" t="n">
-        <v>3.503452627593677</v>
+        <v>3.998645101437846</v>
       </c>
       <c r="I9" t="n">
-        <v>1.731867788328038</v>
+        <v>3.04336717549716</v>
       </c>
       <c r="J9" t="n">
-        <v>4.440373318945092</v>
+        <v>1.055825653647482</v>
       </c>
       <c r="K9" t="n">
-        <v>5.762364479767692</v>
+        <v>4.214216991118091</v>
       </c>
       <c r="L9" t="n">
-        <v>9.967790006843018</v>
+        <v>3.871017870018226</v>
       </c>
       <c r="M9" t="n">
-        <v>4.85317856669678</v>
+        <v>5.495745546377225</v>
       </c>
       <c r="N9" t="n">
-        <v>6.368027303416637</v>
+        <v>3.960857015922865</v>
       </c>
       <c r="O9" t="n">
-        <v>4.758250318339488</v>
+        <v>8.469061275982705</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7784955333071608</v>
+        <v>2.228404178095857</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.416807463454052</v>
+        <v>4.829660329257506</v>
       </c>
       <c r="R9" t="n">
-        <v>6.80461334218387</v>
+        <v>1.951675274047998</v>
       </c>
       <c r="S9" t="n">
-        <v>3.690202124738632</v>
+        <v>2.851097282282108</v>
       </c>
       <c r="T9" t="n">
-        <v>7.128796224739793</v>
+        <v>1.983806245421266</v>
       </c>
       <c r="U9" t="n">
-        <v>3.38697410514879</v>
+        <v>1.930968384562869</v>
       </c>
       <c r="V9" t="n">
-        <v>4.62754450876044</v>
+        <v>4.918658938545756</v>
       </c>
       <c r="W9" t="n">
-        <v>2.188748960094371</v>
+        <v>4.320486056381379</v>
       </c>
       <c r="X9" t="n">
-        <v>5.644907016154399</v>
+        <v>4.900381618993491</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.600119056801837</v>
+        <v>8.793076340687165</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.921930002136493</v>
+        <v>5.127081105499887</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.538615661262387</v>
+        <v>3.822933482211804</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.849714888467211</v>
+        <v>8.053738087191693</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.857773311844713</v>
+        <v>3.768344590584538</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.50541958849742</v>
+        <v>6.305485357577305</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.22658380315675</v>
+        <v>3.227402056650538</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.171338525793423</v>
+        <v>2.692504800851153</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.926552014927356</v>
+        <v>5.782439337073249</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.910802223165216</v>
+        <v>12.20501121734765</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.337051283050482</v>
+        <v>5.26377678615541</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.398812255468372</v>
+        <v>2.65123073249161</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.06510911889885</v>
+        <v>6.646500797981346</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.683390536487038</v>
+        <v>4.609311095073612</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.856058529042379</v>
+        <v>10.55032028224345</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.080796127723367</v>
+        <v>3.357911695095821</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.430780724691819</v>
+        <v>2.76158281049145</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.935155238435396</v>
+        <v>2.172934265619039</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.32369426191874</v>
+        <v>11.9463291656501</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.892318132013503</v>
+        <v>3.963065668967288</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.473731992863975</v>
+        <v>3.172154880773058</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.355140148243789</v>
+        <v>2.73802992670445</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.690060005217846</v>
+        <v>8.768385461072684</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.853443034740267</v>
+        <v>4.335622654444238</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.153356875737568</v>
+        <v>1.429825887565364</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.276794565448605</v>
+        <v>3.864534331933347</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>12.25425384455895</v>
+        <v>13.48953996931617</v>
       </c>
       <c r="D10" t="n">
-        <v>4.947962860727729</v>
+        <v>4.025604421350334</v>
       </c>
       <c r="E10" t="n">
-        <v>9.868142292490116</v>
+        <v>33.20350479920709</v>
       </c>
       <c r="F10" t="n">
-        <v>145.3492769118672</v>
+        <v>62.99853658925254</v>
       </c>
       <c r="G10" t="n">
-        <v>41.04243700326511</v>
+        <v>26.62665948516306</v>
       </c>
       <c r="H10" t="n">
-        <v>80.06340898320275</v>
+        <v>17.16978319902925</v>
       </c>
       <c r="I10" t="n">
-        <v>128.8118927035721</v>
+        <v>196.4376177119593</v>
       </c>
       <c r="J10" t="n">
-        <v>18.34225625997995</v>
+        <v>12.90004368491552</v>
       </c>
       <c r="K10" t="n">
-        <v>23.30063484281089</v>
+        <v>20.57384452764815</v>
       </c>
       <c r="L10" t="n">
-        <v>61.04951693614703</v>
+        <v>64.23400669138698</v>
       </c>
       <c r="M10" t="n">
-        <v>128.975887162898</v>
+        <v>100.406485484108</v>
       </c>
       <c r="N10" t="n">
-        <v>82.81715854443355</v>
+        <v>46.24956994606575</v>
       </c>
       <c r="O10" t="n">
-        <v>21.63177424036078</v>
+        <v>34.31706433084327</v>
       </c>
       <c r="P10" t="n">
-        <v>111.8407109597794</v>
+        <v>26.30927087374154</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.62821749320698</v>
+        <v>44.65697595123251</v>
       </c>
       <c r="R10" t="n">
-        <v>37.33419177637626</v>
+        <v>90.04004608919281</v>
       </c>
       <c r="S10" t="n">
-        <v>136.2677297204157</v>
+        <v>25.83243761189389</v>
       </c>
       <c r="T10" t="n">
-        <v>81.40014341120303</v>
+        <v>96.4444943397408</v>
       </c>
       <c r="U10" t="n">
-        <v>68.98774281805746</v>
+        <v>66.36908891948832</v>
       </c>
       <c r="V10" t="n">
-        <v>65.56596785435192</v>
+        <v>46.59136821405472</v>
       </c>
       <c r="W10" t="n">
-        <v>69.5149194424698</v>
+        <v>68.43521421606104</v>
       </c>
       <c r="X10" t="n">
-        <v>155.1534947955633</v>
+        <v>35.08129089129439</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.69751745306858</v>
+        <v>62.97347487080874</v>
       </c>
       <c r="Z10" t="n">
-        <v>60.36748771810943</v>
+        <v>80.02907751841495</v>
       </c>
       <c r="AA10" t="n">
-        <v>48.86184990253224</v>
+        <v>61.10873466540808</v>
       </c>
       <c r="AB10" t="n">
-        <v>79.46260826531319</v>
+        <v>87.18528653455189</v>
       </c>
       <c r="AC10" t="n">
-        <v>66.15037160887978</v>
+        <v>57.86920376813779</v>
       </c>
       <c r="AD10" t="n">
-        <v>64.95101674377615</v>
+        <v>117.503894235237</v>
       </c>
       <c r="AE10" t="n">
-        <v>70.01296977974697</v>
+        <v>61.00059730093989</v>
       </c>
       <c r="AF10" t="n">
-        <v>103.8164827934578</v>
+        <v>53.50736070500251</v>
       </c>
       <c r="AG10" t="n">
-        <v>75.2526491052289</v>
+        <v>72.49127302017328</v>
       </c>
       <c r="AH10" t="n">
-        <v>49.63587984624264</v>
+        <v>20.56488803119233</v>
       </c>
       <c r="AI10" t="n">
-        <v>68.86799060545857</v>
+        <v>125.7374924176061</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32.07428366086605</v>
+        <v>48.16250241988989</v>
       </c>
       <c r="AK10" t="n">
-        <v>19.7268654419421</v>
+        <v>38.28522736653801</v>
       </c>
       <c r="AL10" t="n">
-        <v>20.03607577686929</v>
+        <v>18.94969399544884</v>
       </c>
       <c r="AM10" t="n">
-        <v>33.85321030076059</v>
+        <v>24.7714068654481</v>
       </c>
       <c r="AN10" t="n">
-        <v>34.04052180058828</v>
+        <v>38.17371621641509</v>
       </c>
       <c r="AO10" t="n">
-        <v>16.5914703261377</v>
+        <v>23.85610290905508</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.519018687061564</v>
+        <v>13.04330240505382</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11.90497444213758</v>
+        <v>12.34979846369249</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.974574966850071</v>
+        <v>15.07461540651478</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.075391751509922</v>
+        <v>12.48422897216638</v>
       </c>
       <c r="AT10" t="n">
-        <v>15.80217769107998</v>
+        <v>11.42140536827693</v>
       </c>
       <c r="AU10" t="n">
-        <v>12.09712811877748</v>
+        <v>6.213370469765186</v>
       </c>
       <c r="AV10" t="n">
-        <v>15.5673239449792</v>
+        <v>11.48657696201524</v>
       </c>
       <c r="AW10" t="n">
-        <v>16.85167410661001</v>
+        <v>17.56536705060629</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.3972920844669</v>
+        <v>14.40639333825353</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>9.351169530644082</v>
+        <v>41.62946792973591</v>
       </c>
       <c r="D11" t="n">
-        <v>19.97014040512104</v>
+        <v>16.41934592707742</v>
       </c>
       <c r="E11" t="n">
-        <v>35.75324151807946</v>
+        <v>4.860625440178187</v>
       </c>
       <c r="F11" t="n">
-        <v>22.47381288299894</v>
+        <v>4.458634316286857</v>
       </c>
       <c r="G11" t="n">
-        <v>28.07670525964515</v>
+        <v>8.286489095037741</v>
       </c>
       <c r="H11" t="n">
-        <v>5.856260640729696</v>
+        <v>7.775303900464989</v>
       </c>
       <c r="I11" t="n">
-        <v>22.50043230198792</v>
+        <v>22.34057653054252</v>
       </c>
       <c r="J11" t="n">
-        <v>4.013190047234705</v>
+        <v>104.7459843126608</v>
       </c>
       <c r="K11" t="n">
-        <v>25.7836522511257</v>
+        <v>49.29709054799672</v>
       </c>
       <c r="L11" t="n">
-        <v>23.23126685492527</v>
+        <v>31.71564907101474</v>
       </c>
       <c r="M11" t="n">
-        <v>63.12150678652241</v>
+        <v>16.51072934583006</v>
       </c>
       <c r="N11" t="n">
-        <v>10.22929661018557</v>
+        <v>26.90734540695565</v>
       </c>
       <c r="O11" t="n">
-        <v>47.78373539613445</v>
+        <v>37.51107024440365</v>
       </c>
       <c r="P11" t="n">
-        <v>19.19777231409333</v>
+        <v>31.2248480501993</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.35577401999876</v>
+        <v>52.76650586293594</v>
       </c>
       <c r="R11" t="n">
-        <v>95.58584695296</v>
+        <v>82.25050771907988</v>
       </c>
       <c r="S11" t="n">
-        <v>75.44292642857144</v>
+        <v>47.56125693047909</v>
       </c>
       <c r="T11" t="n">
-        <v>24.44019838476168</v>
+        <v>94.95576515278708</v>
       </c>
       <c r="U11" t="n">
-        <v>49.89474992189554</v>
+        <v>53.8836414913434</v>
       </c>
       <c r="V11" t="n">
-        <v>27.68692761258274</v>
+        <v>37.45984067898117</v>
       </c>
       <c r="W11" t="n">
-        <v>36.21752184063013</v>
+        <v>34.67381732977114</v>
       </c>
       <c r="X11" t="n">
-        <v>49.53594486958932</v>
+        <v>50.70885068621146</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.15675456701137</v>
+        <v>15.45651209619245</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.78906349268691</v>
+        <v>34.80491613525511</v>
       </c>
       <c r="AA11" t="n">
-        <v>37.16193282764642</v>
+        <v>46.98900053710484</v>
       </c>
       <c r="AB11" t="n">
-        <v>26.39352644020561</v>
+        <v>34.47903102090952</v>
       </c>
       <c r="AC11" t="n">
-        <v>49.76053661033642</v>
+        <v>19.47420806334716</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.76235961892641</v>
+        <v>21.83000122574336</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.58128824379109</v>
+        <v>42.69694715805461</v>
       </c>
       <c r="AF11" t="n">
-        <v>60.56375120115054</v>
+        <v>13.05128748414043</v>
       </c>
       <c r="AG11" t="n">
-        <v>20.4000784233315</v>
+        <v>36.39982092152122</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.65568059880816</v>
+        <v>23.74148584725412</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.07105450953631</v>
+        <v>27.04118913978188</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>10.46799463202798</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.4268198008914617</v>
+        <v>40.35158350362189</v>
       </c>
       <c r="AL11" t="n">
-        <v>30.71112690086315</v>
+        <v>37.2979267241668</v>
       </c>
       <c r="AM11" t="n">
-        <v>31.67836314964253</v>
+        <v>94.79945842301032</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.378187074235091</v>
+        <v>4.417428865268892</v>
       </c>
       <c r="AO11" t="n">
-        <v>35.43127977714913</v>
+        <v>14.16394130584158</v>
       </c>
       <c r="AP11" t="n">
-        <v>28.28108884709693</v>
+        <v>26.74236934495244</v>
       </c>
       <c r="AQ11" t="n">
-        <v>27.24987850524553</v>
+        <v>38.22048127090637</v>
       </c>
       <c r="AR11" t="n">
-        <v>27.85525092115696</v>
+        <v>11.28595021386518</v>
       </c>
       <c r="AS11" t="n">
-        <v>12.10727229868401</v>
+        <v>37.0856130970116</v>
       </c>
       <c r="AT11" t="n">
-        <v>36.75570900130123</v>
+        <v>55.02420682119831</v>
       </c>
       <c r="AU11" t="n">
-        <v>32.51225331720017</v>
+        <v>21.20400890802662</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.3075998839259775</v>
+        <v>16.94896600833593</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.747621520786855</v>
+        <v>10.16095599306954</v>
       </c>
       <c r="AX11" t="n">
-        <v>35.6687444436244</v>
+        <v>30.58126781208522</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.489775175768731</v>
+        <v>1.920353786493862</v>
       </c>
       <c r="D12" t="n">
-        <v>2.315135263165778</v>
+        <v>5.69539722012077</v>
       </c>
       <c r="E12" t="n">
-        <v>13.1030583524337</v>
+        <v>1.884984567217499</v>
       </c>
       <c r="F12" t="n">
-        <v>2.780438434957734</v>
+        <v>10.4980609457476</v>
       </c>
       <c r="G12" t="n">
-        <v>31.54012997054902</v>
+        <v>16.28264023129688</v>
       </c>
       <c r="H12" t="n">
-        <v>9.180228205018885</v>
+        <v>11.18903544924525</v>
       </c>
       <c r="I12" t="n">
-        <v>7.182388626259806</v>
+        <v>3.200188817625706</v>
       </c>
       <c r="J12" t="n">
-        <v>51.6096963942043</v>
+        <v>7.115221027780807</v>
       </c>
       <c r="K12" t="n">
-        <v>16.42769902373089</v>
+        <v>22.19156938021107</v>
       </c>
       <c r="L12" t="n">
-        <v>29.78744479587119</v>
+        <v>147.4531652657038</v>
       </c>
       <c r="M12" t="n">
-        <v>25.24650657564897</v>
+        <v>39.26716790972983</v>
       </c>
       <c r="N12" t="n">
-        <v>85.43103427393201</v>
+        <v>35.02790212659115</v>
       </c>
       <c r="O12" t="n">
-        <v>21.81603593967927</v>
+        <v>28.31178997968252</v>
       </c>
       <c r="P12" t="n">
-        <v>21.51794697912375</v>
+        <v>15.96762167910625</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.54269830782176</v>
+        <v>44.96592460289156</v>
       </c>
       <c r="R12" t="n">
-        <v>24.15774789734325</v>
+        <v>24.35231165249188</v>
       </c>
       <c r="S12" t="n">
-        <v>74.57174135895421</v>
+        <v>9.682040378135188</v>
       </c>
       <c r="T12" t="n">
-        <v>16.93471242104065</v>
+        <v>10.40630284632118</v>
       </c>
       <c r="U12" t="n">
-        <v>35.91946864063272</v>
+        <v>32.75246112475548</v>
       </c>
       <c r="V12" t="n">
-        <v>18.61702421264565</v>
+        <v>20.5697375849198</v>
       </c>
       <c r="W12" t="n">
-        <v>15.14899030158623</v>
+        <v>12.12029152414046</v>
       </c>
       <c r="X12" t="n">
-        <v>21.4029083014391</v>
+        <v>35.27042150147963</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.72705103936215</v>
+        <v>16.3955527546854</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.45476260005125</v>
+        <v>19.48145757130542</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.93358902857143</v>
+        <v>7.388158668072894</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.61753009481441</v>
+        <v>14.47106248399815</v>
       </c>
       <c r="AC12" t="n">
-        <v>24.68702345231431</v>
+        <v>29.51116196771594</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.10884667745242</v>
+        <v>32.71908237359876</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.385501488460058</v>
+        <v>12.47377260143101</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.349647226173541</v>
+        <v>6.380605515275731</v>
       </c>
       <c r="AG12" t="n">
-        <v>24.48828734799944</v>
+        <v>26.69524530325803</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.17947159588238</v>
+        <v>15.67693860242177</v>
       </c>
       <c r="AI12" t="n">
-        <v>12.32630932509548</v>
+        <v>15.82252471995866</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.95364564618911</v>
+        <v>10.22833499813469</v>
       </c>
       <c r="AK12" t="n">
-        <v>12.2477806648253</v>
+        <v>2.288682514691713</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.642435497588003</v>
+        <v>4.287557966117842</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.961720354353754</v>
+        <v>4.118753957311222</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.1519956314479</v>
+        <v>1.977267136730007</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.002935998072044</v>
+        <v>1.815358065384887</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.7066794344106</v>
+        <v>4.305166182918571</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.178536771428571</v>
+        <v>2.277861102304255</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.372412146799427</v>
+        <v>7.344167937051831</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.458571428571428</v>
+        <v>2.599411338609519</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.171339426885004</v>
+        <v>2.518561487232625</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.464252939986083</v>
+        <v>1.177380975837906</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.310719747479363</v>
+        <v>2.812245076291469</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.111778935853359</v>
+        <v>0.6137632057353681</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.8517465569569113</v>
+        <v>2.353796078032615</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>76.56</v>
+        <v>6.282590041513093</v>
       </c>
       <c r="D13" t="n">
-        <v>27.42</v>
+        <v>13.14270462577295</v>
       </c>
       <c r="E13" t="n">
-        <v>9.460000000000001</v>
+        <v>9.440750973610326</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4.399596241186225</v>
       </c>
       <c r="G13" t="n">
-        <v>9.67</v>
+        <v>7.918260973711599</v>
       </c>
       <c r="H13" t="n">
-        <v>20.47</v>
+        <v>11.33577137207939</v>
       </c>
       <c r="I13" t="n">
-        <v>40.81</v>
+        <v>14.71541238592648</v>
       </c>
       <c r="J13" t="n">
-        <v>7.97</v>
+        <v>16.96260396769878</v>
       </c>
       <c r="K13" t="n">
-        <v>12.47</v>
+        <v>24.59363343974833</v>
       </c>
       <c r="L13" t="n">
-        <v>38.91</v>
+        <v>68.8338229387644</v>
       </c>
       <c r="M13" t="n">
-        <v>11.81</v>
+        <v>11.11297791088581</v>
       </c>
       <c r="N13" t="n">
-        <v>31.93</v>
+        <v>17.81231106756648</v>
       </c>
       <c r="O13" t="n">
-        <v>16.27374857142858</v>
+        <v>31.24792601158174</v>
       </c>
       <c r="P13" t="n">
-        <v>87</v>
+        <v>34.81152943347515</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.65</v>
+        <v>59.75297279776666</v>
       </c>
       <c r="R13" t="n">
-        <v>60.1</v>
+        <v>42.97102450101872</v>
       </c>
       <c r="S13" t="n">
-        <v>66.02000000000001</v>
+        <v>6.151216989598866</v>
       </c>
       <c r="T13" t="n">
-        <v>40.97</v>
+        <v>1.782035669687197</v>
       </c>
       <c r="U13" t="n">
-        <v>12.39</v>
+        <v>28.06814623000944</v>
       </c>
       <c r="V13" t="n">
-        <v>17.71</v>
+        <v>21.65366361677975</v>
       </c>
       <c r="W13" t="n">
-        <v>24.03</v>
+        <v>9.293631596227685</v>
       </c>
       <c r="X13" t="n">
-        <v>126.96875</v>
+        <v>26.91962996040907</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.96</v>
+        <v>74.89782859959639</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.87</v>
+        <v>32.85967294167965</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.74</v>
+        <v>8.649474829638303</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>20.32898853810632</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.07</v>
+        <v>2.005432624677207</v>
       </c>
       <c r="AD13" t="n">
-        <v>25.55</v>
+        <v>3.521177248984515</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.13</v>
+        <v>11.42500721341811</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.37</v>
+        <v>4.117498298484337</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.73</v>
+        <v>59.16617652588598</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.37</v>
+        <v>11.29100529426221</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.770869077142856</v>
+        <v>6.180658993173782</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.22</v>
+        <v>1.657183149883234</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.65</v>
+        <v>6.937521005594381</v>
       </c>
       <c r="AL13" t="n">
-        <v>22.75</v>
+        <v>6.941952800629564</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.783669985714285</v>
+        <v>20.71880843244153</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.85</v>
+        <v>22.44057295307907</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.72</v>
+        <v>4.43558174398599</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.64</v>
+        <v>18.59934864249774</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21.65</v>
+        <v>7.891942686062681</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.61</v>
+        <v>9.662987388290587</v>
       </c>
       <c r="AS13" t="n">
-        <v>17.01</v>
+        <v>3.422356022153082</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.1</v>
+        <v>8.859274745565109</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.039999999999999</v>
+        <v>25.99044953079947</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.52</v>
+        <v>2.638241884268538</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.600705417607225</v>
+        <v>11.66382124254381</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.62</v>
+        <v>3.797409907100942</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8082608637692</v>
+        <v>11.11925193634821</v>
       </c>
       <c r="D14" t="n">
-        <v>18.97966539183903</v>
+        <v>30.32575486170528</v>
       </c>
       <c r="E14" t="n">
-        <v>23.59042420910452</v>
+        <v>36.46277778003079</v>
       </c>
       <c r="F14" t="n">
-        <v>10.41693601679935</v>
+        <v>18.33987506958842</v>
       </c>
       <c r="G14" t="n">
-        <v>18.38081036307453</v>
+        <v>11.17936723718838</v>
       </c>
       <c r="H14" t="n">
-        <v>11.23261549532971</v>
+        <v>17.51019735165325</v>
       </c>
       <c r="I14" t="n">
-        <v>31.47676212323852</v>
+        <v>50.11344542406921</v>
       </c>
       <c r="J14" t="n">
-        <v>23.57487300035998</v>
+        <v>20.58387168493367</v>
       </c>
       <c r="K14" t="n">
-        <v>60.584976524196</v>
+        <v>41.15964242402465</v>
       </c>
       <c r="L14" t="n">
-        <v>77.91003528506778</v>
+        <v>68.23065251293443</v>
       </c>
       <c r="M14" t="n">
-        <v>28.31573840580975</v>
+        <v>32.54232679433629</v>
       </c>
       <c r="N14" t="n">
-        <v>88.36580196323497</v>
+        <v>36.85269536682714</v>
       </c>
       <c r="O14" t="n">
-        <v>97.67146771914109</v>
+        <v>35.59527452277267</v>
       </c>
       <c r="P14" t="n">
-        <v>45.34770517939454</v>
+        <v>60.39036642978302</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.88911869657505</v>
+        <v>18.55965123096255</v>
       </c>
       <c r="R14" t="n">
-        <v>54.75993233014059</v>
+        <v>32.10766653947729</v>
       </c>
       <c r="S14" t="n">
-        <v>27.08584092547852</v>
+        <v>28.5848915324538</v>
       </c>
       <c r="T14" t="n">
-        <v>61.13650087635911</v>
+        <v>228.1842141137039</v>
       </c>
       <c r="U14" t="n">
-        <v>31.18007169452973</v>
+        <v>43.75624343857015</v>
       </c>
       <c r="V14" t="n">
-        <v>44.29701247067608</v>
+        <v>117.4864484394522</v>
       </c>
       <c r="W14" t="n">
-        <v>48.1974687637101</v>
+        <v>43.21560436894565</v>
       </c>
       <c r="X14" t="n">
-        <v>91.03088659686165</v>
+        <v>57.76025311091954</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.06972520110443</v>
+        <v>44.13931784034704</v>
       </c>
       <c r="Z14" t="n">
-        <v>93.52913050131066</v>
+        <v>40.97934104813377</v>
       </c>
       <c r="AA14" t="n">
-        <v>66.23060779799303</v>
+        <v>56.90790221205839</v>
       </c>
       <c r="AB14" t="n">
-        <v>124.7800265309961</v>
+        <v>125.0991510023056</v>
       </c>
       <c r="AC14" t="n">
-        <v>94.14057499999998</v>
+        <v>121.6623517291781</v>
       </c>
       <c r="AD14" t="n">
-        <v>129.8259350572564</v>
+        <v>161.8724185955042</v>
       </c>
       <c r="AE14" t="n">
-        <v>79.52909343708438</v>
+        <v>99.08209445039878</v>
       </c>
       <c r="AF14" t="n">
-        <v>106.7338553511343</v>
+        <v>182.1263834018234</v>
       </c>
       <c r="AG14" t="n">
-        <v>24.76876013603348</v>
+        <v>106.4083887889533</v>
       </c>
       <c r="AH14" t="n">
-        <v>102.5336069965073</v>
+        <v>96.10562439427498</v>
       </c>
       <c r="AI14" t="n">
-        <v>122.1461693293275</v>
+        <v>116.5715717837276</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60.04207966149897</v>
+        <v>133.6390342453311</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.63953899337941</v>
+        <v>137.018950891803</v>
       </c>
       <c r="AL14" t="n">
-        <v>19.09191359828113</v>
+        <v>52.46439900053798</v>
       </c>
       <c r="AM14" t="n">
-        <v>40.74450685528253</v>
+        <v>70.95783311295872</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.96543757924152</v>
+        <v>83.89055236079119</v>
       </c>
       <c r="AO14" t="n">
-        <v>27.50238540202561</v>
+        <v>41.49120279332142</v>
       </c>
       <c r="AP14" t="n">
-        <v>23.54050944083913</v>
+        <v>24.92050171340126</v>
       </c>
       <c r="AQ14" t="n">
-        <v>28.07626381775497</v>
+        <v>20.87022736379158</v>
       </c>
       <c r="AR14" t="n">
-        <v>18.01704232932832</v>
+        <v>31.53014987783283</v>
       </c>
       <c r="AS14" t="n">
-        <v>20.93264986859547</v>
+        <v>21.77309719211262</v>
       </c>
       <c r="AT14" t="n">
-        <v>77.63060479880605</v>
+        <v>25.07287606211918</v>
       </c>
       <c r="AU14" t="n">
-        <v>16.4644876132786</v>
+        <v>19.39360797659237</v>
       </c>
       <c r="AV14" t="n">
-        <v>25.58712428359164</v>
+        <v>12.64759717741914</v>
       </c>
       <c r="AW14" t="n">
-        <v>18.15832258322988</v>
+        <v>16.06247987123915</v>
       </c>
       <c r="AX14" t="n">
-        <v>23.08419444351581</v>
+        <v>16.67679093570516</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1.805979032108571</v>
+        <v>4.81762046457234</v>
       </c>
       <c r="D15" t="n">
-        <v>1.346496736150639</v>
+        <v>3.576122192636856</v>
       </c>
       <c r="E15" t="n">
-        <v>5.169330717264734</v>
+        <v>1.239669512516948</v>
       </c>
       <c r="F15" t="n">
-        <v>6.608185888489412</v>
+        <v>1.048804656349631</v>
       </c>
       <c r="G15" t="n">
-        <v>1.944874100719425</v>
+        <v>9.098615902473234</v>
       </c>
       <c r="H15" t="n">
-        <v>1.379062055897679</v>
+        <v>0.9862313196883965</v>
       </c>
       <c r="I15" t="n">
-        <v>2.553957879448075</v>
+        <v>3.013040142012788</v>
       </c>
       <c r="J15" t="n">
-        <v>8.558582331783489</v>
+        <v>6.673823253305403</v>
       </c>
       <c r="K15" t="n">
-        <v>3.491333147548715</v>
+        <v>2.289508752835764</v>
       </c>
       <c r="L15" t="n">
-        <v>5.629636095112247</v>
+        <v>0.988318887167126</v>
       </c>
       <c r="M15" t="n">
-        <v>3.738153683856377</v>
+        <v>5.889065222417774</v>
       </c>
       <c r="N15" t="n">
-        <v>5.78262580964549</v>
+        <v>5.221646525893505</v>
       </c>
       <c r="O15" t="n">
-        <v>9.503014575553006</v>
+        <v>2.122563463616538</v>
       </c>
       <c r="P15" t="n">
-        <v>4.575523264912688</v>
+        <v>6.091306448363762</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.103477127757007</v>
+        <v>1.841879074457375</v>
       </c>
       <c r="R15" t="n">
-        <v>7.852758617060188</v>
+        <v>10.62419030283477</v>
       </c>
       <c r="S15" t="n">
-        <v>5.304201353044697</v>
+        <v>7.974817856106482</v>
       </c>
       <c r="T15" t="n">
-        <v>2.939151371787019</v>
+        <v>5.058907547047761</v>
       </c>
       <c r="U15" t="n">
-        <v>4.896853077181466</v>
+        <v>6.106970228727867</v>
       </c>
       <c r="V15" t="n">
-        <v>4.408434936605686</v>
+        <v>2.367710913064271</v>
       </c>
       <c r="W15" t="n">
-        <v>3.256677653786585</v>
+        <v>2.822573786966509</v>
       </c>
       <c r="X15" t="n">
-        <v>4.421428999272609</v>
+        <v>8.017586270980489</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.268192436274694</v>
+        <v>1.786899337864009</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.981335763257433</v>
+        <v>8.6474777521787</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.7883403476911962</v>
+        <v>2.125892971908651</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.295945266347004</v>
+        <v>2.622702480841432</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.625750163279892</v>
+        <v>2.100559530676255</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.231835837004327</v>
+        <v>1.401549692944104</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.73504911710519</v>
+        <v>5.744528827551919</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.71331126862612</v>
+        <v>3.155165079432436</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.765129775938104</v>
+        <v>7.256236387202419</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.701299364478968</v>
+        <v>5.188957279099963</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.9957538669801722</v>
+        <v>4.365879536302019</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.252185908330777</v>
+        <v>6.278598299608176</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.778215439926861</v>
+        <v>5.467348043624108</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.74317278855766</v>
+        <v>3.173304915184338</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.090941379662062</v>
+        <v>6.330298581596693</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.481497739102947</v>
+        <v>6.746797498941345</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.141315621817991</v>
+        <v>6.049859069622967</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.859294567019613</v>
+        <v>2.205178510897452</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.845228780754167</v>
+        <v>4.650821863156626</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.509927498342031</v>
+        <v>1.240472946182293</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.955110426296867</v>
+        <v>3.812556595994505</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.223466286713569</v>
+        <v>1.459248553317729</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.83066595468762</v>
+        <v>2.589473051485436</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.365609814664057</v>
+        <v>7.432693205329604</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.941475875548283</v>
+        <v>0.2176064108671389</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.739539756023384</v>
+        <v>1.109211790808013</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.59949715299859</v>
+        <v>6.315617326768255</v>
       </c>
       <c r="D16" t="n">
-        <v>8.781252490238257</v>
+        <v>5.049237731045241</v>
       </c>
       <c r="E16" t="n">
-        <v>32.23750001509325</v>
+        <v>13.35111894865676</v>
       </c>
       <c r="F16" t="n">
-        <v>4.324815068897921</v>
+        <v>16.76157650689016</v>
       </c>
       <c r="G16" t="n">
-        <v>6.686518957588738</v>
+        <v>37.82475335834746</v>
       </c>
       <c r="H16" t="n">
-        <v>25.06687398568986</v>
+        <v>20.1400713747693</v>
       </c>
       <c r="I16" t="n">
-        <v>34.98344574573162</v>
+        <v>1.840253704492348</v>
       </c>
       <c r="J16" t="n">
-        <v>69.52673279976813</v>
+        <v>5.241032311179372</v>
       </c>
       <c r="K16" t="n">
-        <v>49.4241848699865</v>
+        <v>50.70855395939227</v>
       </c>
       <c r="L16" t="n">
-        <v>52.61986297615785</v>
+        <v>51.03209832450498</v>
       </c>
       <c r="M16" t="n">
-        <v>128.975887162898</v>
+        <v>14.32255558626516</v>
       </c>
       <c r="N16" t="n">
-        <v>63.43344281998944</v>
+        <v>96.24839608978805</v>
       </c>
       <c r="O16" t="n">
-        <v>131.6694283411394</v>
+        <v>70.64520610403082</v>
       </c>
       <c r="P16" t="n">
-        <v>30.28286629556599</v>
+        <v>57.24857337983946</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.44116231757774</v>
+        <v>96.79447737039509</v>
       </c>
       <c r="R16" t="n">
-        <v>21.47074454569487</v>
+        <v>71.17568438532967</v>
       </c>
       <c r="S16" t="n">
-        <v>149.9546195288914</v>
+        <v>46.57256359073546</v>
       </c>
       <c r="T16" t="n">
-        <v>38.13898301082941</v>
+        <v>37.74687328636548</v>
       </c>
       <c r="U16" t="n">
-        <v>43.02021394495915</v>
+        <v>97.43288611961954</v>
       </c>
       <c r="V16" t="n">
-        <v>23.05802234229223</v>
+        <v>121.9366562750959</v>
       </c>
       <c r="W16" t="n">
-        <v>131.8903360285714</v>
+        <v>149.1260197867444</v>
       </c>
       <c r="X16" t="n">
-        <v>34.88531344059246</v>
+        <v>110.9385255076352</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.1132044511192</v>
+        <v>33.69453162677446</v>
       </c>
       <c r="Z16" t="n">
-        <v>41.03245939157748</v>
+        <v>50.4923124027146</v>
       </c>
       <c r="AA16" t="n">
-        <v>30.4863457481373</v>
+        <v>40.15623862989529</v>
       </c>
       <c r="AB16" t="n">
-        <v>30.61220347387765</v>
+        <v>31.14944672708043</v>
       </c>
       <c r="AC16" t="n">
-        <v>91.64299994585987</v>
+        <v>30.59603190522972</v>
       </c>
       <c r="AD16" t="n">
-        <v>182.0095345380677</v>
+        <v>38.22820638143007</v>
       </c>
       <c r="AE16" t="n">
-        <v>84.5578164186591</v>
+        <v>56.01141883838024</v>
       </c>
       <c r="AF16" t="n">
-        <v>36.5167673472973</v>
+        <v>51.08687555975426</v>
       </c>
       <c r="AG16" t="n">
-        <v>73.24756329610923</v>
+        <v>22.06779788158013</v>
       </c>
       <c r="AH16" t="n">
-        <v>89.77518212185996</v>
+        <v>86.39746403125352</v>
       </c>
       <c r="AI16" t="n">
-        <v>67.17502829229163</v>
+        <v>33.77155798368228</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44.4113668861093</v>
+        <v>56.59804492145692</v>
       </c>
       <c r="AK16" t="n">
-        <v>53.25833487234304</v>
+        <v>18.23427561731189</v>
       </c>
       <c r="AL16" t="n">
-        <v>40.42190095549157</v>
+        <v>57.44111958895783</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.80601898903501</v>
+        <v>14.56322245163723</v>
       </c>
       <c r="AN16" t="n">
-        <v>38.28261723109263</v>
+        <v>32.61182086889672</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.355612444444444</v>
+        <v>14.02159602547345</v>
       </c>
       <c r="AP16" t="n">
-        <v>58.10537822440259</v>
+        <v>18.11550509454811</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.810063474863245</v>
+        <v>9.928126731361274</v>
       </c>
       <c r="AR16" t="n">
-        <v>16.39506172839506</v>
+        <v>22.19881479732299</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.92010626873593</v>
+        <v>17.22640120121968</v>
       </c>
       <c r="AT16" t="n">
-        <v>10.98457113507961</v>
+        <v>7.916759439417747</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.748829002751448</v>
+        <v>6.091297735076362</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.03408571543118</v>
+        <v>6.199377727484871</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.000269376349694</v>
+        <v>11.5845791223301</v>
       </c>
       <c r="AX16" t="n">
-        <v>26.68689706507869</v>
+        <v>9.904696358497949</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>9.351169530644082</v>
+        <v>4.343458720377983</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.668806435194371</v>
       </c>
       <c r="E17" t="n">
-        <v>17.68389147717946</v>
+        <v>6.673148986928923</v>
       </c>
       <c r="F17" t="n">
-        <v>4.582511585149552</v>
+        <v>117.0004824849067</v>
       </c>
       <c r="G17" t="n">
-        <v>25.89123532008167</v>
+        <v>13.73108453302129</v>
       </c>
       <c r="H17" t="n">
-        <v>58.764314534029</v>
+        <v>19.15853166597451</v>
       </c>
       <c r="I17" t="n">
-        <v>23.470338939108</v>
+        <v>35.69623549285202</v>
       </c>
       <c r="J17" t="n">
-        <v>17.73938384782133</v>
+        <v>128.3026801586192</v>
       </c>
       <c r="K17" t="n">
-        <v>33.06041779339157</v>
+        <v>46.37900656971656</v>
       </c>
       <c r="L17" t="n">
-        <v>51.66514482464837</v>
+        <v>39.68486390759957</v>
       </c>
       <c r="M17" t="n">
-        <v>70.71526050554127</v>
+        <v>40.09588681043959</v>
       </c>
       <c r="N17" t="n">
-        <v>28.08404332546813</v>
+        <v>28.1478976082023</v>
       </c>
       <c r="O17" t="n">
-        <v>189.5021646772558</v>
+        <v>8.901506188159129</v>
       </c>
       <c r="P17" t="n">
-        <v>20.31804690416188</v>
+        <v>35.00739063044006</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.08832866554938</v>
+        <v>32.45968073177244</v>
       </c>
       <c r="R17" t="n">
-        <v>198.2431116109733</v>
+        <v>19.30837357444201</v>
       </c>
       <c r="S17" t="n">
-        <v>12.804004466933</v>
+        <v>22.23116546865514</v>
       </c>
       <c r="T17" t="n">
-        <v>36.68356893681404</v>
+        <v>28.35963487623894</v>
       </c>
       <c r="U17" t="n">
-        <v>54.03609507284304</v>
+        <v>61.31127517513791</v>
       </c>
       <c r="V17" t="n">
-        <v>14.22870834378283</v>
+        <v>10.49945900215417</v>
       </c>
       <c r="W17" t="n">
-        <v>58.99688957142858</v>
+        <v>35.03623027594252</v>
       </c>
       <c r="X17" t="n">
-        <v>54.25026573739592</v>
+        <v>30.30973823179036</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.87970561133325</v>
+        <v>66.10891434033809</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5074301951164</v>
+        <v>90.64071766646384</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.45062895884138</v>
+        <v>49.93345352698586</v>
       </c>
       <c r="AB17" t="n">
-        <v>56.28976533436583</v>
+        <v>11.43441100133116</v>
       </c>
       <c r="AC17" t="n">
-        <v>33.65398701335906</v>
+        <v>18.56799150644297</v>
       </c>
       <c r="AD17" t="n">
-        <v>26.36939393761234</v>
+        <v>9.656643588477099</v>
       </c>
       <c r="AE17" t="n">
-        <v>13.13922184142172</v>
+        <v>26.75961553800128</v>
       </c>
       <c r="AF17" t="n">
-        <v>57.77470319691116</v>
+        <v>58.3554650947231</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.43545727434807</v>
+        <v>34.33378771808216</v>
       </c>
       <c r="AH17" t="n">
-        <v>37.5849666073245</v>
+        <v>23.89636446970112</v>
       </c>
       <c r="AI17" t="n">
-        <v>16.98554954588458</v>
+        <v>27.85436594214822</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.28461861822051</v>
+        <v>14.92665022907107</v>
       </c>
       <c r="AK17" t="n">
-        <v>91.54628820902275</v>
+        <v>32.17799297841965</v>
       </c>
       <c r="AL17" t="n">
-        <v>24.20252543221207</v>
+        <v>15.82719263492872</v>
       </c>
       <c r="AM17" t="n">
-        <v>35.37738852901686</v>
+        <v>3.203101885396541</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.91688989512699</v>
+        <v>16.94882351035804</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.623848550353908</v>
+        <v>23.647247311499</v>
       </c>
       <c r="AP17" t="n">
-        <v>6.418927243141959</v>
+        <v>22.13203745204767</v>
       </c>
       <c r="AQ17" t="n">
-        <v>28.36804918985794</v>
+        <v>53.40556173447565</v>
       </c>
       <c r="AR17" t="n">
-        <v>21.55782537997023</v>
+        <v>6.461296927228585</v>
       </c>
       <c r="AS17" t="n">
-        <v>30.72102951866922</v>
+        <v>11.80256042613653</v>
       </c>
       <c r="AT17" t="n">
-        <v>28.69503227834658</v>
+        <v>16.69250129256088</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.108057616742653</v>
+        <v>41.07997038470191</v>
       </c>
       <c r="AV17" t="n">
-        <v>21.22360486816164</v>
+        <v>1.153046766214847</v>
       </c>
       <c r="AW17" t="n">
-        <v>20.4852497808729</v>
+        <v>21.19036465423457</v>
       </c>
       <c r="AX17" t="n">
-        <v>19.96091456967532</v>
+        <v>11.75712344904835</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.085843764586074</v>
+        <v>4.786112278490617</v>
       </c>
       <c r="D18" t="n">
-        <v>21.42937980192541</v>
+        <v>5.138729788600855</v>
       </c>
       <c r="E18" t="n">
-        <v>4.423940071603679</v>
+        <v>34.7339802662612</v>
       </c>
       <c r="F18" t="n">
-        <v>1.253446429006111</v>
+        <v>1.413223383056954</v>
       </c>
       <c r="G18" t="n">
-        <v>3.404495145683027</v>
+        <v>2.977502288757039</v>
       </c>
       <c r="H18" t="n">
-        <v>5.692434065671781</v>
+        <v>17.07021883064036</v>
       </c>
       <c r="I18" t="n">
-        <v>3.967608780972297</v>
+        <v>2.943387252545901</v>
       </c>
       <c r="J18" t="n">
-        <v>4.792418771718245</v>
+        <v>9.715187664328147</v>
       </c>
       <c r="K18" t="n">
-        <v>58.93955801345215</v>
+        <v>11.52586342987597</v>
       </c>
       <c r="L18" t="n">
-        <v>17.39201584571721</v>
+        <v>8.210600843214023</v>
       </c>
       <c r="M18" t="n">
-        <v>21.23714914786553</v>
+        <v>24.78566464109922</v>
       </c>
       <c r="N18" t="n">
-        <v>19.49697982342214</v>
+        <v>28.42281388776815</v>
       </c>
       <c r="O18" t="n">
-        <v>24.91813022643462</v>
+        <v>26.28708095565254</v>
       </c>
       <c r="P18" t="n">
-        <v>54.23625</v>
+        <v>48.69466092795874</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.75450667015387</v>
+        <v>6.449637976675254</v>
       </c>
       <c r="R18" t="n">
-        <v>20.16789746925676</v>
+        <v>6.257869187469867</v>
       </c>
       <c r="S18" t="n">
-        <v>9.244233600000001</v>
+        <v>40.55271202845706</v>
       </c>
       <c r="T18" t="n">
-        <v>16.01156291759486</v>
+        <v>18.65459274566317</v>
       </c>
       <c r="U18" t="n">
-        <v>15.07488173156166</v>
+        <v>23.71159073305491</v>
       </c>
       <c r="V18" t="n">
-        <v>20.08201499669902</v>
+        <v>12.15181931531701</v>
       </c>
       <c r="W18" t="n">
-        <v>7.904459703571479</v>
+        <v>28.68468488474885</v>
       </c>
       <c r="X18" t="n">
-        <v>14.477625</v>
+        <v>22.15665825925082</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.210477185515135</v>
+        <v>36.98036482372676</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.52803110118979</v>
+        <v>25.37350762524273</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.91456913105267</v>
+        <v>22.72757547266945</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.94166864242581</v>
+        <v>29.24490648731695</v>
       </c>
       <c r="AC18" t="n">
-        <v>27.11262234759266</v>
+        <v>11.11743980510622</v>
       </c>
       <c r="AD18" t="n">
-        <v>32.55784248360584</v>
+        <v>22.15362018725633</v>
       </c>
       <c r="AE18" t="n">
-        <v>20.6194675903892</v>
+        <v>7.363929386726127</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.75513394896308</v>
+        <v>11.03979328505507</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.22609995024465</v>
+        <v>18.67723103013735</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.76008985890885</v>
+        <v>7.989343337330974</v>
       </c>
       <c r="AI18" t="n">
-        <v>22.80287668553267</v>
+        <v>7.313509254639741</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.35103558512141</v>
+        <v>1.654683580862506</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.928938925508954</v>
+        <v>3.448173187350801</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.694662638927834</v>
+        <v>6.90379694259403</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.356759730423437</v>
+        <v>7.740114544562226</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.759043852053522</v>
+        <v>2.486611645662504</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.022002692959405</v>
+        <v>3.822894135219933</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.715860057471047</v>
+        <v>3.664069119440267</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.436751140511217</v>
+        <v>3.657491573896454</v>
       </c>
       <c r="AR18" t="n">
-        <v>7.372412146799427</v>
+        <v>3.969040071019334</v>
       </c>
       <c r="AS18" t="n">
-        <v>5.969088189097584</v>
+        <v>2.217179676337915</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.122808109629757</v>
+        <v>3.895370165043231</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.792848744413704</v>
+        <v>0.840585122444762</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.2246071303534425</v>
+        <v>8.566760023649888</v>
       </c>
       <c r="AW18" t="n">
-        <v>22.4573858925717</v>
+        <v>2.348491841582795</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.446249999999999</v>
+        <v>1.346814155850268</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>10.4</v>
+        <v>8.482265160218347</v>
       </c>
       <c r="D19" t="n">
-        <v>30.39</v>
+        <v>2.496907917278813</v>
       </c>
       <c r="E19" t="n">
-        <v>9.024895718969459</v>
+        <v>14.05676945293301</v>
       </c>
       <c r="F19" t="n">
-        <v>5.48</v>
+        <v>2.886451844179325</v>
       </c>
       <c r="G19" t="n">
-        <v>9.67</v>
+        <v>22.50472269911798</v>
       </c>
       <c r="H19" t="n">
-        <v>4.083714168</v>
+        <v>12.15470980440884</v>
       </c>
       <c r="I19" t="n">
-        <v>28.29</v>
+        <v>3.586048018996424</v>
       </c>
       <c r="J19" t="n">
-        <v>29.95</v>
+        <v>8.09190442396253</v>
       </c>
       <c r="K19" t="n">
-        <v>8.029999999999999</v>
+        <v>11.12628508766817</v>
       </c>
       <c r="L19" t="n">
-        <v>6.636785863705124</v>
+        <v>83.60364453148615</v>
       </c>
       <c r="M19" t="n">
-        <v>30.23</v>
+        <v>92.56776543120959</v>
       </c>
       <c r="N19" t="n">
-        <v>74.53</v>
+        <v>38.6575754809827</v>
       </c>
       <c r="O19" t="n">
-        <v>74.31999999999999</v>
+        <v>18.93149872775413</v>
       </c>
       <c r="P19" t="n">
-        <v>77.84</v>
+        <v>19.52689681206592</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.58</v>
+        <v>46.16332660448568</v>
       </c>
       <c r="R19" t="n">
-        <v>43.94</v>
+        <v>6.980241962181767</v>
       </c>
       <c r="S19" t="n">
-        <v>22.95</v>
+        <v>61.99229710519622</v>
       </c>
       <c r="T19" t="n">
-        <v>81.77</v>
+        <v>88.68032693696885</v>
       </c>
       <c r="U19" t="n">
-        <v>24.29</v>
+        <v>51.48068614464934</v>
       </c>
       <c r="V19" t="n">
-        <v>30.65</v>
+        <v>7.438709882190701</v>
       </c>
       <c r="W19" t="n">
-        <v>17.15200043362286</v>
+        <v>42.79373876410921</v>
       </c>
       <c r="X19" t="n">
-        <v>15.59</v>
+        <v>39.29216627930168</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.96</v>
+        <v>23.17019609144294</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.1</v>
+        <v>4.587566429011712</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.29</v>
+        <v>2.958655687434939</v>
       </c>
       <c r="AB19" t="n">
-        <v>52.29</v>
+        <v>10.86756239520939</v>
       </c>
       <c r="AC19" t="n">
-        <v>72.67</v>
+        <v>3.145751226546954</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.74</v>
+        <v>5.842156546594238</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.86</v>
+        <v>13.58309831024606</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.6</v>
+        <v>4.459806641607064</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.16</v>
+        <v>1.684952928579133</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.07</v>
+        <v>7.313778143848287</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.9762817101295</v>
+        <v>1.479125784909003</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.23</v>
+        <v>6.870351804384798</v>
       </c>
       <c r="AK19" t="n">
-        <v>8.48</v>
+        <v>8.76996737553333</v>
       </c>
       <c r="AL19" t="n">
-        <v>16.81</v>
+        <v>6.338898414422734</v>
       </c>
       <c r="AM19" t="n">
-        <v>8.77</v>
+        <v>14.41665446038807</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.865419708029198</v>
+        <v>0.9919217390418861</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>1.118395740269128</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.529999999999999</v>
+        <v>9.466577036323946</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.32</v>
+        <v>17.49058089828847</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.71</v>
+        <v>2.290054923092193</v>
       </c>
       <c r="AS19" t="n">
-        <v>5.94</v>
+        <v>3.144417444055759</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.77</v>
+        <v>3.448374048476296</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.97</v>
+        <v>19.38152441160276</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>7.345538118204078</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.97</v>
+        <v>2.290438856241972</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.7670347175</v>
+        <v>8.174353266878944</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>28.24673535392875</v>
+        <v>7.180242746295158</v>
       </c>
       <c r="D20" t="n">
-        <v>28.80792393820981</v>
+        <v>15.28206413225528</v>
       </c>
       <c r="E20" t="n">
-        <v>13.55014744390389</v>
+        <v>24.79362416806139</v>
       </c>
       <c r="F20" t="n">
-        <v>12.32529814055977</v>
+        <v>45.34243915359941</v>
       </c>
       <c r="G20" t="n">
-        <v>19.70506854081776</v>
+        <v>18.02638049234908</v>
       </c>
       <c r="H20" t="n">
-        <v>13.78435644612622</v>
+        <v>22.14356863499065</v>
       </c>
       <c r="I20" t="n">
-        <v>13.80934003187372</v>
+        <v>38.97038858138021</v>
       </c>
       <c r="J20" t="n">
-        <v>24.48695990950167</v>
+        <v>59.97008648541168</v>
       </c>
       <c r="K20" t="n">
-        <v>23.74228134626189</v>
+        <v>32.19039961620813</v>
       </c>
       <c r="L20" t="n">
-        <v>138.7738022747568</v>
+        <v>26.06804531278974</v>
       </c>
       <c r="M20" t="n">
-        <v>9.842888669096029</v>
+        <v>55.66244055828217</v>
       </c>
       <c r="N20" t="n">
-        <v>39.5617033074962</v>
+        <v>86.58892395053033</v>
       </c>
       <c r="O20" t="n">
-        <v>131.4527156689306</v>
+        <v>159.7171199026581</v>
       </c>
       <c r="P20" t="n">
-        <v>29.42672800960614</v>
+        <v>120.5124990843887</v>
       </c>
       <c r="Q20" t="n">
-        <v>189.7739616130606</v>
+        <v>68.30574657510275</v>
       </c>
       <c r="R20" t="n">
-        <v>56.6069132902972</v>
+        <v>52.25469567487994</v>
       </c>
       <c r="S20" t="n">
-        <v>116.0802093853677</v>
+        <v>86.86156770413081</v>
       </c>
       <c r="T20" t="n">
-        <v>42.26446328141999</v>
+        <v>78.38739308885977</v>
       </c>
       <c r="U20" t="n">
-        <v>74.26612478408373</v>
+        <v>77.24338020882591</v>
       </c>
       <c r="V20" t="n">
-        <v>40.49824100333649</v>
+        <v>17.08129434866055</v>
       </c>
       <c r="W20" t="n">
-        <v>36.37152226144837</v>
+        <v>19.10271270462145</v>
       </c>
       <c r="X20" t="n">
-        <v>33.72563660329371</v>
+        <v>34.20478372118277</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.39878552070007</v>
+        <v>46.01031886558179</v>
       </c>
       <c r="Z20" t="n">
-        <v>85.6584149131385</v>
+        <v>65.78147439652393</v>
       </c>
       <c r="AA20" t="n">
-        <v>48.49847479535657</v>
+        <v>63.80993148716022</v>
       </c>
       <c r="AB20" t="n">
-        <v>105.5400386244509</v>
+        <v>54.15862515208545</v>
       </c>
       <c r="AC20" t="n">
-        <v>111.784417915227</v>
+        <v>96.31837194132842</v>
       </c>
       <c r="AD20" t="n">
-        <v>132.1242166635033</v>
+        <v>79.00617827812071</v>
       </c>
       <c r="AE20" t="n">
-        <v>118.885489656418</v>
+        <v>71.49893967028163</v>
       </c>
       <c r="AF20" t="n">
-        <v>97.33190925390711</v>
+        <v>108.8866263957971</v>
       </c>
       <c r="AG20" t="n">
-        <v>234.671157366456</v>
+        <v>156.7442964975484</v>
       </c>
       <c r="AH20" t="n">
-        <v>64.91199356782057</v>
+        <v>71.66639506644962</v>
       </c>
       <c r="AI20" t="n">
-        <v>115.473578337382</v>
+        <v>123.9344267242744</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51.69322668761989</v>
+        <v>110.6747621455357</v>
       </c>
       <c r="AK20" t="n">
-        <v>96.14205250948476</v>
+        <v>32.7518682323788</v>
       </c>
       <c r="AL20" t="n">
-        <v>72.41503759488472</v>
+        <v>56.36903858899539</v>
       </c>
       <c r="AM20" t="n">
-        <v>51.4163780582446</v>
+        <v>170.1857805815055</v>
       </c>
       <c r="AN20" t="n">
-        <v>60.90699494489653</v>
+        <v>31.97734963664578</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.30801951017953</v>
+        <v>32.28645304536271</v>
       </c>
       <c r="AP20" t="n">
-        <v>19.71923616421049</v>
+        <v>32.97073208972901</v>
       </c>
       <c r="AQ20" t="n">
-        <v>31.50449519393828</v>
+        <v>26.31899641390013</v>
       </c>
       <c r="AR20" t="n">
-        <v>30.79898467671874</v>
+        <v>15.95640577904013</v>
       </c>
       <c r="AS20" t="n">
-        <v>20.93264986859547</v>
+        <v>15.30618173612805</v>
       </c>
       <c r="AT20" t="n">
-        <v>27.98430760749807</v>
+        <v>37.29601466213342</v>
       </c>
       <c r="AU20" t="n">
-        <v>19.84037519517256</v>
+        <v>32.34414943287428</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.75201662723719</v>
+        <v>23.1240838506736</v>
       </c>
       <c r="AW20" t="n">
-        <v>16.83033155968871</v>
+        <v>13.54683114695101</v>
       </c>
       <c r="AX20" t="n">
-        <v>21.42765124707788</v>
+        <v>25.04581685034076</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.484903787504499</v>
+        <v>7.222431598940708</v>
       </c>
       <c r="D21" t="n">
-        <v>4.962214139851299</v>
+        <v>0.4819495626316699</v>
       </c>
       <c r="E21" t="n">
-        <v>3.146859205776174</v>
+        <v>14.39834394596653</v>
       </c>
       <c r="F21" t="n">
-        <v>6.608185888489412</v>
+        <v>6.051710897055044</v>
       </c>
       <c r="G21" t="n">
-        <v>2.846584281229614</v>
+        <v>0.05078886370392498</v>
       </c>
       <c r="H21" t="n">
-        <v>4.175145378434838</v>
+        <v>4.431716868524062</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5456624790967</v>
+        <v>1.191051404819335</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03040073587961816</v>
+        <v>1.667188727371986</v>
       </c>
       <c r="K21" t="n">
-        <v>2.339073249021733</v>
+        <v>2.45068066756188</v>
       </c>
       <c r="L21" t="n">
-        <v>3.953415208490308</v>
+        <v>2.558577681114502</v>
       </c>
       <c r="M21" t="n">
-        <v>1.339888977002379</v>
+        <v>6.747090017590595</v>
       </c>
       <c r="N21" t="n">
-        <v>5.335741274038285</v>
+        <v>4.46504235056057</v>
       </c>
       <c r="O21" t="n">
-        <v>4.607999028914707</v>
+        <v>3.444165106436984</v>
       </c>
       <c r="P21" t="n">
-        <v>3.194579815314773</v>
+        <v>1.425451306831502</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.14277539448501</v>
+        <v>7.636603695037504</v>
       </c>
       <c r="R21" t="n">
-        <v>3.655933142502014</v>
+        <v>3.653490449105069</v>
       </c>
       <c r="S21" t="n">
-        <v>5.304201353044697</v>
+        <v>1.546240385771993</v>
       </c>
       <c r="T21" t="n">
-        <v>6.362950557659463</v>
+        <v>4.086206255518077</v>
       </c>
       <c r="U21" t="n">
-        <v>2.567894049617609</v>
+        <v>4.243974439731399</v>
       </c>
       <c r="V21" t="n">
-        <v>2.354345022657794</v>
+        <v>8.394561335972581</v>
       </c>
       <c r="W21" t="n">
-        <v>10.0904378131322</v>
+        <v>3.017356714324259</v>
       </c>
       <c r="X21" t="n">
-        <v>4.49531601237539</v>
+        <v>3.786267742097919</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.958801379824296</v>
+        <v>5.788277291000449</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.124473803865254</v>
+        <v>5.001763773951994</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.774691943641814</v>
+        <v>3.457635014505802</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.92736586126362</v>
+        <v>4.11137315662578</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.732238555535638</v>
+        <v>7.123591295143864</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.478886965287098</v>
+        <v>2.739522402764235</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.408950676331508</v>
+        <v>5.284783787325353</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.008405344564665</v>
+        <v>7.144722560080502</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.688373935378671</v>
+        <v>5.731534055155338</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.927961285020573</v>
+        <v>5.924368601578638</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.881521775193626</v>
+        <v>4.326865378671154</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.299021138952377</v>
+        <v>3.72442003658695</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.55699229983876</v>
+        <v>5.933773062240158</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.571766698044548</v>
+        <v>2.710748666703542</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.591971444285791</v>
+        <v>4.318207518688748</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.554448681676436</v>
+        <v>11.59636003247607</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.866181818181818</v>
+        <v>11.45702315750865</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.404449673099096</v>
+        <v>1.695713303773745</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.572881355932203</v>
+        <v>2.986217706541443</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.892318132013503</v>
+        <v>6.539006054097156</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.976829976553316</v>
+        <v>2.10017525335445</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.743965369934087</v>
+        <v>3.203923462073726</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.809536146905752</v>
+        <v>1.596413579592308</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.99829515603545</v>
+        <v>9.073515666850291</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.469738129908572</v>
+        <v>0.5396248169345204</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.833398331856094</v>
+        <v>1.473575387411039</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>5.24248445958057</v>
+        <v>6.708840231348193</v>
       </c>
       <c r="D22" t="n">
-        <v>4.900020675129101</v>
+        <v>10.13002181646496</v>
       </c>
       <c r="E22" t="n">
-        <v>11.88977291927145</v>
+        <v>14.49884408387286</v>
       </c>
       <c r="F22" t="n">
-        <v>6.809791559663664</v>
+        <v>17.85622547865953</v>
       </c>
       <c r="G22" t="n">
-        <v>5.749747450716939</v>
+        <v>26.0488388227574</v>
       </c>
       <c r="H22" t="n">
-        <v>8.449198627966839</v>
+        <v>56.576983391941</v>
       </c>
       <c r="I22" t="n">
-        <v>32.89541977337571</v>
+        <v>16.42901806022578</v>
       </c>
       <c r="J22" t="n">
-        <v>80.31358397338195</v>
+        <v>26.17068644807724</v>
       </c>
       <c r="K22" t="n">
-        <v>62.04772217142857</v>
+        <v>145.6520672049043</v>
       </c>
       <c r="L22" t="n">
-        <v>50.4715998406619</v>
+        <v>102.718095694308</v>
       </c>
       <c r="M22" t="n">
-        <v>134.7608701831299</v>
+        <v>111.6292628450884</v>
       </c>
       <c r="N22" t="n">
-        <v>67.36566901521795</v>
+        <v>27.32648112097495</v>
       </c>
       <c r="O22" t="n">
-        <v>115.8527120049752</v>
+        <v>29.2815807207222</v>
       </c>
       <c r="P22" t="n">
-        <v>29.96922691310833</v>
+        <v>20.95352252152916</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.58950640153896</v>
+        <v>75.01503731736526</v>
       </c>
       <c r="R22" t="n">
-        <v>73.21815131633585</v>
+        <v>23.00299368613518</v>
       </c>
       <c r="S22" t="n">
-        <v>21.11117318797057</v>
+        <v>30.72689252253289</v>
       </c>
       <c r="T22" t="n">
-        <v>44.94320628515443</v>
+        <v>84.85217654711947</v>
       </c>
       <c r="U22" t="n">
-        <v>70.2357352440922</v>
+        <v>83.19987399380055</v>
       </c>
       <c r="V22" t="n">
-        <v>23.1853776542137</v>
+        <v>45.85169507773131</v>
       </c>
       <c r="W22" t="n">
-        <v>40.61469234057648</v>
+        <v>42.69440761361683</v>
       </c>
       <c r="X22" t="n">
-        <v>51.78783727102319</v>
+        <v>36.21262746909391</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.69569406911201</v>
+        <v>144.6490443699208</v>
       </c>
       <c r="Z22" t="n">
-        <v>145.9356802915161</v>
+        <v>85.54751329725161</v>
       </c>
       <c r="AA22" t="n">
-        <v>57.52422237637498</v>
+        <v>70.97378703350032</v>
       </c>
       <c r="AB22" t="n">
-        <v>43.83203554329366</v>
+        <v>55.99207958886286</v>
       </c>
       <c r="AC22" t="n">
-        <v>84.16497552274302</v>
+        <v>49.48226870512777</v>
       </c>
       <c r="AD22" t="n">
-        <v>173.4184183926271</v>
+        <v>93.24638690813262</v>
       </c>
       <c r="AE22" t="n">
-        <v>128.1762369035515</v>
+        <v>85.54776593247546</v>
       </c>
       <c r="AF22" t="n">
-        <v>58.90190982704778</v>
+        <v>62.88840080005723</v>
       </c>
       <c r="AG22" t="n">
-        <v>89.94823905308256</v>
+        <v>101.6075333130287</v>
       </c>
       <c r="AH22" t="n">
-        <v>44.23154311225176</v>
+        <v>83.09751159083579</v>
       </c>
       <c r="AI22" t="n">
-        <v>77.54649987244778</v>
+        <v>56.01484149012568</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32.62520016341579</v>
+        <v>43.04558290880356</v>
       </c>
       <c r="AK22" t="n">
-        <v>75.50940348583472</v>
+        <v>45.06485199508582</v>
       </c>
       <c r="AL22" t="n">
-        <v>19.76086821111168</v>
+        <v>42.6319029962557</v>
       </c>
       <c r="AM22" t="n">
-        <v>25.06591774718699</v>
+        <v>19.12128849627225</v>
       </c>
       <c r="AN22" t="n">
-        <v>27.81962729880656</v>
+        <v>29.89506132400117</v>
       </c>
       <c r="AO22" t="n">
-        <v>15.28614987103412</v>
+        <v>18.61635104618013</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.71713512308273</v>
+        <v>16.36672858209986</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16.27592199266267</v>
+        <v>27.56490376941569</v>
       </c>
       <c r="AR22" t="n">
-        <v>18.46619613406632</v>
+        <v>15.81107675241997</v>
       </c>
       <c r="AS22" t="n">
-        <v>14.42871583290356</v>
+        <v>9.732621304086848</v>
       </c>
       <c r="AT22" t="n">
-        <v>10.09416090949075</v>
+        <v>14.00152168734664</v>
       </c>
       <c r="AU22" t="n">
-        <v>12.98840186131665</v>
+        <v>10.87447907801992</v>
       </c>
       <c r="AV22" t="n">
-        <v>14.88650103262875</v>
+        <v>10.78381491592625</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.02419491095867</v>
+        <v>14.26312091657283</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.50870589304789</v>
+        <v>7.170867330694607</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>24.13696363587817</v>
+        <v>10.0008742549797</v>
       </c>
       <c r="D23" t="n">
-        <v>20.18695644082396</v>
+        <v>9.10085814611201</v>
       </c>
       <c r="E23" t="n">
-        <v>25.57756136467584</v>
+        <v>7.835266781979698</v>
       </c>
       <c r="F23" t="n">
-        <v>31.85883227895832</v>
+        <v>8.063926555825628</v>
       </c>
       <c r="G23" t="n">
-        <v>18.81624669358896</v>
+        <v>11.7596025698105</v>
       </c>
       <c r="H23" t="n">
-        <v>116.3437178845473</v>
+        <v>24.09578435261412</v>
       </c>
       <c r="I23" t="n">
-        <v>34.97509410128003</v>
+        <v>7.627535304425105</v>
       </c>
       <c r="J23" t="n">
-        <v>214.170416383112</v>
+        <v>2.568199020985973</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2575145671507</v>
+        <v>5.317607936752935</v>
       </c>
       <c r="L23" t="n">
-        <v>32.09973429720539</v>
+        <v>173.3091839294615</v>
       </c>
       <c r="M23" t="n">
-        <v>202.0754265614383</v>
+        <v>39.98780962990627</v>
       </c>
       <c r="N23" t="n">
-        <v>31.07721205896507</v>
+        <v>21.67940228109978</v>
       </c>
       <c r="O23" t="n">
-        <v>34.59866763360375</v>
+        <v>84.24898328727633</v>
       </c>
       <c r="P23" t="n">
-        <v>29.23517127574561</v>
+        <v>133.0597141978217</v>
       </c>
       <c r="Q23" t="n">
-        <v>283.1954787326854</v>
+        <v>63.79077147583452</v>
       </c>
       <c r="R23" t="n">
-        <v>53.69567345831706</v>
+        <v>51.32879254012298</v>
       </c>
       <c r="S23" t="n">
-        <v>12.804004466933</v>
+        <v>18.57708881521676</v>
       </c>
       <c r="T23" t="n">
-        <v>36.68356893681404</v>
+        <v>118.9655841308113</v>
       </c>
       <c r="U23" t="n">
-        <v>48.74167415105737</v>
+        <v>27.43367003806782</v>
       </c>
       <c r="V23" t="n">
-        <v>92.44222546461796</v>
+        <v>21.51506978175389</v>
       </c>
       <c r="W23" t="n">
-        <v>60.50550085456418</v>
+        <v>32.84386861854372</v>
       </c>
       <c r="X23" t="n">
-        <v>48.19110315567472</v>
+        <v>43.94313148247596</v>
       </c>
       <c r="Y23" t="n">
-        <v>44.51700524902584</v>
+        <v>21.20829879060136</v>
       </c>
       <c r="Z23" t="n">
-        <v>53.34937189312123</v>
+        <v>60.20656959546485</v>
       </c>
       <c r="AA23" t="n">
-        <v>68.64025282182841</v>
+        <v>38.3410735443353</v>
       </c>
       <c r="AB23" t="n">
-        <v>26.02268264967899</v>
+        <v>25.53056194336937</v>
       </c>
       <c r="AC23" t="n">
-        <v>38.54816168119458</v>
+        <v>13.80363697365974</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.154493225544377</v>
+        <v>24.15655176260568</v>
       </c>
       <c r="AE23" t="n">
-        <v>69.41741275496764</v>
+        <v>48.60495772601763</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.836665020761867</v>
+        <v>51.94087056486396</v>
       </c>
       <c r="AG23" t="n">
-        <v>35.81788538878771</v>
+        <v>30.72072085752191</v>
       </c>
       <c r="AH23" t="n">
-        <v>44.05561852511372</v>
+        <v>39.44243983047644</v>
       </c>
       <c r="AI23" t="n">
-        <v>17.60794037274963</v>
+        <v>25.62145000699742</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18.99868981379174</v>
+        <v>8.531841678273784</v>
       </c>
       <c r="AK23" t="n">
-        <v>29.45003244241157</v>
+        <v>50.5827415507685</v>
       </c>
       <c r="AL23" t="n">
-        <v>43.27917717223156</v>
+        <v>16.5233508948675</v>
       </c>
       <c r="AM23" t="n">
-        <v>9.104625872839812</v>
+        <v>9.877921638664656</v>
       </c>
       <c r="AN23" t="n">
-        <v>25.51024969102864</v>
+        <v>124.0132457039003</v>
       </c>
       <c r="AO23" t="n">
-        <v>41.74800228578913</v>
+        <v>20.40093198814433</v>
       </c>
       <c r="AP23" t="n">
-        <v>21.21802388432371</v>
+        <v>8.273522001489672</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25.76339275343667</v>
+        <v>10.50753009442778</v>
       </c>
       <c r="AR23" t="n">
-        <v>25.57839118235256</v>
+        <v>14.27345009178848</v>
       </c>
       <c r="AS23" t="n">
-        <v>21.8474522978441</v>
+        <v>54.24028947489715</v>
       </c>
       <c r="AT23" t="n">
-        <v>22.57742083880087</v>
+        <v>31.20718599067215</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.849316701347064</v>
+        <v>63.08936594660667</v>
       </c>
       <c r="AV23" t="n">
-        <v>20.40849445306873</v>
+        <v>9.362614144521809</v>
       </c>
       <c r="AW23" t="n">
-        <v>34.85107701572261</v>
+        <v>15.86797744289744</v>
       </c>
       <c r="AX23" t="n">
-        <v>32.65493338795713</v>
+        <v>17.72141163850924</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>2.107180037494344</v>
+        <v>7.159686740496081</v>
       </c>
       <c r="D24" t="n">
-        <v>1.274756226927483</v>
+        <v>4.871503906034973</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8194381854273746</v>
+        <v>4.709144885966746</v>
       </c>
       <c r="F24" t="n">
-        <v>4.743831437556786</v>
+        <v>0.9301359107553107</v>
       </c>
       <c r="G24" t="n">
-        <v>6.285802165988303</v>
+        <v>9.087784953780627</v>
       </c>
       <c r="H24" t="n">
-        <v>28.07098741377905</v>
+        <v>1.409631040868009</v>
       </c>
       <c r="I24" t="n">
-        <v>1.426269125169876</v>
+        <v>13.12654129151831</v>
       </c>
       <c r="J24" t="n">
-        <v>32.99134006517641</v>
+        <v>19.03417945773012</v>
       </c>
       <c r="K24" t="n">
-        <v>3.921327650933186</v>
+        <v>20.81467375685338</v>
       </c>
       <c r="L24" t="n">
-        <v>29.07913165591398</v>
+        <v>6.781430624023473</v>
       </c>
       <c r="M24" t="n">
-        <v>33.30173457868571</v>
+        <v>30.82572482484724</v>
       </c>
       <c r="N24" t="n">
-        <v>17.77995854368341</v>
+        <v>8.681186834698135</v>
       </c>
       <c r="O24" t="n">
-        <v>14.75185548953805</v>
+        <v>72.67007064194924</v>
       </c>
       <c r="P24" t="n">
-        <v>14.93234399157022</v>
+        <v>39.9080207769745</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.73018137354799</v>
+        <v>16.99354088880637</v>
       </c>
       <c r="R24" t="n">
-        <v>30.77217074788408</v>
+        <v>13.12926765663252</v>
       </c>
       <c r="S24" t="n">
-        <v>14.52144897036442</v>
+        <v>29.13209918639888</v>
       </c>
       <c r="T24" t="n">
-        <v>42.94465233126837</v>
+        <v>23.06414176360906</v>
       </c>
       <c r="U24" t="n">
-        <v>13.94530973120508</v>
+        <v>25.60083602006148</v>
       </c>
       <c r="V24" t="n">
-        <v>38.33735109208019</v>
+        <v>23.84878072570356</v>
       </c>
       <c r="W24" t="n">
-        <v>16.06639581596597</v>
+        <v>19.56463134056909</v>
       </c>
       <c r="X24" t="n">
-        <v>31.51465846879826</v>
+        <v>38.09241455569865</v>
       </c>
       <c r="Y24" t="n">
-        <v>41.49408441629846</v>
+        <v>46.81719159878433</v>
       </c>
       <c r="Z24" t="n">
-        <v>11.89513507203924</v>
+        <v>27.43979501287198</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.206</v>
+        <v>14.37448494646075</v>
       </c>
       <c r="AB24" t="n">
-        <v>41.66336131050137</v>
+        <v>11.55036644288684</v>
       </c>
       <c r="AC24" t="n">
-        <v>25.63763744809103</v>
+        <v>36.44504531164451</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.94897903441321</v>
+        <v>9.437574706799957</v>
       </c>
       <c r="AE24" t="n">
-        <v>11.08398461219657</v>
+        <v>18.57824150408954</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.01253220749082</v>
+        <v>16.84397887019616</v>
       </c>
       <c r="AG24" t="n">
-        <v>5.903678657356993</v>
+        <v>13.81668744251019</v>
       </c>
       <c r="AH24" t="n">
-        <v>4.922212949904711</v>
+        <v>7.581770998818414</v>
       </c>
       <c r="AI24" t="n">
-        <v>23.20447337018895</v>
+        <v>14.98151267845635</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.340912317567507</v>
+        <v>4.92130796186068</v>
       </c>
       <c r="AK24" t="n">
-        <v>5.567246713004334</v>
+        <v>1.345302255337371</v>
       </c>
       <c r="AL24" t="n">
-        <v>4.565325276052936</v>
+        <v>6.232086522602304</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.37854808208851</v>
+        <v>1.135458971293821</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.29050072418291</v>
+        <v>7.567629490130994</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.439884186562151</v>
+        <v>5.15384228604908</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.876750116836801</v>
+        <v>1.494049793968608</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.483468523683114</v>
+        <v>1.786353293830371</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.629244530814658</v>
+        <v>2.551543886053688</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.086918917181988</v>
+        <v>2.372313606790538</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.53966939344292</v>
+        <v>3.895591196204059</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.230934920022904</v>
+        <v>4.158790201529298</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.057027648922515</v>
+        <v>1.381632337634985</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.140502745755815</v>
+        <v>6.517799542062546</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.62036205253845</v>
+        <v>2.133214578734793</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>9.51</v>
+        <v>6.820258240477234</v>
       </c>
       <c r="D25" t="n">
-        <v>13.17</v>
+        <v>6.043212978874665</v>
       </c>
       <c r="E25" t="n">
-        <v>25.55</v>
+        <v>9.472857713381634</v>
       </c>
       <c r="F25" t="n">
-        <v>9.460000000000001</v>
+        <v>6.529274208891475</v>
       </c>
       <c r="G25" t="n">
-        <v>10.88</v>
+        <v>14.7216436918569</v>
       </c>
       <c r="H25" t="n">
-        <v>27.08</v>
+        <v>24.59951284834753</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>13.70006916155936</v>
       </c>
       <c r="J25" t="n">
-        <v>2.4</v>
+        <v>1.831014790810285</v>
       </c>
       <c r="K25" t="n">
-        <v>29.07</v>
+        <v>30.76118623094585</v>
       </c>
       <c r="L25" t="n">
-        <v>18.92</v>
+        <v>4.695462127661928</v>
       </c>
       <c r="M25" t="n">
-        <v>11.81</v>
+        <v>166.1160633572857</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7518699325025</v>
+        <v>6.854918521675285</v>
       </c>
       <c r="O25" t="n">
-        <v>89.87</v>
+        <v>38.94807334603276</v>
       </c>
       <c r="P25" t="n">
-        <v>38.45</v>
+        <v>36.32514366640699</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.52</v>
+        <v>7.28426121200055</v>
       </c>
       <c r="R25" t="n">
-        <v>77.84</v>
+        <v>41.98371736907115</v>
       </c>
       <c r="S25" t="n">
-        <v>32.45</v>
+        <v>42.58350310187437</v>
       </c>
       <c r="T25" t="n">
-        <v>12.19</v>
+        <v>21.32825845157131</v>
       </c>
       <c r="U25" t="n">
-        <v>16.23</v>
+        <v>108.4322466724981</v>
       </c>
       <c r="V25" t="n">
-        <v>83.54000000000001</v>
+        <v>14.40194305651299</v>
       </c>
       <c r="W25" t="n">
-        <v>10.00966149530994</v>
+        <v>13.27059756592695</v>
       </c>
       <c r="X25" t="n">
-        <v>39.22</v>
+        <v>33.85185042741286</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.51000000000001</v>
+        <v>9.177064341475516</v>
       </c>
       <c r="Z25" t="n">
-        <v>104.7575</v>
+        <v>44.6186155205372</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.94</v>
+        <v>1.465854967132742</v>
       </c>
       <c r="AB25" t="n">
-        <v>20.61</v>
+        <v>1.631554630146245</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.2</v>
+        <v>26.78803866597512</v>
       </c>
       <c r="AD25" t="n">
-        <v>4.61</v>
+        <v>2.049623957177474</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.6</v>
+        <v>5.63481578111608</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.37</v>
+        <v>3.545715927876643</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.07</v>
+        <v>16.29224037831919</v>
       </c>
       <c r="AH25" t="n">
-        <v>45.35</v>
+        <v>1.482344811599174</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.9762817101295</v>
+        <v>27.69620011956492</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7.44</v>
+        <v>20.14065839753205</v>
       </c>
       <c r="AK25" t="n">
-        <v>5.54</v>
+        <v>0.8169605236423951</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.14</v>
+        <v>4.935173864703465</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.53</v>
+        <v>17.38057692885867</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.795428582</v>
+        <v>19.72082437007202</v>
       </c>
       <c r="AO25" t="n">
-        <v>12.13</v>
+        <v>0.4154658058746015</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.790752481463907</v>
+        <v>42.77288732725749</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11.13</v>
+        <v>0.4786818009456477</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.86</v>
+        <v>107.9453415270242</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.66</v>
+        <v>1.498185263171665</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.1</v>
+        <v>34.18010411671695</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>6.878873756064715</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.470000000000001</v>
+        <v>5.424598003337365</v>
       </c>
       <c r="AW25" t="n">
-        <v>14</v>
+        <v>8.867022756059034</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.7670347175</v>
+        <v>13.23432369158239</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.99899264995137</v>
+        <v>9.771950952306096</v>
       </c>
       <c r="D26" t="n">
-        <v>43.08325119409289</v>
+        <v>19.31097793006483</v>
       </c>
       <c r="E26" t="n">
-        <v>19.78691278717837</v>
+        <v>29.2289187083463</v>
       </c>
       <c r="F26" t="n">
-        <v>20.16611058749572</v>
+        <v>10.81217222672721</v>
       </c>
       <c r="G26" t="n">
-        <v>7.874659589354721</v>
+        <v>14.69304861503638</v>
       </c>
       <c r="H26" t="n">
-        <v>17.81071246413225</v>
+        <v>26.38545712605967</v>
       </c>
       <c r="I26" t="n">
-        <v>39.62193427730043</v>
+        <v>59.36538105261384</v>
       </c>
       <c r="J26" t="n">
-        <v>67.82169282020212</v>
+        <v>164.2388913397676</v>
       </c>
       <c r="K26" t="n">
-        <v>54.82041336755806</v>
+        <v>29.56650687835814</v>
       </c>
       <c r="L26" t="n">
-        <v>16.74194863974772</v>
+        <v>30.24572796188541</v>
       </c>
       <c r="M26" t="n">
-        <v>23.58962447130282</v>
+        <v>24.74881077540011</v>
       </c>
       <c r="N26" t="n">
-        <v>71.45558913127078</v>
+        <v>44.51559707419789</v>
       </c>
       <c r="O26" t="n">
-        <v>42.39787304688231</v>
+        <v>50.28914159836645</v>
       </c>
       <c r="P26" t="n">
-        <v>76.08003245388218</v>
+        <v>92.40946775462267</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.2721265863246</v>
+        <v>70.88045248343001</v>
       </c>
       <c r="R26" t="n">
-        <v>87.33417500000002</v>
+        <v>108.8416764543335</v>
       </c>
       <c r="S26" t="n">
-        <v>35.65657809169157</v>
+        <v>222.4653956802875</v>
       </c>
       <c r="T26" t="n">
-        <v>64.33678709229721</v>
+        <v>37.91900896297577</v>
       </c>
       <c r="U26" t="n">
-        <v>41.25266763499053</v>
+        <v>56.26337709263269</v>
       </c>
       <c r="V26" t="n">
-        <v>44.73321876729217</v>
+        <v>73.76773065668739</v>
       </c>
       <c r="W26" t="n">
-        <v>50.27462397766651</v>
+        <v>42.4118034690609</v>
       </c>
       <c r="X26" t="n">
-        <v>44.50882870224119</v>
+        <v>89.25451406301192</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.46372269055049</v>
+        <v>126.0399673346878</v>
       </c>
       <c r="Z26" t="n">
-        <v>59.3433730385076</v>
+        <v>87.35535106432022</v>
       </c>
       <c r="AA26" t="n">
-        <v>104.3575131377089</v>
+        <v>92.09152866631671</v>
       </c>
       <c r="AB26" t="n">
-        <v>117.4568662059627</v>
+        <v>79.4231144896399</v>
       </c>
       <c r="AC26" t="n">
-        <v>117.7040684683671</v>
+        <v>137.0054914390586</v>
       </c>
       <c r="AD26" t="n">
-        <v>98.80893633734684</v>
+        <v>147.7997248266345</v>
       </c>
       <c r="AE26" t="n">
-        <v>102.7079165984952</v>
+        <v>84.28699906791539</v>
       </c>
       <c r="AF26" t="n">
-        <v>107.9308713587338</v>
+        <v>43.2329157726743</v>
       </c>
       <c r="AG26" t="n">
-        <v>234.671157366456</v>
+        <v>86.18548276708027</v>
       </c>
       <c r="AH26" t="n">
-        <v>77.98728602567182</v>
+        <v>234.6082695559685</v>
       </c>
       <c r="AI26" t="n">
-        <v>54.66689043840482</v>
+        <v>79.14821592112948</v>
       </c>
       <c r="AJ26" t="n">
-        <v>51.74685921525825</v>
+        <v>54.92963312556849</v>
       </c>
       <c r="AK26" t="n">
-        <v>39.66609984540338</v>
+        <v>40.98552238956923</v>
       </c>
       <c r="AL26" t="n">
-        <v>47.76824090374544</v>
+        <v>32.8832975622851</v>
       </c>
       <c r="AM26" t="n">
-        <v>101.048679500853</v>
+        <v>28.16949317019164</v>
       </c>
       <c r="AN26" t="n">
-        <v>26.16508471573135</v>
+        <v>39.88086001413874</v>
       </c>
       <c r="AO26" t="n">
-        <v>23.17109586644222</v>
+        <v>37.40548569150495</v>
       </c>
       <c r="AP26" t="n">
-        <v>31.3424931030803</v>
+        <v>32.92528077872255</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23.93597142857143</v>
+        <v>23.4342403419027</v>
       </c>
       <c r="AR26" t="n">
-        <v>16.58754711896889</v>
+        <v>20.6519951187692</v>
       </c>
       <c r="AS26" t="n">
-        <v>19.14988534354293</v>
+        <v>23.16790210738497</v>
       </c>
       <c r="AT26" t="n">
-        <v>23.45651866140872</v>
+        <v>15.89888549740388</v>
       </c>
       <c r="AU26" t="n">
-        <v>18.70873616855626</v>
+        <v>25.71662867397777</v>
       </c>
       <c r="AV26" t="n">
-        <v>15.8671306042921</v>
+        <v>20.17351212521127</v>
       </c>
       <c r="AW26" t="n">
-        <v>22.73384655467717</v>
+        <v>18.46723532458141</v>
       </c>
       <c r="AX26" t="n">
-        <v>16.19062440713352</v>
+        <v>10.0564523092752</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.201952070175063</v>
+        <v>3.086537008301429</v>
       </c>
       <c r="D27" t="n">
-        <v>4.027972027972028</v>
+        <v>1.738466116645705</v>
       </c>
       <c r="E27" t="n">
-        <v>2.435972747918244</v>
+        <v>0.9923405257997764</v>
       </c>
       <c r="F27" t="n">
-        <v>2.873546827418413</v>
+        <v>0.1607242270950482</v>
       </c>
       <c r="G27" t="n">
-        <v>5.529439769483801</v>
+        <v>0.07565575863170727</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3033438432218168</v>
+        <v>7.487629628208595</v>
       </c>
       <c r="I27" t="n">
-        <v>4.142494613218147</v>
+        <v>2.473669145027548</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62490614816956</v>
+        <v>1.128930145786628</v>
       </c>
       <c r="K27" t="n">
-        <v>7.844675359682049</v>
+        <v>4.372854987071711</v>
       </c>
       <c r="L27" t="n">
-        <v>1.728993318809702</v>
+        <v>2.132814043872856</v>
       </c>
       <c r="M27" t="n">
-        <v>20.87317769669846</v>
+        <v>1.442015479776054</v>
       </c>
       <c r="N27" t="n">
-        <v>5.78262580964549</v>
+        <v>3.939035465503425</v>
       </c>
       <c r="O27" t="n">
-        <v>4.312856765899574</v>
+        <v>8.318787328615576</v>
       </c>
       <c r="P27" t="n">
-        <v>5.236719754674052</v>
+        <v>5.798042667487538</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.903783166904423</v>
+        <v>1.845689382579734</v>
       </c>
       <c r="R27" t="n">
-        <v>4.810205256255226</v>
+        <v>11.52005663426291</v>
       </c>
       <c r="S27" t="n">
-        <v>6.759060985352007</v>
+        <v>2.430408867140587</v>
       </c>
       <c r="T27" t="n">
-        <v>3.278354838714726</v>
+        <v>1.468609719517592</v>
       </c>
       <c r="U27" t="n">
-        <v>6.911227505886315</v>
+        <v>3.0500315896659</v>
       </c>
       <c r="V27" t="n">
-        <v>4.408434936605686</v>
+        <v>8.583030812178452</v>
       </c>
       <c r="W27" t="n">
-        <v>4.75551819418411</v>
+        <v>2.883230597186006</v>
       </c>
       <c r="X27" t="n">
-        <v>2.303674671401659</v>
+        <v>1.568134065211664</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.539016357509518</v>
+        <v>3.246073539585254</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.037704140181513</v>
+        <v>3.816414427796778</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.081206176292992</v>
+        <v>3.88859646141836</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.24419447187239</v>
+        <v>5.591133898394276</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.241157467049846</v>
+        <v>3.225115644003863</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.27121917525878</v>
+        <v>4.393816574130641</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.928637448820997</v>
+        <v>6.166911944618287</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.916751182006407</v>
+        <v>9.690343062043123</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.751830706367797</v>
+        <v>4.685936848331909</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.927961285020573</v>
+        <v>5.753538724958466</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.701397869834498</v>
+        <v>6.015097695137123</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.421147231291701</v>
+        <v>4.092364059325763</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.796076460646753</v>
+        <v>5.144837044847808</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.805688866214143</v>
+        <v>5.200755750672745</v>
       </c>
       <c r="AM27" t="n">
-        <v>8.582854335544093</v>
+        <v>3.87360206252899</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.68794699362669</v>
+        <v>2.429151630954561</v>
       </c>
       <c r="AO27" t="n">
-        <v>6.968162404945299</v>
+        <v>7.553334684209429</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.905006975662688</v>
+        <v>2.392479632463127</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.32369426191874</v>
+        <v>1.641090656272155</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.861908969680256</v>
+        <v>2.559728507893959</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.955110426296867</v>
+        <v>2.599370885758921</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.153533498590225</v>
+        <v>3.825053842702129</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.312166949948774</v>
+        <v>2.19778737869813</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.969697151499895</v>
+        <v>1.720237518864467</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.407466913594195</v>
+        <v>2.311934881397642</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.420231566118221</v>
+        <v>1.831631322599491</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>8.964193214746668</v>
+        <v>9.271046828317575</v>
       </c>
       <c r="D28" t="n">
-        <v>7.302633307502123</v>
+        <v>16.4712413617837</v>
       </c>
       <c r="E28" t="n">
-        <v>16.27569182415518</v>
+        <v>10.7594431925827</v>
       </c>
       <c r="F28" t="n">
-        <v>26.88646854599719</v>
+        <v>6.022204072065206</v>
       </c>
       <c r="G28" t="n">
-        <v>7.961330077248856</v>
+        <v>14.4710489625429</v>
       </c>
       <c r="H28" t="n">
-        <v>7.916766235274157</v>
+        <v>47.56177447497959</v>
       </c>
       <c r="I28" t="n">
-        <v>8.338060258643241</v>
+        <v>25.69760294364672</v>
       </c>
       <c r="J28" t="n">
-        <v>23.40050577153473</v>
+        <v>103.9010365990083</v>
       </c>
       <c r="K28" t="n">
-        <v>32.27707128886367</v>
+        <v>10.09059582235466</v>
       </c>
       <c r="L28" t="n">
-        <v>30.74406506464047</v>
+        <v>14.55130947476228</v>
       </c>
       <c r="M28" t="n">
-        <v>76.84635236439242</v>
+        <v>83.05926440607607</v>
       </c>
       <c r="N28" t="n">
-        <v>74.93112381059423</v>
+        <v>48.18552554285964</v>
       </c>
       <c r="O28" t="n">
-        <v>115.8527120049752</v>
+        <v>72.99171945713633</v>
       </c>
       <c r="P28" t="n">
-        <v>37.38066243539069</v>
+        <v>34.35879197807172</v>
       </c>
       <c r="Q28" t="n">
-        <v>124.1414001205117</v>
+        <v>56.85180230502079</v>
       </c>
       <c r="R28" t="n">
-        <v>62.52598221824864</v>
+        <v>32.5581800605226</v>
       </c>
       <c r="S28" t="n">
-        <v>61.37604568778616</v>
+        <v>34.83803500241073</v>
       </c>
       <c r="T28" t="n">
-        <v>68.60912961664647</v>
+        <v>106.723038322849</v>
       </c>
       <c r="U28" t="n">
-        <v>36.23471999425466</v>
+        <v>32.1059109384839</v>
       </c>
       <c r="V28" t="n">
-        <v>60.92505498927449</v>
+        <v>41.61517501517594</v>
       </c>
       <c r="W28" t="n">
-        <v>98.94273966116251</v>
+        <v>49.32775665724127</v>
       </c>
       <c r="X28" t="n">
-        <v>33.40230363863795</v>
+        <v>81.01787318714918</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.69751745306858</v>
+        <v>38.4372877064332</v>
       </c>
       <c r="Z28" t="n">
-        <v>118.4230793896184</v>
+        <v>48.29201090036731</v>
       </c>
       <c r="AA28" t="n">
-        <v>65.84022737642658</v>
+        <v>84.10712555558527</v>
       </c>
       <c r="AB28" t="n">
-        <v>55.22545993939014</v>
+        <v>61.51152546039872</v>
       </c>
       <c r="AC28" t="n">
-        <v>69.35428137941021</v>
+        <v>56.18177686661912</v>
       </c>
       <c r="AD28" t="n">
-        <v>60.74145269483059</v>
+        <v>47.21314332736774</v>
       </c>
       <c r="AE28" t="n">
-        <v>84.05006944546227</v>
+        <v>44.85760522534461</v>
       </c>
       <c r="AF28" t="n">
-        <v>112.7708694097464</v>
+        <v>41.70403175328445</v>
       </c>
       <c r="AG28" t="n">
-        <v>38.34736306741647</v>
+        <v>89.7891648109281</v>
       </c>
       <c r="AH28" t="n">
-        <v>32.08570045650952</v>
+        <v>77.38679426355739</v>
       </c>
       <c r="AI28" t="n">
-        <v>37.76695623894612</v>
+        <v>56.36657148381721</v>
       </c>
       <c r="AJ28" t="n">
-        <v>85.97913391910399</v>
+        <v>23.11967170076096</v>
       </c>
       <c r="AK28" t="n">
-        <v>25.81207753479028</v>
+        <v>40.63785637347853</v>
       </c>
       <c r="AL28" t="n">
-        <v>20.68201899529531</v>
+        <v>17.6978145283075</v>
       </c>
       <c r="AM28" t="n">
-        <v>25.10252990229883</v>
+        <v>13.40926734059976</v>
       </c>
       <c r="AN28" t="n">
-        <v>17.05062839741938</v>
+        <v>41.25148071110235</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.30141106326599</v>
+        <v>24.13930650118964</v>
       </c>
       <c r="AP28" t="n">
-        <v>21.24848432882162</v>
+        <v>13.98963406330296</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12.6643255402208</v>
+        <v>25.9621864363801</v>
       </c>
       <c r="AR28" t="n">
-        <v>16.51091331061321</v>
+        <v>19.42232735149837</v>
       </c>
       <c r="AS28" t="n">
-        <v>16.65502581415273</v>
+        <v>16.43708709020375</v>
       </c>
       <c r="AT28" t="n">
-        <v>6.369752036199094</v>
+        <v>13.47239092448544</v>
       </c>
       <c r="AU28" t="n">
-        <v>16.10375036930978</v>
+        <v>13.73681977655189</v>
       </c>
       <c r="AV28" t="n">
-        <v>12.47723282203466</v>
+        <v>19.05220552820592</v>
       </c>
       <c r="AW28" t="n">
-        <v>34.06168438962144</v>
+        <v>24.35481794200491</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.243561969303695</v>
+        <v>9.88250704596202</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>21.60843246186775</v>
+        <v>31.91788468221691</v>
       </c>
       <c r="D29" t="n">
-        <v>21.4355673311774</v>
+        <v>5.536406398146495</v>
       </c>
       <c r="E29" t="n">
-        <v>16.17589191401854</v>
+        <v>7.248131991986605</v>
       </c>
       <c r="F29" t="n">
-        <v>38.00048157771893</v>
+        <v>29.37406239278504</v>
       </c>
       <c r="G29" t="n">
-        <v>20.2865613658733</v>
+        <v>25.54959904078353</v>
       </c>
       <c r="H29" t="n">
-        <v>7.600019494877476</v>
+        <v>115.8454685969152</v>
       </c>
       <c r="I29" t="n">
-        <v>22.50043230198792</v>
+        <v>3.197738671240654</v>
       </c>
       <c r="J29" t="n">
-        <v>11.61159754408999</v>
+        <v>62.89099057811911</v>
       </c>
       <c r="K29" t="n">
-        <v>21.73176665781612</v>
+        <v>85.58862164644569</v>
       </c>
       <c r="L29" t="n">
-        <v>106.7690494963178</v>
+        <v>9.824120757176818</v>
       </c>
       <c r="M29" t="n">
-        <v>63.12150678652241</v>
+        <v>22.05696044734993</v>
       </c>
       <c r="N29" t="n">
-        <v>10.79842553744926</v>
+        <v>21.84535675085583</v>
       </c>
       <c r="O29" t="n">
-        <v>63.57444956165305</v>
+        <v>28.37115810425028</v>
       </c>
       <c r="P29" t="n">
-        <v>37.18779620272034</v>
+        <v>13.12749838400131</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.24068912664757</v>
+        <v>84.56346512261054</v>
       </c>
       <c r="R29" t="n">
-        <v>35.68670118014245</v>
+        <v>15.94045537455208</v>
       </c>
       <c r="S29" t="n">
-        <v>20.70825005559877</v>
+        <v>81.80026881125895</v>
       </c>
       <c r="T29" t="n">
-        <v>86.70618085572805</v>
+        <v>20.70378404583575</v>
       </c>
       <c r="U29" t="n">
-        <v>19.09527613331664</v>
+        <v>74.04509559402467</v>
       </c>
       <c r="V29" t="n">
-        <v>37.23575889261014</v>
+        <v>21.51276976336838</v>
       </c>
       <c r="W29" t="n">
-        <v>50.82387127407164</v>
+        <v>97.66235961789832</v>
       </c>
       <c r="X29" t="n">
-        <v>16.46445187618014</v>
+        <v>24.21736889180221</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.65404531476232</v>
+        <v>77.3417267800822</v>
       </c>
       <c r="Z29" t="n">
-        <v>25.75086855379769</v>
+        <v>12.21311128918776</v>
       </c>
       <c r="AA29" t="n">
-        <v>27.31079142501533</v>
+        <v>38.03098974979963</v>
       </c>
       <c r="AB29" t="n">
-        <v>38.47583239217549</v>
+        <v>9.48871251411931</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.397671828161078</v>
+        <v>36.99942330579591</v>
       </c>
       <c r="AD29" t="n">
-        <v>19.09008906868336</v>
+        <v>79.61257218703585</v>
       </c>
       <c r="AE29" t="n">
-        <v>23.00614915710766</v>
+        <v>20.63147516518233</v>
       </c>
       <c r="AF29" t="n">
-        <v>16.41889634803266</v>
+        <v>24.80464067705346</v>
       </c>
       <c r="AG29" t="n">
-        <v>20.96879327660901</v>
+        <v>6.397341963179835</v>
       </c>
       <c r="AH29" t="n">
-        <v>28.2074879263478</v>
+        <v>14.6459011706281</v>
       </c>
       <c r="AI29" t="n">
-        <v>24.69956873302522</v>
+        <v>8.861717756715475</v>
       </c>
       <c r="AJ29" t="n">
-        <v>36.0780379230434</v>
+        <v>22.51031483729258</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.319303134926067</v>
+        <v>9.573130340946358</v>
       </c>
       <c r="AL29" t="n">
-        <v>28.40626430411212</v>
+        <v>99.54667813388537</v>
       </c>
       <c r="AM29" t="n">
-        <v>18.32891737399859</v>
+        <v>26.36990245745933</v>
       </c>
       <c r="AN29" t="n">
-        <v>13.67893300931658</v>
+        <v>24.07289909126798</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.78133948303576</v>
+        <v>39.21411337362988</v>
       </c>
       <c r="AP29" t="n">
-        <v>45.65804656312692</v>
+        <v>8.112996792349762</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21.13797607280515</v>
+        <v>6.677228998655665</v>
       </c>
       <c r="AR29" t="n">
-        <v>28.72047120520481</v>
+        <v>14.0926968241901</v>
       </c>
       <c r="AS29" t="n">
-        <v>14.47625562995579</v>
+        <v>21.85152386635301</v>
       </c>
       <c r="AT29" t="n">
-        <v>4.688705640255082</v>
+        <v>14.98113037107315</v>
       </c>
       <c r="AU29" t="n">
-        <v>5.695409747534881</v>
+        <v>30.00989148086635</v>
       </c>
       <c r="AV29" t="n">
-        <v>36.58928402725866</v>
+        <v>43.4746356849664</v>
       </c>
       <c r="AW29" t="n">
-        <v>39.08868779915841</v>
+        <v>32.54828891481876</v>
       </c>
       <c r="AX29" t="n">
-        <v>38.11849331421281</v>
+        <v>49.4627627402334</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.489775175768731</v>
+        <v>4.464296621820176</v>
       </c>
       <c r="D30" t="n">
-        <v>1.749539760096801</v>
+        <v>3.341943268340394</v>
       </c>
       <c r="E30" t="n">
-        <v>2.153293421160365</v>
+        <v>6.594595997641211</v>
       </c>
       <c r="F30" t="n">
-        <v>4.403139550044791</v>
+        <v>4.627236191281438</v>
       </c>
       <c r="G30" t="n">
-        <v>4.190933154298278</v>
+        <v>3.443093093073561</v>
       </c>
       <c r="H30" t="n">
-        <v>9.994454550425408</v>
+        <v>1.903374212273329</v>
       </c>
       <c r="I30" t="n">
-        <v>2.052580875942373</v>
+        <v>3.629731776950248</v>
       </c>
       <c r="J30" t="n">
-        <v>98.49594525971754</v>
+        <v>2.242441619720753</v>
       </c>
       <c r="K30" t="n">
-        <v>58.93955801345215</v>
+        <v>24.09601270336673</v>
       </c>
       <c r="L30" t="n">
-        <v>11.74064596198306</v>
+        <v>21.10412072586621</v>
       </c>
       <c r="M30" t="n">
-        <v>7.013303166588628</v>
+        <v>17.33656015529359</v>
       </c>
       <c r="N30" t="n">
-        <v>45.23037753274078</v>
+        <v>27.81807161954406</v>
       </c>
       <c r="O30" t="n">
-        <v>13.90343040439625</v>
+        <v>13.9897871707573</v>
       </c>
       <c r="P30" t="n">
-        <v>58.40961846207969</v>
+        <v>17.31995783958746</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.88724687492858</v>
+        <v>35.1966801959022</v>
       </c>
       <c r="R30" t="n">
-        <v>20.63467921080809</v>
+        <v>34.21585999015645</v>
       </c>
       <c r="S30" t="n">
-        <v>21.62548234812326</v>
+        <v>11.02191217965884</v>
       </c>
       <c r="T30" t="n">
-        <v>14.73727758108682</v>
+        <v>12.21021208674581</v>
       </c>
       <c r="U30" t="n">
-        <v>14.06211745177146</v>
+        <v>9.886696622982443</v>
       </c>
       <c r="V30" t="n">
-        <v>21.93720428105716</v>
+        <v>34.66436373576889</v>
       </c>
       <c r="W30" t="n">
-        <v>33.6835939624166</v>
+        <v>25.44332961831972</v>
       </c>
       <c r="X30" t="n">
-        <v>22.62755517478644</v>
+        <v>8.785203655886365</v>
       </c>
       <c r="Y30" t="n">
-        <v>28.34895268040411</v>
+        <v>12.03921963924028</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.45476260005125</v>
+        <v>10.73607109357541</v>
       </c>
       <c r="AA30" t="n">
-        <v>16.60541067045193</v>
+        <v>10.17553970976416</v>
       </c>
       <c r="AB30" t="n">
-        <v>21.78115854892449</v>
+        <v>44.2730123097713</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.89488170397533</v>
+        <v>10.28918923385179</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.88354775822607</v>
+        <v>30.12156403894611</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.44278606189432</v>
+        <v>14.04070712085653</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.79787594193603</v>
+        <v>32.46457666318692</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.113729729729729</v>
+        <v>7.00996202858995</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.830507871075663</v>
+        <v>9.795361540096932</v>
       </c>
       <c r="AI30" t="n">
-        <v>20.57278269702838</v>
+        <v>12.28548832106491</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.523229645582248</v>
+        <v>11.345465028939</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.721930926694336</v>
+        <v>2.994266740017103</v>
       </c>
       <c r="AL30" t="n">
-        <v>23.64331992701104</v>
+        <v>6.309863123791732</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.738219687669169</v>
+        <v>8.672437188932239</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.759043852053522</v>
+        <v>2.216643158871434</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.497362260213049</v>
+        <v>9.277560333300171</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.13575424051234</v>
+        <v>8.787773597831022</v>
       </c>
       <c r="AQ30" t="n">
-        <v>7.838558418545214</v>
+        <v>0.5430495157821111</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.881428571428571</v>
+        <v>2.592547599946569</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.471909582816383</v>
+        <v>7.894512868805751</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.407837392945132</v>
+        <v>4.88172285202303</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.391896456865741</v>
+        <v>3.958231156502632</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.310719747479363</v>
+        <v>2.577294364465466</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.555919870314146</v>
+        <v>1.190866829629864</v>
       </c>
       <c r="AX30" t="n">
-        <v>13.25467754989985</v>
+        <v>1.515581620157441</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>7.37</v>
+        <v>6.218476318637904</v>
       </c>
       <c r="D31" t="n">
-        <v>27.42</v>
+        <v>1.097328306993981</v>
       </c>
       <c r="E31" t="n">
-        <v>9.33</v>
+        <v>13.77136272258065</v>
       </c>
       <c r="F31" t="n">
-        <v>2.01</v>
+        <v>4.033588071852892</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>23.25000701673444</v>
       </c>
       <c r="H31" t="n">
-        <v>2.4</v>
+        <v>224.4976276937805</v>
       </c>
       <c r="I31" t="n">
-        <v>10.88</v>
+        <v>6.50264876053282</v>
       </c>
       <c r="J31" t="n">
-        <v>20.47</v>
+        <v>72.91457381671025</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>40.963929354016</v>
       </c>
       <c r="L31" t="n">
-        <v>117.07</v>
+        <v>20.6572167561138</v>
       </c>
       <c r="M31" t="n">
-        <v>25.69965120255328</v>
+        <v>90.03777708165516</v>
       </c>
       <c r="N31" t="n">
-        <v>39.16</v>
+        <v>12.4955280668461</v>
       </c>
       <c r="O31" t="n">
-        <v>1.52</v>
+        <v>76.87625240465228</v>
       </c>
       <c r="P31" t="n">
-        <v>51.06</v>
+        <v>60.36781927746896</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.58</v>
+        <v>10.24644604587605</v>
       </c>
       <c r="R31" t="n">
-        <v>33.81</v>
+        <v>38.73707137745832</v>
       </c>
       <c r="S31" t="n">
-        <v>22.06</v>
+        <v>7.954726181495339</v>
       </c>
       <c r="T31" t="n">
-        <v>9.66</v>
+        <v>133.7475365120091</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>34.89349996456336</v>
       </c>
       <c r="V31" t="n">
-        <v>12.39</v>
+        <v>22.16071931412851</v>
       </c>
       <c r="W31" t="n">
-        <v>4.27</v>
+        <v>51.4937502931818</v>
       </c>
       <c r="X31" t="n">
-        <v>35.2</v>
+        <v>42.86154391361227</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.51000000000001</v>
+        <v>20.92363764215078</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.470000000000001</v>
+        <v>109.0963102178236</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.04</v>
+        <v>8.151821195534197</v>
       </c>
       <c r="AB31" t="n">
-        <v>38.64375</v>
+        <v>10.52678916075487</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.81</v>
+        <v>15.79845745205647</v>
       </c>
       <c r="AD31" t="n">
-        <v>34.29</v>
+        <v>37.83673292729743</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>1.331447931659315</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.369999999999999</v>
+        <v>6.866548844210273</v>
       </c>
       <c r="AG31" t="n">
-        <v>4.630269910820592</v>
+        <v>5.120366398760811</v>
       </c>
       <c r="AH31" t="n">
-        <v>4.73</v>
+        <v>3.994046974379153</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.21</v>
+        <v>0.2299130897672468</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6.15</v>
+        <v>0.8862518934069756</v>
       </c>
       <c r="AK31" t="n">
-        <v>10.97</v>
+        <v>5.01906420455147</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0.876295991690214</v>
       </c>
       <c r="AM31" t="n">
-        <v>10.87</v>
+        <v>1.672111553372862</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.22</v>
+        <v>2.23868456339837</v>
       </c>
       <c r="AO31" t="n">
-        <v>2.41</v>
+        <v>5.087165561110522</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.62</v>
+        <v>21.86699911455744</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4.24</v>
+        <v>2.928202501216437</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.02</v>
+        <v>2.882995806544998</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.58</v>
+        <v>1.449692086803302</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.13</v>
+        <v>1.55400398433218</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.52</v>
+        <v>3.892142498650535</v>
       </c>
       <c r="AV31" t="n">
-        <v>28.04</v>
+        <v>2.395885435770991</v>
       </c>
       <c r="AW31" t="n">
-        <v>11.97</v>
+        <v>0.6475272055637867</v>
       </c>
       <c r="AX31" t="n">
-        <v>19.64</v>
+        <v>6.313318583788777</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_001.xlsx
+++ b/escenarios_montecarlo/escenario_001.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.33712098741224</v>
+        <v>14.28659723702208</v>
       </c>
       <c r="D2" t="n">
-        <v>34.44409185237669</v>
+        <v>11.53582217844316</v>
       </c>
       <c r="E2" t="n">
-        <v>51.74565059985921</v>
+        <v>11.32673457192579</v>
       </c>
       <c r="F2" t="n">
-        <v>29.03671795044046</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.78772014741623</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.25793058449953</v>
+        <v>82.11789469549466</v>
       </c>
       <c r="I2" t="n">
-        <v>70.81124456795651</v>
+        <v>30.12498508225034</v>
       </c>
       <c r="J2" t="n">
-        <v>51.35982676394654</v>
+        <v>74.77903036291325</v>
       </c>
       <c r="K2" t="n">
-        <v>42.06591548664458</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.01736991769108</v>
+        <v>26.94542186717738</v>
       </c>
       <c r="M2" t="n">
-        <v>32.71637691673685</v>
+        <v>31.93078403212156</v>
       </c>
       <c r="N2" t="n">
-        <v>61.83854087655205</v>
+        <v>21.43122745094584</v>
       </c>
       <c r="O2" t="n">
-        <v>46.71110413787389</v>
+        <v>51.86152383568113</v>
       </c>
       <c r="P2" t="n">
-        <v>29.92604574077615</v>
+        <v>24.9815900177318</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.97845502221536</v>
+        <v>42.49151356925415</v>
       </c>
       <c r="R2" t="n">
-        <v>69.12762135089849</v>
+        <v>53.81251802289984</v>
       </c>
       <c r="S2" t="n">
-        <v>154.3501142607601</v>
+        <v>54.36361069174544</v>
       </c>
       <c r="T2" t="n">
-        <v>96.36318199623219</v>
+        <v>64.72371951866083</v>
       </c>
       <c r="U2" t="n">
-        <v>128.539794621416</v>
+        <v>84.06098757423892</v>
       </c>
       <c r="V2" t="n">
-        <v>64.20830218135202</v>
+        <v>148.7713607155447</v>
       </c>
       <c r="W2" t="n">
-        <v>52.87245500020306</v>
+        <v>88.19049944022134</v>
       </c>
       <c r="X2" t="n">
-        <v>109.1532086176861</v>
+        <v>104.2423082387864</v>
       </c>
       <c r="Y2" t="n">
-        <v>109.7553614178429</v>
+        <v>95.34566915726397</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.164290921565</v>
+        <v>44.03207290010322</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.72265682776192</v>
+        <v>57.43796069389308</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.4323892860623</v>
+        <v>68.95109577810506</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.9971142692478</v>
+        <v>106.5569661898958</v>
       </c>
       <c r="AD2" t="n">
-        <v>130.1270345711937</v>
+        <v>122.7421022285331</v>
       </c>
       <c r="AE2" t="n">
-        <v>58.65000753073534</v>
+        <v>129.8984485579238</v>
       </c>
       <c r="AF2" t="n">
-        <v>92.07063542863537</v>
+        <v>153.1998709979306</v>
       </c>
       <c r="AG2" t="n">
-        <v>55.63556053828174</v>
+        <v>162.63123819606</v>
       </c>
       <c r="AH2" t="n">
-        <v>54.63231546643679</v>
+        <v>67.39446446622635</v>
       </c>
       <c r="AI2" t="n">
-        <v>57.4007472488974</v>
+        <v>118.017428439864</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50.35921319677184</v>
+        <v>90.8404660458264</v>
       </c>
       <c r="AK2" t="n">
-        <v>59.02555791276495</v>
+        <v>119.7495278576105</v>
       </c>
       <c r="AL2" t="n">
-        <v>35.68375897466102</v>
+        <v>119.7720040567957</v>
       </c>
       <c r="AM2" t="n">
-        <v>81.07371659971395</v>
+        <v>69.77324321010271</v>
       </c>
       <c r="AN2" t="n">
-        <v>41.4708167281211</v>
+        <v>22.74438575881576</v>
       </c>
       <c r="AO2" t="n">
-        <v>33.96106474138615</v>
+        <v>28.14789492142848</v>
       </c>
       <c r="AP2" t="n">
-        <v>29.35759468823393</v>
+        <v>16.00379855127594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>38.97336684963025</v>
+        <v>20.31812480405888</v>
       </c>
       <c r="AR2" t="n">
-        <v>15.77976349644936</v>
+        <v>25.35350373892236</v>
       </c>
       <c r="AS2" t="n">
-        <v>18.95745853460939</v>
+        <v>35.27808248419735</v>
       </c>
       <c r="AT2" t="n">
-        <v>23.54774204334026</v>
+        <v>26.93226460852246</v>
       </c>
       <c r="AU2" t="n">
-        <v>15.03040120872466</v>
+        <v>12.62852667984086</v>
       </c>
       <c r="AV2" t="n">
-        <v>38.9816649403238</v>
+        <v>15.12836295964759</v>
       </c>
       <c r="AW2" t="n">
-        <v>23.57713901693769</v>
+        <v>14.15833869662992</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.859818742245983</v>
+        <v>19.92924071741895</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.983460477692405</v>
+        <v>1.204848025123765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219531828632537</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04630700106103738</v>
+        <v>3.011439607682338</v>
       </c>
       <c r="F3" t="n">
-        <v>1.617779283142272</v>
+        <v>13.66841473087583</v>
       </c>
       <c r="G3" t="n">
-        <v>7.363993764561035</v>
+        <v>0.6864578971056894</v>
       </c>
       <c r="H3" t="n">
-        <v>1.395302600094793</v>
+        <v>5.342402522202459</v>
       </c>
       <c r="I3" t="n">
-        <v>6.348098934336666</v>
+        <v>1.716801550503515</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7515530379783398</v>
+        <v>0.9994485629585356</v>
       </c>
       <c r="K3" t="n">
-        <v>4.52462163776756</v>
+        <v>0.3964139446541373</v>
       </c>
       <c r="L3" t="n">
-        <v>8.215619247299506</v>
+        <v>1.787879201616372</v>
       </c>
       <c r="M3" t="n">
-        <v>1.363780354555263</v>
+        <v>5.064287443927335</v>
       </c>
       <c r="N3" t="n">
-        <v>4.575445590448165</v>
+        <v>10.28426015636697</v>
       </c>
       <c r="O3" t="n">
-        <v>3.543490901095663</v>
+        <v>7.063748671501817</v>
       </c>
       <c r="P3" t="n">
-        <v>2.153255745130223</v>
+        <v>2.197497734680137</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.837624941938999</v>
+        <v>6.229093020880898</v>
       </c>
       <c r="R3" t="n">
-        <v>5.742593893133034</v>
+        <v>4.767230126691388</v>
       </c>
       <c r="S3" t="n">
-        <v>2.256109082066387</v>
+        <v>2.990125820756099</v>
       </c>
       <c r="T3" t="n">
-        <v>4.977345559563339</v>
+        <v>3.135844074633243</v>
       </c>
       <c r="U3" t="n">
-        <v>6.825568533831412</v>
+        <v>1.429384729896711</v>
       </c>
       <c r="V3" t="n">
-        <v>2.054951606384955</v>
+        <v>2.731476275844249</v>
       </c>
       <c r="W3" t="n">
-        <v>10.06476847222517</v>
+        <v>4.306598528879615</v>
       </c>
       <c r="X3" t="n">
-        <v>4.360166682440047</v>
+        <v>0.1365696425005026</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.218194493073351</v>
+        <v>3.262474734024463</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.888647973709575</v>
+        <v>2.26984431695382</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.162725488766139</v>
+        <v>6.437541436836351</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.624155348653294</v>
+        <v>2.899242051169926</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.703379021229969</v>
+        <v>3.791059896123237</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.147094469014894</v>
+        <v>5.983052612862561</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.973682399115261</v>
+        <v>6.394578665074845</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.307199291086016</v>
+        <v>4.802270385024057</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.479643507413316</v>
+        <v>3.194358317454181</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.716950254803628</v>
+        <v>4.379695298470133</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.414661742758063</v>
+        <v>2.826282802606028</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.067961599895696</v>
+        <v>7.50936262446423</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.836354577439627</v>
+        <v>1.395407892380241</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.118850632063662</v>
+        <v>2.649224664649636</v>
       </c>
       <c r="AM3" t="n">
-        <v>11.6231676226587</v>
+        <v>6.736549077908159</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.305774006128665</v>
+        <v>3.55177107872727</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.24054693412651</v>
+        <v>3.418701882907192</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.634904464143474</v>
+        <v>2.555692880426801</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7.074057508195009</v>
+        <v>1.936917243993311</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.180316583279597</v>
+        <v>5.654178634988815</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.338800701083565</v>
+        <v>2.524205852411148</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.514546088884294</v>
+        <v>4.124648182614512</v>
       </c>
       <c r="AU3" t="n">
-        <v>10.93471087449702</v>
+        <v>3.764185737658605</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.537568700656714</v>
+        <v>2.995318481160111</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.275620826644495</v>
+        <v>2.982792036162755</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.462551197918862</v>
+        <v>5.039986743122868</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.984132313991937</v>
+        <v>8.020273440742011</v>
       </c>
       <c r="D4" t="n">
-        <v>5.4217629614256</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.70070405168523</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.96499088780651</v>
+        <v>12.17380017445038</v>
       </c>
       <c r="G4" t="n">
-        <v>21.96305741099798</v>
+        <v>2.042419745497206</v>
       </c>
       <c r="H4" t="n">
-        <v>15.74479017285746</v>
+        <v>78.76328642143326</v>
       </c>
       <c r="I4" t="n">
-        <v>55.04404639452036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.31906073617321</v>
+        <v>192.2665714653166</v>
       </c>
       <c r="K4" t="n">
-        <v>84.75417506572553</v>
+        <v>49.82077813159993</v>
       </c>
       <c r="L4" t="n">
-        <v>44.34245371276306</v>
+        <v>34.6627444699588</v>
       </c>
       <c r="M4" t="n">
-        <v>25.29576804042791</v>
+        <v>110.428192061955</v>
       </c>
       <c r="N4" t="n">
-        <v>114.5081295092346</v>
+        <v>77.91256816746619</v>
       </c>
       <c r="O4" t="n">
-        <v>62.81290552184657</v>
+        <v>48.10670396102392</v>
       </c>
       <c r="P4" t="n">
-        <v>173.9858444868763</v>
+        <v>48.53527403985795</v>
       </c>
       <c r="Q4" t="n">
-        <v>94.2458977540994</v>
+        <v>115.8742154498932</v>
       </c>
       <c r="R4" t="n">
-        <v>31.28147622175978</v>
+        <v>23.47369234190179</v>
       </c>
       <c r="S4" t="n">
-        <v>11.77013432423644</v>
+        <v>43.27273217204357</v>
       </c>
       <c r="T4" t="n">
-        <v>117.4328224777249</v>
+        <v>68.1657080198172</v>
       </c>
       <c r="U4" t="n">
-        <v>77.38078244852893</v>
+        <v>98.27344725797013</v>
       </c>
       <c r="V4" t="n">
-        <v>57.18998465543184</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>94.48617373735033</v>
+        <v>40.03749162945525</v>
       </c>
       <c r="X4" t="n">
-        <v>101.6342860304056</v>
+        <v>91.28876734745644</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.33059080622195</v>
+        <v>61.57711210080567</v>
       </c>
       <c r="Z4" t="n">
-        <v>46.0374384681647</v>
+        <v>94.18698597987101</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.72213168077045</v>
+        <v>48.95527351566156</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.08701199216894</v>
+        <v>86.585561445511</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.0157421033966</v>
+        <v>37.91075887684565</v>
       </c>
       <c r="AD4" t="n">
-        <v>29.48663202546981</v>
+        <v>95.69614704898467</v>
       </c>
       <c r="AE4" t="n">
-        <v>129.0958176508547</v>
+        <v>98.77487534314234</v>
       </c>
       <c r="AF4" t="n">
-        <v>82.5310234105113</v>
+        <v>85.94283299434102</v>
       </c>
       <c r="AG4" t="n">
-        <v>57.12651299948703</v>
+        <v>95.0478215557555</v>
       </c>
       <c r="AH4" t="n">
-        <v>22.24273901229612</v>
+        <v>28.05530836814631</v>
       </c>
       <c r="AI4" t="n">
-        <v>23.99245575689017</v>
+        <v>70.02840763399581</v>
       </c>
       <c r="AJ4" t="n">
-        <v>108.8032332517682</v>
+        <v>60.48240237530582</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.450753781682</v>
+        <v>14.96205079562554</v>
       </c>
       <c r="AL4" t="n">
-        <v>35.39828784898506</v>
+        <v>56.3203205043219</v>
       </c>
       <c r="AM4" t="n">
-        <v>72.77451944222589</v>
+        <v>24.96237207152284</v>
       </c>
       <c r="AN4" t="n">
-        <v>43.42304072974375</v>
+        <v>31.4393330788739</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.9201148209251</v>
+        <v>11.41476953061295</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.65461913723803</v>
+        <v>21.03188930309184</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21.41600977756774</v>
+        <v>29.84169425462029</v>
       </c>
       <c r="AR4" t="n">
-        <v>12.04395820048384</v>
+        <v>13.01108342834219</v>
       </c>
       <c r="AS4" t="n">
-        <v>16.96043245289911</v>
+        <v>22.56085327258725</v>
       </c>
       <c r="AT4" t="n">
-        <v>12.85911679886918</v>
+        <v>9.061887949419562</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.519348308637092</v>
+        <v>10.38981682306454</v>
       </c>
       <c r="AV4" t="n">
-        <v>24.06614723759115</v>
+        <v>12.97884849530422</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.930074134529066</v>
+        <v>29.25971898709185</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.126085627134419</v>
+        <v>10.61560749518486</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>52.98662163779652</v>
+        <v>17.27299170430903</v>
       </c>
       <c r="D5" t="n">
-        <v>16.36973220472063</v>
+        <v>22.29910159514732</v>
       </c>
       <c r="E5" t="n">
-        <v>3.32292906693001</v>
+        <v>29.08686346174166</v>
       </c>
       <c r="F5" t="n">
-        <v>66.2901026577731</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.88566059185201</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14.80599117010444</v>
+        <v>11.70929568585771</v>
       </c>
       <c r="I5" t="n">
-        <v>23.84329225912304</v>
+        <v>75.24671951773954</v>
       </c>
       <c r="J5" t="n">
-        <v>18.40065140637541</v>
+        <v>46.38579299925341</v>
       </c>
       <c r="K5" t="n">
-        <v>3.323390504370692</v>
+        <v>48.92569364358697</v>
       </c>
       <c r="L5" t="n">
-        <v>231.9913308586651</v>
+        <v>140.4359083981398</v>
       </c>
       <c r="M5" t="n">
-        <v>12.66816953832923</v>
+        <v>102.0618258106067</v>
       </c>
       <c r="N5" t="n">
-        <v>33.71688899134607</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8.572363294838388</v>
+        <v>4.960442261260082</v>
       </c>
       <c r="P5" t="n">
-        <v>39.09577296620586</v>
+        <v>30.7363789443733</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.32493494859447</v>
+        <v>35.10681071549612</v>
       </c>
       <c r="R5" t="n">
-        <v>17.90864664354667</v>
+        <v>7.046901289902527</v>
       </c>
       <c r="S5" t="n">
-        <v>52.96173934908827</v>
+        <v>21.93781968584376</v>
       </c>
       <c r="T5" t="n">
-        <v>30.4228932127825</v>
+        <v>13.62204465326275</v>
       </c>
       <c r="U5" t="n">
-        <v>113.365086121607</v>
+        <v>29.53595100301222</v>
       </c>
       <c r="V5" t="n">
-        <v>80.50209145377531</v>
+        <v>87.35530331003133</v>
       </c>
       <c r="W5" t="n">
-        <v>56.57103196695397</v>
+        <v>38.39989534303131</v>
       </c>
       <c r="X5" t="n">
-        <v>46.06832870978881</v>
+        <v>66.42786268299976</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.59291670544299</v>
+        <v>32.41204999921164</v>
       </c>
       <c r="Z5" t="n">
-        <v>140.0448576008316</v>
+        <v>44.45656444221601</v>
       </c>
       <c r="AA5" t="n">
-        <v>36.75062901610104</v>
+        <v>34.89841363198987</v>
       </c>
       <c r="AB5" t="n">
-        <v>31.06738281350908</v>
+        <v>34.1727266911075</v>
       </c>
       <c r="AC5" t="n">
-        <v>20.87645895293493</v>
+        <v>24.61544581900334</v>
       </c>
       <c r="AD5" t="n">
-        <v>23.75653589943594</v>
+        <v>21.69951257031411</v>
       </c>
       <c r="AE5" t="n">
-        <v>74.01384811153069</v>
+        <v>57.24154105435784</v>
       </c>
       <c r="AF5" t="n">
-        <v>19.51173517760109</v>
+        <v>18.21091681692932</v>
       </c>
       <c r="AG5" t="n">
-        <v>143.1081387388469</v>
+        <v>53.47413411906407</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.25344071406275</v>
+        <v>13.14526954388337</v>
       </c>
       <c r="AI5" t="n">
-        <v>26.68229458819773</v>
+        <v>45.35255888205415</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.347486764534269</v>
+        <v>181.2377825785724</v>
       </c>
       <c r="AK5" t="n">
-        <v>55.4204244014655</v>
+        <v>23.66011514096411</v>
       </c>
       <c r="AL5" t="n">
-        <v>16.04959840861838</v>
+        <v>27.6833309496964</v>
       </c>
       <c r="AM5" t="n">
-        <v>19.61430135630865</v>
+        <v>7.242218273245038</v>
       </c>
       <c r="AN5" t="n">
-        <v>21.50498838515771</v>
+        <v>12.44673565598652</v>
       </c>
       <c r="AO5" t="n">
-        <v>29.13332054929509</v>
+        <v>25.1443389309994</v>
       </c>
       <c r="AP5" t="n">
-        <v>39.18462667586445</v>
+        <v>30.83738590576376</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21.39605757683128</v>
+        <v>28.13368386016748</v>
       </c>
       <c r="AR5" t="n">
-        <v>40.53153002757087</v>
+        <v>29.44740435151604</v>
       </c>
       <c r="AS5" t="n">
-        <v>51.30916921410412</v>
+        <v>25.4001318096367</v>
       </c>
       <c r="AT5" t="n">
-        <v>45.05729007239147</v>
+        <v>11.26650485927427</v>
       </c>
       <c r="AU5" t="n">
-        <v>40.14710005764918</v>
+        <v>8.042066373184445</v>
       </c>
       <c r="AV5" t="n">
-        <v>16.68793341564145</v>
+        <v>38.65138468079896</v>
       </c>
       <c r="AW5" t="n">
-        <v>40.92886956930651</v>
+        <v>39.63718005691246</v>
       </c>
       <c r="AX5" t="n">
-        <v>86.53613122137592</v>
+        <v>30.91431132399881</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.111315629534695</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.176607265137252</v>
+        <v>7.943270934198207</v>
       </c>
       <c r="E6" t="n">
-        <v>4.306176827834589</v>
+        <v>3.053898374110611</v>
       </c>
       <c r="F6" t="n">
-        <v>3.883059644700618</v>
+        <v>7.789519879771095</v>
       </c>
       <c r="G6" t="n">
-        <v>33.20113140309106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>10.34909206020533</v>
+        <v>12.45547163596482</v>
       </c>
       <c r="I6" t="n">
-        <v>9.012994287569423</v>
+        <v>20.67097323841121</v>
       </c>
       <c r="J6" t="n">
-        <v>194.0392408206305</v>
+        <v>40.4347450885289</v>
       </c>
       <c r="K6" t="n">
-        <v>26.00081087641262</v>
+        <v>20.41779414728343</v>
       </c>
       <c r="L6" t="n">
-        <v>62.17103308214589</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.780065312350663</v>
+        <v>107.0882744863454</v>
       </c>
       <c r="N6" t="n">
-        <v>29.64828258376181</v>
+        <v>41.23260148921732</v>
       </c>
       <c r="O6" t="n">
-        <v>89.65487786478953</v>
+        <v>24.04409078076146</v>
       </c>
       <c r="P6" t="n">
-        <v>42.51133723302574</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.17178132700725</v>
+        <v>96.51344215436772</v>
       </c>
       <c r="R6" t="n">
-        <v>18.46762463908727</v>
+        <v>2.241823115778013</v>
       </c>
       <c r="S6" t="n">
-        <v>13.52289100805393</v>
+        <v>14.0150019940821</v>
       </c>
       <c r="T6" t="n">
-        <v>22.51232867674883</v>
+        <v>24.24032187618482</v>
       </c>
       <c r="U6" t="n">
-        <v>30.26438386598899</v>
+        <v>17.11462806345482</v>
       </c>
       <c r="V6" t="n">
-        <v>50.9245741346152</v>
+        <v>35.36873938327744</v>
       </c>
       <c r="W6" t="n">
-        <v>25.57627723222853</v>
+        <v>24.35975174300067</v>
       </c>
       <c r="X6" t="n">
-        <v>13.04003306758183</v>
+        <v>11.84499824215345</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.429325456893221</v>
+        <v>12.42050011118331</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.56988020707383</v>
+        <v>9.75631712353929</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.88059348957767</v>
+        <v>21.73229445240114</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.59131824152864</v>
+        <v>22.60602484743162</v>
       </c>
       <c r="AC6" t="n">
-        <v>24.58732869192942</v>
+        <v>18.23355877313001</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.60796017432478</v>
+        <v>15.43499392016308</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.77180812691714</v>
+        <v>9.224891324683608</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.46489249027787</v>
+        <v>12.69022770035959</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.87857427947996</v>
+        <v>17.45981185220097</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.150341636942359</v>
+        <v>12.90944382431336</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.821734535203563</v>
+        <v>4.006078189463242</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.04863101255195</v>
+        <v>7.762708255770986</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.946287836069616</v>
+        <v>22.93214961368216</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.025008475645995</v>
+        <v>4.693471094054023</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.249311344415025</v>
+        <v>5.908896351926204</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.727355082096177</v>
+        <v>0.3163564145257505</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.188900034652776</v>
+        <v>2.018406191430342</v>
       </c>
       <c r="AP6" t="n">
-        <v>11.60384207032494</v>
+        <v>3.19957320278162</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.242378187545373</v>
+        <v>4.994729303842291</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.015577343827081</v>
+        <v>1.59773954045998</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.662741709170018</v>
+        <v>3.548514967580925</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.36235860557653</v>
+        <v>3.552893989184144</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.8901687268973394</v>
+        <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.4253743472759305</v>
+        <v>1.836479383266519</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.97869315382825</v>
+        <v>3.07535495794497</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.467270645400356</v>
+        <v>6.145120522085241</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.483910429345609</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.70978334734756</v>
+        <v>8.48992917783465</v>
       </c>
       <c r="E7" t="n">
-        <v>7.015505222025004</v>
+        <v>73.49920206270403</v>
       </c>
       <c r="F7" t="n">
-        <v>8.938913773935594</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>12.13274394279168</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.99738842894364</v>
+        <v>8.293587793858679</v>
       </c>
       <c r="I7" t="n">
-        <v>4.539147200881506</v>
+        <v>15.63791149313955</v>
       </c>
       <c r="J7" t="n">
-        <v>12.3672223739374</v>
+        <v>23.87213985005639</v>
       </c>
       <c r="K7" t="n">
-        <v>67.29816987734593</v>
+        <v>51.18075743265064</v>
       </c>
       <c r="L7" t="n">
-        <v>62.58837523795359</v>
+        <v>30.68386116015449</v>
       </c>
       <c r="M7" t="n">
-        <v>74.01067089380768</v>
+        <v>48.69601144492412</v>
       </c>
       <c r="N7" t="n">
-        <v>57.88850500089125</v>
+        <v>100.0244093699216</v>
       </c>
       <c r="O7" t="n">
-        <v>13.31968587373045</v>
+        <v>121.5667162984885</v>
       </c>
       <c r="P7" t="n">
-        <v>14.45391527749111</v>
+        <v>8.641192320421283</v>
       </c>
       <c r="Q7" t="n">
-        <v>76.92487867713079</v>
+        <v>38.70694191099573</v>
       </c>
       <c r="R7" t="n">
-        <v>11.67442746955887</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.453189534121488</v>
+        <v>23.25252631450272</v>
       </c>
       <c r="T7" t="n">
-        <v>7.301340521558271</v>
+        <v>0.3874787787248124</v>
       </c>
       <c r="U7" t="n">
-        <v>17.49719497755379</v>
+        <v>30.3313503257558</v>
       </c>
       <c r="V7" t="n">
-        <v>21.11008123104733</v>
+        <v>51.66276549048577</v>
       </c>
       <c r="W7" t="n">
-        <v>59.32201520362893</v>
+        <v>137.9878312892229</v>
       </c>
       <c r="X7" t="n">
-        <v>28.84517396792667</v>
+        <v>45.42917532543084</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.6202279372487</v>
+        <v>41.81128583944699</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.859972549668654</v>
+        <v>7.048622981983289</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.965717761181071</v>
+        <v>9.200541931553456</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.95185260807663</v>
+        <v>2.840603391714244</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.872450898845503</v>
+        <v>3.55918062783198</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.46019836982166</v>
+        <v>18.04408164706394</v>
       </c>
       <c r="AE7" t="n">
-        <v>57.7702648141004</v>
+        <v>3.662940964077174</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.823383464286877</v>
+        <v>9.844385529324887</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.831093711099793</v>
+        <v>15.61971042280572</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.67552072042466</v>
+        <v>4.1586280707799</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.690918343917479</v>
+        <v>18.69202963541419</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.935778477034224</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>114.5274886981091</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>18.73554013258629</v>
+        <v>11.59369345392171</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8231960917992442</v>
+        <v>3.063822554247686</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.856062799652979</v>
+        <v>6.678005248521433</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.559351757661984</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.732441877085877</v>
+        <v>0.4978325861651454</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10.45889427183364</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7305061149560624</v>
+        <v>13.82177761610739</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.629416395917702</v>
+        <v>16.83289824766229</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6256763146545971</v>
+        <v>3.182472431122761</v>
       </c>
       <c r="AU7" t="n">
-        <v>23.62656453764996</v>
+        <v>6.867641279910188</v>
       </c>
       <c r="AV7" t="n">
-        <v>19.36186463206577</v>
+        <v>9.557515404341871</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.427247221432274</v>
+        <v>11.80918479922016</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.175761349775134</v>
+        <v>4.705499202318743</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.64881705334445</v>
+        <v>23.07548461827331</v>
       </c>
       <c r="D8" t="n">
-        <v>20.17058659523777</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.14011117112404</v>
+        <v>18.93504822150673</v>
       </c>
       <c r="F8" t="n">
-        <v>21.11221662866818</v>
+        <v>24.37055056877458</v>
       </c>
       <c r="G8" t="n">
-        <v>21.321579583679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18.01897716083868</v>
+        <v>14.20967044467995</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92643874567806</v>
+        <v>146.4251470984505</v>
       </c>
       <c r="J8" t="n">
-        <v>26.6203183469442</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>28.77068140266533</v>
+        <v>92.73416584215886</v>
       </c>
       <c r="L8" t="n">
-        <v>48.05075512648517</v>
+        <v>31.22253329598875</v>
       </c>
       <c r="M8" t="n">
-        <v>23.97878439372359</v>
+        <v>56.12248113317574</v>
       </c>
       <c r="N8" t="n">
-        <v>42.70921748345547</v>
+        <v>71.17630328805562</v>
       </c>
       <c r="O8" t="n">
-        <v>135.8628051165483</v>
+        <v>47.35742956478988</v>
       </c>
       <c r="P8" t="n">
-        <v>42.01257425798105</v>
+        <v>35.13857002624442</v>
       </c>
       <c r="Q8" t="n">
-        <v>126.7258495271715</v>
+        <v>38.65788418329758</v>
       </c>
       <c r="R8" t="n">
-        <v>22.85922153727394</v>
+        <v>22.6962199317084</v>
       </c>
       <c r="S8" t="n">
-        <v>40.05890093766673</v>
+        <v>47.89268504738731</v>
       </c>
       <c r="T8" t="n">
-        <v>38.71699679725884</v>
+        <v>137.6780932393945</v>
       </c>
       <c r="U8" t="n">
-        <v>39.39631101082418</v>
+        <v>59.90455687610034</v>
       </c>
       <c r="V8" t="n">
-        <v>64.26897599102438</v>
+        <v>55.43464183354314</v>
       </c>
       <c r="W8" t="n">
-        <v>43.26513010359892</v>
+        <v>63.37748172623777</v>
       </c>
       <c r="X8" t="n">
-        <v>89.64581306942071</v>
+        <v>38.42608944487704</v>
       </c>
       <c r="Y8" t="n">
-        <v>98.30315433881637</v>
+        <v>77.44059692072149</v>
       </c>
       <c r="Z8" t="n">
-        <v>84.41360418877001</v>
+        <v>76.20041040071007</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.19051981159501</v>
+        <v>111.5467946990094</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.01984710301002</v>
+        <v>121.8955897218262</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.4717360373796</v>
+        <v>144.748415996455</v>
       </c>
       <c r="AD8" t="n">
-        <v>61.47113902099695</v>
+        <v>79.27830293696751</v>
       </c>
       <c r="AE8" t="n">
-        <v>206.1594740020003</v>
+        <v>150.8125812021685</v>
       </c>
       <c r="AF8" t="n">
-        <v>105.5324165905977</v>
+        <v>98.68974377100584</v>
       </c>
       <c r="AG8" t="n">
-        <v>369.7600994334654</v>
+        <v>134.2304738157254</v>
       </c>
       <c r="AH8" t="n">
-        <v>70.91837669652455</v>
+        <v>150.8768890516927</v>
       </c>
       <c r="AI8" t="n">
-        <v>46.15574751215633</v>
+        <v>44.75776015230918</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25.12736275203555</v>
+        <v>31.80509152374817</v>
       </c>
       <c r="AK8" t="n">
-        <v>50.61984400982311</v>
+        <v>62.77104523794864</v>
       </c>
       <c r="AL8" t="n">
-        <v>59.55056427694114</v>
+        <v>35.36651152466332</v>
       </c>
       <c r="AM8" t="n">
-        <v>33.99434228102621</v>
+        <v>102.9251898025035</v>
       </c>
       <c r="AN8" t="n">
-        <v>34.02919618964528</v>
+        <v>57.67516106294573</v>
       </c>
       <c r="AO8" t="n">
-        <v>30.00088162138793</v>
+        <v>19.88030976332649</v>
       </c>
       <c r="AP8" t="n">
-        <v>22.23665885587933</v>
+        <v>38.48538900797156</v>
       </c>
       <c r="AQ8" t="n">
-        <v>48.42887847153646</v>
+        <v>35.03770177738865</v>
       </c>
       <c r="AR8" t="n">
-        <v>29.15504932186644</v>
+        <v>12.46390571144372</v>
       </c>
       <c r="AS8" t="n">
-        <v>13.63759410735299</v>
+        <v>13.37762922348538</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.63539987834099</v>
+        <v>23.8521938279295</v>
       </c>
       <c r="AU8" t="n">
-        <v>26.71338432445098</v>
+        <v>25.62190282014443</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.04267770692278</v>
+        <v>37.77879136023471</v>
       </c>
       <c r="AW8" t="n">
-        <v>24.68691708803003</v>
+        <v>61.44916144113206</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.50034061168763</v>
+        <v>12.5650478161337</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>15.91295086059408</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.580800670820548</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.420854768484584</v>
+        <v>1.99459059748465</v>
       </c>
       <c r="F9" t="n">
-        <v>2.077983335121413</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.690428236055926</v>
+        <v>4.425426362226095</v>
       </c>
       <c r="H9" t="n">
-        <v>3.998645101437846</v>
+        <v>2.228877835630943</v>
       </c>
       <c r="I9" t="n">
-        <v>3.04336717549716</v>
+        <v>0.6723770623179837</v>
       </c>
       <c r="J9" t="n">
-        <v>1.055825653647482</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.214216991118091</v>
+        <v>6.654693795320745</v>
       </c>
       <c r="L9" t="n">
-        <v>3.871017870018226</v>
+        <v>5.297799422123233</v>
       </c>
       <c r="M9" t="n">
-        <v>5.495745546377225</v>
+        <v>0.4822862116496517</v>
       </c>
       <c r="N9" t="n">
-        <v>3.960857015922865</v>
+        <v>4.555090075888151</v>
       </c>
       <c r="O9" t="n">
-        <v>8.469061275982705</v>
+        <v>0.7982693682722973</v>
       </c>
       <c r="P9" t="n">
-        <v>2.228404178095857</v>
+        <v>4.332926835606468</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.829660329257506</v>
+        <v>4.531158731174624</v>
       </c>
       <c r="R9" t="n">
-        <v>1.951675274047998</v>
+        <v>3.259996312920304</v>
       </c>
       <c r="S9" t="n">
-        <v>2.851097282282108</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.983806245421266</v>
+        <v>1.605914106806453</v>
       </c>
       <c r="U9" t="n">
-        <v>1.930968384562869</v>
+        <v>3.310673617932069</v>
       </c>
       <c r="V9" t="n">
-        <v>4.918658938545756</v>
+        <v>16.48729522381949</v>
       </c>
       <c r="W9" t="n">
-        <v>4.320486056381379</v>
+        <v>0.379503642120126</v>
       </c>
       <c r="X9" t="n">
-        <v>4.900381618993491</v>
+        <v>0.6661133709136504</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.793076340687165</v>
+        <v>1.828226994485799</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.127081105499887</v>
+        <v>9.726490290394469</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.822933482211804</v>
+        <v>4.522507018694648</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.053738087191693</v>
+        <v>5.076740138054455</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.768344590584538</v>
+        <v>4.109798111023619</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.305485357577305</v>
+        <v>9.086934123502894</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.227402056650538</v>
+        <v>5.649373967141792</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.692504800851153</v>
+        <v>6.726577830379815</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.782439337073249</v>
+        <v>8.47031656675772</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.20501121734765</v>
+        <v>3.427822271486025</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.26377678615541</v>
+        <v>1.128906903906185</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.65123073249161</v>
+        <v>0.6086797831615386</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.646500797981346</v>
+        <v>5.54381900541722</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.609311095073612</v>
+        <v>4.960981836581204</v>
       </c>
       <c r="AM9" t="n">
-        <v>10.55032028224345</v>
+        <v>4.04277796616429</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.357911695095821</v>
+        <v>3.76883013889112</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.76158281049145</v>
+        <v>4.430460158291916</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.172934265619039</v>
+        <v>2.183703256855846</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11.9463291656501</v>
+        <v>5.107286117546737</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.963065668967288</v>
+        <v>3.138958231605391</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.172154880773058</v>
+        <v>3.780197440239118</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.73802992670445</v>
+        <v>2.694462320464906</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.768385461072684</v>
+        <v>4.05299618450776</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.335622654444238</v>
+        <v>3.773888930618044</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.429825887565364</v>
+        <v>4.631921677268204</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.864534331933347</v>
+        <v>4.552501911443626</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>13.48953996931617</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.025604421350334</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.20350479920709</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>62.99853658925254</v>
+        <v>23.43501727311387</v>
       </c>
       <c r="G10" t="n">
-        <v>26.62665948516306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.16978319902925</v>
+        <v>26.30895300334319</v>
       </c>
       <c r="I10" t="n">
-        <v>196.4376177119593</v>
+        <v>18.92623374839451</v>
       </c>
       <c r="J10" t="n">
-        <v>12.90004368491552</v>
+        <v>31.51047609067537</v>
       </c>
       <c r="K10" t="n">
-        <v>20.57384452764815</v>
+        <v>106.4912973180224</v>
       </c>
       <c r="L10" t="n">
-        <v>64.23400669138698</v>
+        <v>25.96249770606894</v>
       </c>
       <c r="M10" t="n">
-        <v>100.406485484108</v>
+        <v>20.21104265749454</v>
       </c>
       <c r="N10" t="n">
-        <v>46.24956994606575</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>34.31706433084327</v>
+        <v>132.5264386313654</v>
       </c>
       <c r="P10" t="n">
-        <v>26.30927087374154</v>
+        <v>6.662224080783485</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.65697595123251</v>
+        <v>87.4748800892712</v>
       </c>
       <c r="R10" t="n">
-        <v>90.04004608919281</v>
+        <v>76.98928387082715</v>
       </c>
       <c r="S10" t="n">
-        <v>25.83243761189389</v>
+        <v>55.37907573220735</v>
       </c>
       <c r="T10" t="n">
-        <v>96.4444943397408</v>
+        <v>41.5199514398045</v>
       </c>
       <c r="U10" t="n">
-        <v>66.36908891948832</v>
+        <v>45.33001284192971</v>
       </c>
       <c r="V10" t="n">
-        <v>46.59136821405472</v>
+        <v>6.830552094240907</v>
       </c>
       <c r="W10" t="n">
-        <v>68.43521421606104</v>
+        <v>43.64852381121253</v>
       </c>
       <c r="X10" t="n">
-        <v>35.08129089129439</v>
+        <v>39.14857757971363</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.97347487080874</v>
+        <v>59.95020844927346</v>
       </c>
       <c r="Z10" t="n">
-        <v>80.02907751841495</v>
+        <v>60.0709618091728</v>
       </c>
       <c r="AA10" t="n">
-        <v>61.10873466540808</v>
+        <v>73.66003273522344</v>
       </c>
       <c r="AB10" t="n">
-        <v>87.18528653455189</v>
+        <v>75.85803994947392</v>
       </c>
       <c r="AC10" t="n">
-        <v>57.86920376813779</v>
+        <v>30.84223477352041</v>
       </c>
       <c r="AD10" t="n">
-        <v>117.503894235237</v>
+        <v>72.92605482526062</v>
       </c>
       <c r="AE10" t="n">
-        <v>61.00059730093989</v>
+        <v>11.5970901631498</v>
       </c>
       <c r="AF10" t="n">
-        <v>53.50736070500251</v>
+        <v>35.33619724849627</v>
       </c>
       <c r="AG10" t="n">
-        <v>72.49127302017328</v>
+        <v>67.3262323484529</v>
       </c>
       <c r="AH10" t="n">
-        <v>20.56488803119233</v>
+        <v>52.7045996306715</v>
       </c>
       <c r="AI10" t="n">
-        <v>125.7374924176061</v>
+        <v>23.26724002991306</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48.16250241988989</v>
+        <v>41.28110700389148</v>
       </c>
       <c r="AK10" t="n">
-        <v>38.28522736653801</v>
+        <v>66.21008654178075</v>
       </c>
       <c r="AL10" t="n">
-        <v>18.94969399544884</v>
+        <v>24.06011289375787</v>
       </c>
       <c r="AM10" t="n">
-        <v>24.7714068654481</v>
+        <v>34.73584261568855</v>
       </c>
       <c r="AN10" t="n">
-        <v>38.17371621641509</v>
+        <v>20.98561043552365</v>
       </c>
       <c r="AO10" t="n">
-        <v>23.85610290905508</v>
+        <v>28.2605619535546</v>
       </c>
       <c r="AP10" t="n">
-        <v>13.04330240505382</v>
+        <v>9.185763870728238</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12.34979846369249</v>
+        <v>15.51418768511281</v>
       </c>
       <c r="AR10" t="n">
-        <v>15.07461540651478</v>
+        <v>6.018475419971506</v>
       </c>
       <c r="AS10" t="n">
-        <v>12.48422897216638</v>
+        <v>22.58974380254658</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.42140536827693</v>
+        <v>26.4494919866497</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.213370469765186</v>
+        <v>5.413219299902862</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.48657696201524</v>
+        <v>20.64913303776663</v>
       </c>
       <c r="AW10" t="n">
-        <v>17.56536705060629</v>
+        <v>10.07741957804106</v>
       </c>
       <c r="AX10" t="n">
-        <v>14.40639333825353</v>
+        <v>8.646006378698008</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>41.62946792973591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.41934592707742</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.860625440178187</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4.458634316286857</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.286489095037741</v>
+        <v>7.565941985026149</v>
       </c>
       <c r="H11" t="n">
-        <v>7.775303900464989</v>
+        <v>9.975488878970463</v>
       </c>
       <c r="I11" t="n">
-        <v>22.34057653054252</v>
+        <v>14.98270333151837</v>
       </c>
       <c r="J11" t="n">
-        <v>104.7459843126608</v>
+        <v>70.83285770207559</v>
       </c>
       <c r="K11" t="n">
-        <v>49.29709054799672</v>
+        <v>55.45132026702935</v>
       </c>
       <c r="L11" t="n">
-        <v>31.71564907101474</v>
+        <v>10.21111743341866</v>
       </c>
       <c r="M11" t="n">
-        <v>16.51072934583006</v>
+        <v>9.152580162593289</v>
       </c>
       <c r="N11" t="n">
-        <v>26.90734540695565</v>
+        <v>27.38178843228788</v>
       </c>
       <c r="O11" t="n">
-        <v>37.51107024440365</v>
+        <v>21.34391574774806</v>
       </c>
       <c r="P11" t="n">
-        <v>31.2248480501993</v>
+        <v>61.10933233287216</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.76650586293594</v>
+        <v>7.9592972810078</v>
       </c>
       <c r="R11" t="n">
-        <v>82.25050771907988</v>
+        <v>79.34577872691125</v>
       </c>
       <c r="S11" t="n">
-        <v>47.56125693047909</v>
+        <v>114.6220679279172</v>
       </c>
       <c r="T11" t="n">
-        <v>94.95576515278708</v>
+        <v>19.53057630003646</v>
       </c>
       <c r="U11" t="n">
-        <v>53.8836414913434</v>
+        <v>54.00580539288749</v>
       </c>
       <c r="V11" t="n">
-        <v>37.45984067898117</v>
+        <v>187.1754202820575</v>
       </c>
       <c r="W11" t="n">
-        <v>34.67381732977114</v>
+        <v>29.26389951444969</v>
       </c>
       <c r="X11" t="n">
-        <v>50.70885068621146</v>
+        <v>49.31454564399178</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.45651209619245</v>
+        <v>103.6390382527686</v>
       </c>
       <c r="Z11" t="n">
-        <v>34.80491613525511</v>
+        <v>90.62527205299926</v>
       </c>
       <c r="AA11" t="n">
-        <v>46.98900053710484</v>
+        <v>26.34360727276376</v>
       </c>
       <c r="AB11" t="n">
-        <v>34.47903102090952</v>
+        <v>81.28519734076022</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.47420806334716</v>
+        <v>48.92435658016751</v>
       </c>
       <c r="AD11" t="n">
-        <v>21.83000122574336</v>
+        <v>92.60427883826168</v>
       </c>
       <c r="AE11" t="n">
-        <v>42.69694715805461</v>
+        <v>29.35558694775627</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.05128748414043</v>
+        <v>3.599554586107896</v>
       </c>
       <c r="AG11" t="n">
-        <v>36.39982092152122</v>
+        <v>28.44618642922108</v>
       </c>
       <c r="AH11" t="n">
-        <v>23.74148584725412</v>
+        <v>40.59979035848973</v>
       </c>
       <c r="AI11" t="n">
-        <v>27.04118913978188</v>
+        <v>177.4369276463804</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.46799463202798</v>
+        <v>39.06750667564405</v>
       </c>
       <c r="AK11" t="n">
-        <v>40.35158350362189</v>
+        <v>12.61349721297542</v>
       </c>
       <c r="AL11" t="n">
-        <v>37.2979267241668</v>
+        <v>24.65756950003381</v>
       </c>
       <c r="AM11" t="n">
-        <v>94.79945842301032</v>
+        <v>37.76986988887044</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.417428865268892</v>
+        <v>1.804274770747649</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.16394130584158</v>
+        <v>51.65839554885108</v>
       </c>
       <c r="AP11" t="n">
-        <v>26.74236934495244</v>
+        <v>0.129141433388829</v>
       </c>
       <c r="AQ11" t="n">
-        <v>38.22048127090637</v>
+        <v>24.335646030751</v>
       </c>
       <c r="AR11" t="n">
-        <v>11.28595021386518</v>
+        <v>5.611750933183813</v>
       </c>
       <c r="AS11" t="n">
-        <v>37.0856130970116</v>
+        <v>9.587310525829263</v>
       </c>
       <c r="AT11" t="n">
-        <v>55.02420682119831</v>
+        <v>30.44474751245939</v>
       </c>
       <c r="AU11" t="n">
-        <v>21.20400890802662</v>
+        <v>42.72495154163231</v>
       </c>
       <c r="AV11" t="n">
-        <v>16.94896600833593</v>
+        <v>26.90038208744252</v>
       </c>
       <c r="AW11" t="n">
-        <v>10.16095599306954</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>30.58126781208522</v>
+        <v>32.34677293323975</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.920353786493862</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.69539722012077</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.884984567217499</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>10.4980609457476</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>16.28264023129688</v>
+        <v>14.49927355614771</v>
       </c>
       <c r="H12" t="n">
-        <v>11.18903544924525</v>
+        <v>13.66744331774048</v>
       </c>
       <c r="I12" t="n">
-        <v>3.200188817625706</v>
+        <v>13.81309862971969</v>
       </c>
       <c r="J12" t="n">
-        <v>7.115221027780807</v>
+        <v>42.02739871966475</v>
       </c>
       <c r="K12" t="n">
-        <v>22.19156938021107</v>
+        <v>20.48122207919536</v>
       </c>
       <c r="L12" t="n">
-        <v>147.4531652657038</v>
+        <v>4.273109817786207</v>
       </c>
       <c r="M12" t="n">
-        <v>39.26716790972983</v>
+        <v>81.88424041773079</v>
       </c>
       <c r="N12" t="n">
-        <v>35.02790212659115</v>
+        <v>29.28494390115486</v>
       </c>
       <c r="O12" t="n">
-        <v>28.31178997968252</v>
+        <v>15.05568472057204</v>
       </c>
       <c r="P12" t="n">
-        <v>15.96762167910625</v>
+        <v>24.51738711680904</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.96592460289156</v>
+        <v>33.50157228888575</v>
       </c>
       <c r="R12" t="n">
-        <v>24.35231165249188</v>
+        <v>16.41547392823453</v>
       </c>
       <c r="S12" t="n">
-        <v>9.682040378135188</v>
+        <v>60.73414245513745</v>
       </c>
       <c r="T12" t="n">
-        <v>10.40630284632118</v>
+        <v>39.43033242469556</v>
       </c>
       <c r="U12" t="n">
-        <v>32.75246112475548</v>
+        <v>29.87433173023989</v>
       </c>
       <c r="V12" t="n">
-        <v>20.5697375849198</v>
+        <v>25.19824948486351</v>
       </c>
       <c r="W12" t="n">
-        <v>12.12029152414046</v>
+        <v>27.93211639126093</v>
       </c>
       <c r="X12" t="n">
-        <v>35.27042150147963</v>
+        <v>18.03062557840836</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.3955527546854</v>
+        <v>36.41947953677172</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.48145757130542</v>
+        <v>11.42107724463479</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.388158668072894</v>
+        <v>19.78641064129543</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.47106248399815</v>
+        <v>6.737320954137155</v>
       </c>
       <c r="AC12" t="n">
-        <v>29.51116196771594</v>
+        <v>11.35436567733881</v>
       </c>
       <c r="AD12" t="n">
-        <v>32.71908237359876</v>
+        <v>9.339902408968335</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.47377260143101</v>
+        <v>29.22703304555505</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.380605515275731</v>
+        <v>2.585452921056457</v>
       </c>
       <c r="AG12" t="n">
-        <v>26.69524530325803</v>
+        <v>10.6160792558506</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.67693860242177</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>15.82252471995866</v>
+        <v>8.151324700242549</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.22833499813469</v>
+        <v>3.259012731273404</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.288682514691713</v>
+        <v>9.280827609040681</v>
       </c>
       <c r="AL12" t="n">
-        <v>4.287557966117842</v>
+        <v>3.848247973916658</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.118753957311222</v>
+        <v>6.685342717504194</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.977267136730007</v>
+        <v>7.039853972160581</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.815358065384887</v>
+        <v>4.388604167107978</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.305166182918571</v>
+        <v>5.622115895453043</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.277861102304255</v>
+        <v>0.7622483723167541</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.344167937051831</v>
+        <v>4.168058485431701</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.599411338609519</v>
+        <v>1.35745642379996</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.518561487232625</v>
+        <v>4.283402234501891</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.177380975837906</v>
+        <v>5.516291083339161</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.812245076291469</v>
+        <v>4.544577960797723</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.6137632057353681</v>
+        <v>2.442442558209827</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.353796078032615</v>
+        <v>2.18354762115605</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.282590041513093</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.14270462577295</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9.440750973610326</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.399596241186225</v>
+        <v>2.203361731770826</v>
       </c>
       <c r="G13" t="n">
-        <v>7.918260973711599</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.33577137207939</v>
+        <v>33.53914743721001</v>
       </c>
       <c r="I13" t="n">
-        <v>14.71541238592648</v>
+        <v>83.17599465340551</v>
       </c>
       <c r="J13" t="n">
-        <v>16.96260396769878</v>
+        <v>65.60319842711182</v>
       </c>
       <c r="K13" t="n">
-        <v>24.59363343974833</v>
+        <v>28.1438606380262</v>
       </c>
       <c r="L13" t="n">
-        <v>68.8338229387644</v>
+        <v>90.1091061955662</v>
       </c>
       <c r="M13" t="n">
-        <v>11.11297791088581</v>
+        <v>45.25014705574336</v>
       </c>
       <c r="N13" t="n">
-        <v>17.81231106756648</v>
+        <v>4.272833357519037</v>
       </c>
       <c r="O13" t="n">
-        <v>31.24792601158174</v>
+        <v>95.29416786091878</v>
       </c>
       <c r="P13" t="n">
-        <v>34.81152943347515</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.75297279776666</v>
+        <v>1.660844530575221</v>
       </c>
       <c r="R13" t="n">
-        <v>42.97102450101872</v>
+        <v>26.48376635334874</v>
       </c>
       <c r="S13" t="n">
-        <v>6.151216989598866</v>
+        <v>28.36278599171906</v>
       </c>
       <c r="T13" t="n">
-        <v>1.782035669687197</v>
+        <v>18.18169251394902</v>
       </c>
       <c r="U13" t="n">
-        <v>28.06814623000944</v>
+        <v>0.4146110259281863</v>
       </c>
       <c r="V13" t="n">
-        <v>21.65366361677975</v>
+        <v>31.0856402621452</v>
       </c>
       <c r="W13" t="n">
-        <v>9.293631596227685</v>
+        <v>18.03761008896037</v>
       </c>
       <c r="X13" t="n">
-        <v>26.91962996040907</v>
+        <v>3.644311311998228</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.89782859959639</v>
+        <v>15.47056661915592</v>
       </c>
       <c r="Z13" t="n">
-        <v>32.85967294167965</v>
+        <v>17.91676377221177</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.649474829638303</v>
+        <v>12.10194936399764</v>
       </c>
       <c r="AB13" t="n">
-        <v>20.32898853810632</v>
+        <v>36.77503897254962</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.005432624677207</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.521177248984515</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.42500721341811</v>
+        <v>3.664394380248958</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.117498298484337</v>
+        <v>5.49086247509096</v>
       </c>
       <c r="AG13" t="n">
-        <v>59.16617652588598</v>
+        <v>10.574894618504</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.29100529426221</v>
+        <v>43.26670037193022</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.180658993173782</v>
+        <v>6.509971566752021</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.657183149883234</v>
+        <v>6.490379278500519</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.937521005594381</v>
+        <v>7.072504474082674</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.941952800629564</v>
+        <v>14.87440309637552</v>
       </c>
       <c r="AM13" t="n">
-        <v>20.71880843244153</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>22.44057295307907</v>
+        <v>20.60580468107477</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.43558174398599</v>
+        <v>6.924258622984002</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.59934864249774</v>
+        <v>3.102241418121092</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7.891942686062681</v>
+        <v>10.4387431381333</v>
       </c>
       <c r="AR13" t="n">
-        <v>9.662987388290587</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.422356022153082</v>
+        <v>11.1049912809493</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.859274745565109</v>
+        <v>13.46925110684965</v>
       </c>
       <c r="AU13" t="n">
-        <v>25.99044953079947</v>
+        <v>0.3626362038052559</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.638241884268538</v>
+        <v>1.370743230054948</v>
       </c>
       <c r="AW13" t="n">
-        <v>11.66382124254381</v>
+        <v>0.5620774728665487</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.797409907100942</v>
+        <v>5.184221243706269</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.11925193634821</v>
+        <v>8.587157590434213</v>
       </c>
       <c r="D14" t="n">
-        <v>30.32575486170528</v>
+        <v>6.133807034671204</v>
       </c>
       <c r="E14" t="n">
-        <v>36.46277778003079</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>18.33987506958842</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.17936723718838</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17.51019735165325</v>
+        <v>22.97788429707664</v>
       </c>
       <c r="I14" t="n">
-        <v>50.11344542406921</v>
+        <v>115.3041487652999</v>
       </c>
       <c r="J14" t="n">
-        <v>20.58387168493367</v>
+        <v>41.13986490640082</v>
       </c>
       <c r="K14" t="n">
-        <v>41.15964242402465</v>
+        <v>127.7477420354042</v>
       </c>
       <c r="L14" t="n">
-        <v>68.23065251293443</v>
+        <v>57.48836969281126</v>
       </c>
       <c r="M14" t="n">
-        <v>32.54232679433629</v>
+        <v>13.41374271367259</v>
       </c>
       <c r="N14" t="n">
-        <v>36.85269536682714</v>
+        <v>151.1202003754557</v>
       </c>
       <c r="O14" t="n">
-        <v>35.59527452277267</v>
+        <v>77.20244860628856</v>
       </c>
       <c r="P14" t="n">
-        <v>60.39036642978302</v>
+        <v>29.12826819769942</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.55965123096255</v>
+        <v>52.02549460818992</v>
       </c>
       <c r="R14" t="n">
-        <v>32.10766653947729</v>
+        <v>42.07386862987097</v>
       </c>
       <c r="S14" t="n">
-        <v>28.5848915324538</v>
+        <v>81.60147398927623</v>
       </c>
       <c r="T14" t="n">
-        <v>228.1842141137039</v>
+        <v>41.13426347479257</v>
       </c>
       <c r="U14" t="n">
-        <v>43.75624343857015</v>
+        <v>87.58228261815808</v>
       </c>
       <c r="V14" t="n">
-        <v>117.4864484394522</v>
+        <v>44.26983428296329</v>
       </c>
       <c r="W14" t="n">
-        <v>43.21560436894565</v>
+        <v>81.10403903675028</v>
       </c>
       <c r="X14" t="n">
-        <v>57.76025311091954</v>
+        <v>61.03043058581029</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.13931784034704</v>
+        <v>60.38212044697475</v>
       </c>
       <c r="Z14" t="n">
-        <v>40.97934104813377</v>
+        <v>87.24858262528116</v>
       </c>
       <c r="AA14" t="n">
-        <v>56.90790221205839</v>
+        <v>108.2603022936359</v>
       </c>
       <c r="AB14" t="n">
-        <v>125.0991510023056</v>
+        <v>70.57385927141378</v>
       </c>
       <c r="AC14" t="n">
-        <v>121.6623517291781</v>
+        <v>81.20706802812302</v>
       </c>
       <c r="AD14" t="n">
-        <v>161.8724185955042</v>
+        <v>108.7727961106639</v>
       </c>
       <c r="AE14" t="n">
-        <v>99.08209445039878</v>
+        <v>143.417779165787</v>
       </c>
       <c r="AF14" t="n">
-        <v>182.1263834018234</v>
+        <v>141.8589290808547</v>
       </c>
       <c r="AG14" t="n">
-        <v>106.4083887889533</v>
+        <v>19.7949986865059</v>
       </c>
       <c r="AH14" t="n">
-        <v>96.10562439427498</v>
+        <v>170.874293346108</v>
       </c>
       <c r="AI14" t="n">
-        <v>116.5715717837276</v>
+        <v>91.50022486621206</v>
       </c>
       <c r="AJ14" t="n">
-        <v>133.6390342453311</v>
+        <v>61.60274235016744</v>
       </c>
       <c r="AK14" t="n">
-        <v>137.018950891803</v>
+        <v>48.58152338707962</v>
       </c>
       <c r="AL14" t="n">
-        <v>52.46439900053798</v>
+        <v>20.60075790205492</v>
       </c>
       <c r="AM14" t="n">
-        <v>70.95783311295872</v>
+        <v>51.66876978679856</v>
       </c>
       <c r="AN14" t="n">
-        <v>83.89055236079119</v>
+        <v>98.26170902827974</v>
       </c>
       <c r="AO14" t="n">
-        <v>41.49120279332142</v>
+        <v>38.11041081321621</v>
       </c>
       <c r="AP14" t="n">
-        <v>24.92050171340126</v>
+        <v>30.92901780520454</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20.87022736379158</v>
+        <v>21.12244186047907</v>
       </c>
       <c r="AR14" t="n">
-        <v>31.53014987783283</v>
+        <v>26.17315875401332</v>
       </c>
       <c r="AS14" t="n">
-        <v>21.77309719211262</v>
+        <v>16.77192356956326</v>
       </c>
       <c r="AT14" t="n">
-        <v>25.07287606211918</v>
+        <v>16.60601036245617</v>
       </c>
       <c r="AU14" t="n">
-        <v>19.39360797659237</v>
+        <v>17.23688210415897</v>
       </c>
       <c r="AV14" t="n">
-        <v>12.64759717741914</v>
+        <v>22.47724914738017</v>
       </c>
       <c r="AW14" t="n">
-        <v>16.06247987123915</v>
+        <v>23.68208506570484</v>
       </c>
       <c r="AX14" t="n">
-        <v>16.67679093570516</v>
+        <v>14.96780443582868</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>4.81762046457234</v>
+        <v>0.45258686449514</v>
       </c>
       <c r="D15" t="n">
-        <v>3.576122192636856</v>
+        <v>0.7467079291045273</v>
       </c>
       <c r="E15" t="n">
-        <v>1.239669512516948</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.048804656349631</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9.098615902473234</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9862313196883965</v>
+        <v>5.074556196531375</v>
       </c>
       <c r="I15" t="n">
-        <v>3.013040142012788</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.673823253305403</v>
+        <v>15.19907123049296</v>
       </c>
       <c r="K15" t="n">
-        <v>2.289508752835764</v>
+        <v>5.12225459450261</v>
       </c>
       <c r="L15" t="n">
-        <v>0.988318887167126</v>
+        <v>7.071192317858991</v>
       </c>
       <c r="M15" t="n">
-        <v>5.889065222417774</v>
+        <v>7.491919535716627</v>
       </c>
       <c r="N15" t="n">
-        <v>5.221646525893505</v>
+        <v>4.127677941106681</v>
       </c>
       <c r="O15" t="n">
-        <v>2.122563463616538</v>
+        <v>11.8456080686297</v>
       </c>
       <c r="P15" t="n">
-        <v>6.091306448363762</v>
+        <v>2.935681256248498</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.841879074457375</v>
+        <v>6.580941836840918</v>
       </c>
       <c r="R15" t="n">
-        <v>10.62419030283477</v>
+        <v>4.955427730752136</v>
       </c>
       <c r="S15" t="n">
-        <v>7.974817856106482</v>
+        <v>3.454592844113725</v>
       </c>
       <c r="T15" t="n">
-        <v>5.058907547047761</v>
+        <v>0.7301189642790784</v>
       </c>
       <c r="U15" t="n">
-        <v>6.106970228727867</v>
+        <v>5.119638057348739</v>
       </c>
       <c r="V15" t="n">
-        <v>2.367710913064271</v>
+        <v>2.840515227757508</v>
       </c>
       <c r="W15" t="n">
-        <v>2.822573786966509</v>
+        <v>3.916884491689574</v>
       </c>
       <c r="X15" t="n">
-        <v>8.017586270980489</v>
+        <v>4.88257148439858</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.786899337864009</v>
+        <v>2.776376779704118</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.6474777521787</v>
+        <v>5.29291035301309</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.125892971908651</v>
+        <v>3.100434170603101</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.622702480841432</v>
+        <v>4.12594077362879</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.100559530676255</v>
+        <v>1.929690171034529</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.401549692944104</v>
+        <v>4.913051933070868</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.744528827551919</v>
+        <v>5.46012056765713</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.155165079432436</v>
+        <v>2.734915855910449</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.256236387202419</v>
+        <v>3.241884271370313</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.188957279099963</v>
+        <v>2.112593225674836</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.365879536302019</v>
+        <v>4.709691961344687</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.278598299608176</v>
+        <v>6.071755910461441</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.467348043624108</v>
+        <v>3.524058568667419</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.173304915184338</v>
+        <v>5.900195887109067</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.330298581596693</v>
+        <v>5.902924859053501</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.746797498941345</v>
+        <v>4.105116991856995</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.049859069622967</v>
+        <v>3.056171940367987</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.205178510897452</v>
+        <v>4.246157357058042</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.650821863156626</v>
+        <v>1.047993742177259</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.240472946182293</v>
+        <v>5.330275908622889</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.812556595994505</v>
+        <v>1.52883115318639</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.459248553317729</v>
+        <v>10.807572617289</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.589473051485436</v>
+        <v>5.075555008100118</v>
       </c>
       <c r="AV15" t="n">
-        <v>7.432693205329604</v>
+        <v>2.941542700657808</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.2176064108671389</v>
+        <v>0.9172985069804755</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.109211790808013</v>
+        <v>1.620861107872592</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6.315617326768255</v>
+        <v>9.541713189457377</v>
       </c>
       <c r="D16" t="n">
-        <v>5.049237731045241</v>
+        <v>14.31246178399565</v>
       </c>
       <c r="E16" t="n">
-        <v>13.35111894865676</v>
+        <v>10.86362862613598</v>
       </c>
       <c r="F16" t="n">
-        <v>16.76157650689016</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.82475335834746</v>
+        <v>22.13062690572775</v>
       </c>
       <c r="H16" t="n">
-        <v>20.1400713747693</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.840253704492348</v>
+        <v>25.847105532743</v>
       </c>
       <c r="J16" t="n">
-        <v>5.241032311179372</v>
+        <v>25.48945055053708</v>
       </c>
       <c r="K16" t="n">
-        <v>50.70855395939227</v>
+        <v>38.59567320243188</v>
       </c>
       <c r="L16" t="n">
-        <v>51.03209832450498</v>
+        <v>100.8251713896478</v>
       </c>
       <c r="M16" t="n">
-        <v>14.32255558626516</v>
+        <v>5.788366134014582</v>
       </c>
       <c r="N16" t="n">
-        <v>96.24839608978805</v>
+        <v>62.81746961434493</v>
       </c>
       <c r="O16" t="n">
-        <v>70.64520610403082</v>
+        <v>213.0029896896699</v>
       </c>
       <c r="P16" t="n">
-        <v>57.24857337983946</v>
+        <v>288.7411038605049</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.79447737039509</v>
+        <v>33.09450840985811</v>
       </c>
       <c r="R16" t="n">
-        <v>71.17568438532967</v>
+        <v>64.88384320918195</v>
       </c>
       <c r="S16" t="n">
-        <v>46.57256359073546</v>
+        <v>37.85436618857928</v>
       </c>
       <c r="T16" t="n">
-        <v>37.74687328636548</v>
+        <v>52.74670160026773</v>
       </c>
       <c r="U16" t="n">
-        <v>97.43288611961954</v>
+        <v>45.2695071215275</v>
       </c>
       <c r="V16" t="n">
-        <v>121.9366562750959</v>
+        <v>22.51590658458459</v>
       </c>
       <c r="W16" t="n">
-        <v>149.1260197867444</v>
+        <v>45.67341530875844</v>
       </c>
       <c r="X16" t="n">
-        <v>110.9385255076352</v>
+        <v>84.90282209375947</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.69453162677446</v>
+        <v>70.67735902358216</v>
       </c>
       <c r="Z16" t="n">
-        <v>50.4923124027146</v>
+        <v>34.21774982844422</v>
       </c>
       <c r="AA16" t="n">
-        <v>40.15623862989529</v>
+        <v>71.11711967614556</v>
       </c>
       <c r="AB16" t="n">
-        <v>31.14944672708043</v>
+        <v>139.0822062690305</v>
       </c>
       <c r="AC16" t="n">
-        <v>30.59603190522972</v>
+        <v>94.65776018598928</v>
       </c>
       <c r="AD16" t="n">
-        <v>38.22820638143007</v>
+        <v>84.55649192125937</v>
       </c>
       <c r="AE16" t="n">
-        <v>56.01141883838024</v>
+        <v>36.94042859469582</v>
       </c>
       <c r="AF16" t="n">
-        <v>51.08687555975426</v>
+        <v>59.92537707029469</v>
       </c>
       <c r="AG16" t="n">
-        <v>22.06779788158013</v>
+        <v>30.90557899907057</v>
       </c>
       <c r="AH16" t="n">
-        <v>86.39746403125352</v>
+        <v>27.0963279666528</v>
       </c>
       <c r="AI16" t="n">
-        <v>33.77155798368228</v>
+        <v>7.490305219343345</v>
       </c>
       <c r="AJ16" t="n">
-        <v>56.59804492145692</v>
+        <v>24.03095289930252</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.23427561731189</v>
+        <v>35.21299333998519</v>
       </c>
       <c r="AL16" t="n">
-        <v>57.44111958895783</v>
+        <v>60.74460292593866</v>
       </c>
       <c r="AM16" t="n">
-        <v>14.56322245163723</v>
+        <v>14.62961022565039</v>
       </c>
       <c r="AN16" t="n">
-        <v>32.61182086889672</v>
+        <v>29.82498181051338</v>
       </c>
       <c r="AO16" t="n">
-        <v>14.02159602547345</v>
+        <v>18.77817599429433</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.11550509454811</v>
+        <v>13.93200727544547</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.928126731361274</v>
+        <v>12.18414710010506</v>
       </c>
       <c r="AR16" t="n">
-        <v>22.19881479732299</v>
+        <v>10.62220324867827</v>
       </c>
       <c r="AS16" t="n">
-        <v>17.22640120121968</v>
+        <v>10.44754937713321</v>
       </c>
       <c r="AT16" t="n">
-        <v>7.916759439417747</v>
+        <v>9.694679635616467</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.091297735076362</v>
+        <v>21.73712053866537</v>
       </c>
       <c r="AV16" t="n">
-        <v>6.199377727484871</v>
+        <v>35.53668170297331</v>
       </c>
       <c r="AW16" t="n">
-        <v>11.5845791223301</v>
+        <v>4.956063150187384</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.904696358497949</v>
+        <v>5.276157476765828</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>4.343458720377983</v>
+        <v>17.44043360043499</v>
       </c>
       <c r="D17" t="n">
-        <v>4.668806435194371</v>
+        <v>26.42976823514222</v>
       </c>
       <c r="E17" t="n">
-        <v>6.673148986928923</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>117.0004824849067</v>
+        <v>18.90246071750815</v>
       </c>
       <c r="G17" t="n">
-        <v>13.73108453302129</v>
+        <v>39.8387202125556</v>
       </c>
       <c r="H17" t="n">
-        <v>19.15853166597451</v>
+        <v>21.93941498161603</v>
       </c>
       <c r="I17" t="n">
-        <v>35.69623549285202</v>
+        <v>22.36654190010604</v>
       </c>
       <c r="J17" t="n">
-        <v>128.3026801586192</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>46.37900656971656</v>
+        <v>117.1423454164365</v>
       </c>
       <c r="L17" t="n">
-        <v>39.68486390759957</v>
+        <v>47.50777274594923</v>
       </c>
       <c r="M17" t="n">
-        <v>40.09588681043959</v>
+        <v>76.43336778919866</v>
       </c>
       <c r="N17" t="n">
-        <v>28.1478976082023</v>
+        <v>118.4992539156294</v>
       </c>
       <c r="O17" t="n">
-        <v>8.901506188159129</v>
+        <v>63.15228330260219</v>
       </c>
       <c r="P17" t="n">
-        <v>35.00739063044006</v>
+        <v>16.0740743819216</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.45968073177244</v>
+        <v>61.99899834609258</v>
       </c>
       <c r="R17" t="n">
-        <v>19.30837357444201</v>
+        <v>62.27680326748282</v>
       </c>
       <c r="S17" t="n">
-        <v>22.23116546865514</v>
+        <v>26.09649701424911</v>
       </c>
       <c r="T17" t="n">
-        <v>28.35963487623894</v>
+        <v>42.23838494415934</v>
       </c>
       <c r="U17" t="n">
-        <v>61.31127517513791</v>
+        <v>49.78441289925032</v>
       </c>
       <c r="V17" t="n">
-        <v>10.49945900215417</v>
+        <v>87.19884639836083</v>
       </c>
       <c r="W17" t="n">
-        <v>35.03623027594252</v>
+        <v>50.07326263661442</v>
       </c>
       <c r="X17" t="n">
-        <v>30.30973823179036</v>
+        <v>3.926223268932942</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.10891434033809</v>
+        <v>60.70756553685088</v>
       </c>
       <c r="Z17" t="n">
-        <v>90.64071766646384</v>
+        <v>24.71225095630584</v>
       </c>
       <c r="AA17" t="n">
-        <v>49.93345352698586</v>
+        <v>21.17890599035911</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.43441100133116</v>
+        <v>77.25545154686395</v>
       </c>
       <c r="AC17" t="n">
-        <v>18.56799150644297</v>
+        <v>100.8120778392842</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.656643588477099</v>
+        <v>1.063791943325625</v>
       </c>
       <c r="AE17" t="n">
-        <v>26.75961553800128</v>
+        <v>34.64605047630987</v>
       </c>
       <c r="AF17" t="n">
-        <v>58.3554650947231</v>
+        <v>113.1006986470752</v>
       </c>
       <c r="AG17" t="n">
-        <v>34.33378771808216</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>23.89636446970112</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>27.85436594214822</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.92665022907107</v>
+        <v>24.1668401840446</v>
       </c>
       <c r="AK17" t="n">
-        <v>32.17799297841965</v>
+        <v>25.98526865129744</v>
       </c>
       <c r="AL17" t="n">
-        <v>15.82719263492872</v>
+        <v>33.30898184600857</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.203101885396541</v>
+        <v>4.979880631826987</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.94882351035804</v>
+        <v>14.04865509050459</v>
       </c>
       <c r="AO17" t="n">
-        <v>23.647247311499</v>
+        <v>31.03054912671398</v>
       </c>
       <c r="AP17" t="n">
-        <v>22.13203745204767</v>
+        <v>28.49154075666976</v>
       </c>
       <c r="AQ17" t="n">
-        <v>53.40556173447565</v>
+        <v>26.06656468495893</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.461296927228585</v>
+        <v>26.7561991849462</v>
       </c>
       <c r="AS17" t="n">
-        <v>11.80256042613653</v>
+        <v>20.96505476671971</v>
       </c>
       <c r="AT17" t="n">
-        <v>16.69250129256088</v>
+        <v>44.63609969023264</v>
       </c>
       <c r="AU17" t="n">
-        <v>41.07997038470191</v>
+        <v>30.41713770318067</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.153046766214847</v>
+        <v>18.7792929601129</v>
       </c>
       <c r="AW17" t="n">
-        <v>21.19036465423457</v>
+        <v>34.5485117008384</v>
       </c>
       <c r="AX17" t="n">
-        <v>11.75712344904835</v>
+        <v>45.68690732868426</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4.786112278490617</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.138729788600855</v>
+        <v>15.94342029425538</v>
       </c>
       <c r="E18" t="n">
-        <v>34.7339802662612</v>
+        <v>8.320753202194169</v>
       </c>
       <c r="F18" t="n">
-        <v>1.413223383056954</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.977502288757039</v>
+        <v>8.496157713754304</v>
       </c>
       <c r="H18" t="n">
-        <v>17.07021883064036</v>
+        <v>5.026067459483992</v>
       </c>
       <c r="I18" t="n">
-        <v>2.943387252545901</v>
+        <v>39.86437687470142</v>
       </c>
       <c r="J18" t="n">
-        <v>9.715187664328147</v>
+        <v>5.970079871006426</v>
       </c>
       <c r="K18" t="n">
-        <v>11.52586342987597</v>
+        <v>12.68688721771245</v>
       </c>
       <c r="L18" t="n">
-        <v>8.210600843214023</v>
+        <v>22.10844248638978</v>
       </c>
       <c r="M18" t="n">
-        <v>24.78566464109922</v>
+        <v>52.86235466584601</v>
       </c>
       <c r="N18" t="n">
-        <v>28.42281388776815</v>
+        <v>61.45597582631945</v>
       </c>
       <c r="O18" t="n">
-        <v>26.28708095565254</v>
+        <v>43.51279120185495</v>
       </c>
       <c r="P18" t="n">
-        <v>48.69466092795874</v>
+        <v>24.58357349087608</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.449637976675254</v>
+        <v>18.01688579725111</v>
       </c>
       <c r="R18" t="n">
-        <v>6.257869187469867</v>
+        <v>6.336992111257633</v>
       </c>
       <c r="S18" t="n">
-        <v>40.55271202845706</v>
+        <v>13.25087836943103</v>
       </c>
       <c r="T18" t="n">
-        <v>18.65459274566317</v>
+        <v>1.112723679032808</v>
       </c>
       <c r="U18" t="n">
-        <v>23.71159073305491</v>
+        <v>48.77433088117489</v>
       </c>
       <c r="V18" t="n">
-        <v>12.15181931531701</v>
+        <v>44.33531815237026</v>
       </c>
       <c r="W18" t="n">
-        <v>28.68468488474885</v>
+        <v>40.19406254535993</v>
       </c>
       <c r="X18" t="n">
-        <v>22.15665825925082</v>
+        <v>12.48031255437298</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.98036482372676</v>
+        <v>19.18365990535895</v>
       </c>
       <c r="Z18" t="n">
-        <v>25.37350762524273</v>
+        <v>16.02463490486964</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.72757547266945</v>
+        <v>10.08031659338825</v>
       </c>
       <c r="AB18" t="n">
-        <v>29.24490648731695</v>
+        <v>13.07413576111654</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.11743980510622</v>
+        <v>13.93233497868187</v>
       </c>
       <c r="AD18" t="n">
-        <v>22.15362018725633</v>
+        <v>15.1449218560102</v>
       </c>
       <c r="AE18" t="n">
-        <v>7.363929386726127</v>
+        <v>11.52775911232999</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.03979328505507</v>
+        <v>26.36047936401002</v>
       </c>
       <c r="AG18" t="n">
-        <v>18.67723103013735</v>
+        <v>14.1793529291165</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.989343337330974</v>
+        <v>5.138706216213351</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.313509254639741</v>
+        <v>14.84948051175015</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.654683580862506</v>
+        <v>8.598704178336007</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.448173187350801</v>
+        <v>6.010549903196946</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.90379694259403</v>
+        <v>3.018763345780487</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.740114544562226</v>
+        <v>2.286570008162904</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.486611645662504</v>
+        <v>4.344759461423906</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.822894135219933</v>
+        <v>6.346759904527945</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.664069119440267</v>
+        <v>4.245449963996323</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.657491573896454</v>
+        <v>3.11761633447476</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.969040071019334</v>
+        <v>1.320878409926759</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.217179676337915</v>
+        <v>3.84256538343772</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.895370165043231</v>
+        <v>4.145754472940487</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.840585122444762</v>
+        <v>1.775740471848095</v>
       </c>
       <c r="AV18" t="n">
-        <v>8.566760023649888</v>
+        <v>4.875490577380162</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.348491841582795</v>
+        <v>1.675445948964622</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.346814155850268</v>
+        <v>2.438145089884734</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>8.482265160218347</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.496907917278813</v>
+        <v>10.6182621016328</v>
       </c>
       <c r="E19" t="n">
-        <v>14.05676945293301</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.886451844179325</v>
+        <v>2.704637539376295</v>
       </c>
       <c r="G19" t="n">
-        <v>22.50472269911798</v>
+        <v>30.50310554997317</v>
       </c>
       <c r="H19" t="n">
-        <v>12.15470980440884</v>
+        <v>4.524733801221507</v>
       </c>
       <c r="I19" t="n">
-        <v>3.586048018996424</v>
+        <v>22.58879733786462</v>
       </c>
       <c r="J19" t="n">
-        <v>8.09190442396253</v>
+        <v>46.26788915890035</v>
       </c>
       <c r="K19" t="n">
-        <v>11.12628508766817</v>
+        <v>19.70328040116829</v>
       </c>
       <c r="L19" t="n">
-        <v>83.60364453148615</v>
+        <v>59.68520754569118</v>
       </c>
       <c r="M19" t="n">
-        <v>92.56776543120959</v>
+        <v>35.57671351940256</v>
       </c>
       <c r="N19" t="n">
-        <v>38.6575754809827</v>
+        <v>9.66119097774809</v>
       </c>
       <c r="O19" t="n">
-        <v>18.93149872775413</v>
+        <v>47.32384546430725</v>
       </c>
       <c r="P19" t="n">
-        <v>19.52689681206592</v>
+        <v>31.45786290531091</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.16332660448568</v>
+        <v>23.4574096270797</v>
       </c>
       <c r="R19" t="n">
-        <v>6.980241962181767</v>
+        <v>35.20872870010157</v>
       </c>
       <c r="S19" t="n">
-        <v>61.99229710519622</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>88.68032693696885</v>
+        <v>28.25117250859557</v>
       </c>
       <c r="U19" t="n">
-        <v>51.48068614464934</v>
+        <v>13.544142614744</v>
       </c>
       <c r="V19" t="n">
-        <v>7.438709882190701</v>
+        <v>10.39653400583062</v>
       </c>
       <c r="W19" t="n">
-        <v>42.79373876410921</v>
+        <v>14.12250017046714</v>
       </c>
       <c r="X19" t="n">
-        <v>39.29216627930168</v>
+        <v>12.48723284712347</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.17019609144294</v>
+        <v>16.31209166412482</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.587566429011712</v>
+        <v>34.06945189028558</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.958655687434939</v>
+        <v>20.90540167785866</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.86756239520939</v>
+        <v>13.59194575768008</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.145751226546954</v>
+        <v>18.45405864453117</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.842156546594238</v>
+        <v>6.327070937772056</v>
       </c>
       <c r="AE19" t="n">
-        <v>13.58309831024606</v>
+        <v>8.072630653022905</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.459806641607064</v>
+        <v>0.9756125068844401</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.684952928579133</v>
+        <v>7.0509237083981</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.313778143848287</v>
+        <v>1.113760931470399</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.479125784909003</v>
+        <v>6.275365620588165</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6.870351804384798</v>
+        <v>1.484201579196677</v>
       </c>
       <c r="AK19" t="n">
-        <v>8.76996737553333</v>
+        <v>19.64736126204054</v>
       </c>
       <c r="AL19" t="n">
-        <v>6.338898414422734</v>
+        <v>11.60978664189284</v>
       </c>
       <c r="AM19" t="n">
-        <v>14.41665446038807</v>
+        <v>18.64189035022281</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.9919217390418861</v>
+        <v>3.904118581014981</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.118395740269128</v>
+        <v>1.856762403466573</v>
       </c>
       <c r="AP19" t="n">
-        <v>9.466577036323946</v>
+        <v>6.490934473219188</v>
       </c>
       <c r="AQ19" t="n">
-        <v>17.49058089828847</v>
+        <v>9.137316778179038</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.290054923092193</v>
+        <v>8.046900950041625</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.144417444055759</v>
+        <v>1.262386165506452</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.448374048476296</v>
+        <v>16.3362196055111</v>
       </c>
       <c r="AU19" t="n">
-        <v>19.38152441160276</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.345538118204078</v>
+        <v>5.853704924778565</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.290438856241972</v>
+        <v>9.612158604315567</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.174353266878944</v>
+        <v>7.331059455675268</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>7.180242746295158</v>
+        <v>18.64905347580729</v>
       </c>
       <c r="D20" t="n">
-        <v>15.28206413225528</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>24.79362416806139</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>45.34243915359941</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>18.02638049234908</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22.14356863499065</v>
+        <v>29.5083144471838</v>
       </c>
       <c r="I20" t="n">
-        <v>38.97038858138021</v>
+        <v>26.4440477142228</v>
       </c>
       <c r="J20" t="n">
-        <v>59.97008648541168</v>
+        <v>80.40437660117715</v>
       </c>
       <c r="K20" t="n">
-        <v>32.19039961620813</v>
+        <v>23.00952038379222</v>
       </c>
       <c r="L20" t="n">
-        <v>26.06804531278974</v>
+        <v>28.693629915434</v>
       </c>
       <c r="M20" t="n">
-        <v>55.66244055828217</v>
+        <v>57.16112718291768</v>
       </c>
       <c r="N20" t="n">
-        <v>86.58892395053033</v>
+        <v>35.55941946424422</v>
       </c>
       <c r="O20" t="n">
-        <v>159.7171199026581</v>
+        <v>88.86908012240198</v>
       </c>
       <c r="P20" t="n">
-        <v>120.5124990843887</v>
+        <v>59.46543467444414</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.30574657510275</v>
+        <v>77.43793962392589</v>
       </c>
       <c r="R20" t="n">
-        <v>52.25469567487994</v>
+        <v>86.99687911119678</v>
       </c>
       <c r="S20" t="n">
-        <v>86.86156770413081</v>
+        <v>132.1408894080039</v>
       </c>
       <c r="T20" t="n">
-        <v>78.38739308885977</v>
+        <v>43.70909092421988</v>
       </c>
       <c r="U20" t="n">
-        <v>77.24338020882591</v>
+        <v>111.4444188871715</v>
       </c>
       <c r="V20" t="n">
-        <v>17.08129434866055</v>
+        <v>55.93719870358002</v>
       </c>
       <c r="W20" t="n">
-        <v>19.10271270462145</v>
+        <v>45.01628380939574</v>
       </c>
       <c r="X20" t="n">
-        <v>34.20478372118277</v>
+        <v>40.36610587705929</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.01031886558179</v>
+        <v>35.53811309466975</v>
       </c>
       <c r="Z20" t="n">
-        <v>65.78147439652393</v>
+        <v>183.2096708351019</v>
       </c>
       <c r="AA20" t="n">
-        <v>63.80993148716022</v>
+        <v>61.03343503346835</v>
       </c>
       <c r="AB20" t="n">
-        <v>54.15862515208545</v>
+        <v>82.87354734882469</v>
       </c>
       <c r="AC20" t="n">
-        <v>96.31837194132842</v>
+        <v>163.4075102037859</v>
       </c>
       <c r="AD20" t="n">
-        <v>79.00617827812071</v>
+        <v>176.1126425005668</v>
       </c>
       <c r="AE20" t="n">
-        <v>71.49893967028163</v>
+        <v>103.1131008486439</v>
       </c>
       <c r="AF20" t="n">
-        <v>108.8866263957971</v>
+        <v>115.1487385271942</v>
       </c>
       <c r="AG20" t="n">
-        <v>156.7442964975484</v>
+        <v>20.36164071711606</v>
       </c>
       <c r="AH20" t="n">
-        <v>71.66639506644962</v>
+        <v>68.08069169666629</v>
       </c>
       <c r="AI20" t="n">
-        <v>123.9344267242744</v>
+        <v>70.80621389175778</v>
       </c>
       <c r="AJ20" t="n">
-        <v>110.6747621455357</v>
+        <v>74.20706287870723</v>
       </c>
       <c r="AK20" t="n">
-        <v>32.7518682323788</v>
+        <v>39.76193200680712</v>
       </c>
       <c r="AL20" t="n">
-        <v>56.36903858899539</v>
+        <v>85.37957770182187</v>
       </c>
       <c r="AM20" t="n">
-        <v>170.1857805815055</v>
+        <v>12.40848258416569</v>
       </c>
       <c r="AN20" t="n">
-        <v>31.97734963664578</v>
+        <v>21.17456697598769</v>
       </c>
       <c r="AO20" t="n">
-        <v>32.28645304536271</v>
+        <v>36.62006657312638</v>
       </c>
       <c r="AP20" t="n">
-        <v>32.97073208972901</v>
+        <v>24.28336016653281</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26.31899641390013</v>
+        <v>24.34572342003143</v>
       </c>
       <c r="AR20" t="n">
-        <v>15.95640577904013</v>
+        <v>14.85229688649502</v>
       </c>
       <c r="AS20" t="n">
-        <v>15.30618173612805</v>
+        <v>17.99049138904158</v>
       </c>
       <c r="AT20" t="n">
-        <v>37.29601466213342</v>
+        <v>23.62888502470922</v>
       </c>
       <c r="AU20" t="n">
-        <v>32.34414943287428</v>
+        <v>29.32685267086236</v>
       </c>
       <c r="AV20" t="n">
-        <v>23.1240838506736</v>
+        <v>12.11987433319705</v>
       </c>
       <c r="AW20" t="n">
-        <v>13.54683114695101</v>
+        <v>22.64283555911494</v>
       </c>
       <c r="AX20" t="n">
-        <v>25.04581685034076</v>
+        <v>13.39300106947817</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>7.222431598940708</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4819495626316699</v>
+        <v>5.225240757016095</v>
       </c>
       <c r="E21" t="n">
-        <v>14.39834394596653</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.051710897055044</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05078886370392498</v>
+        <v>2.848896986255563</v>
       </c>
       <c r="H21" t="n">
-        <v>4.431716868524062</v>
+        <v>7.131504341973693</v>
       </c>
       <c r="I21" t="n">
-        <v>1.191051404819335</v>
+        <v>5.478552303909096</v>
       </c>
       <c r="J21" t="n">
-        <v>1.667188727371986</v>
+        <v>0.2780792940223289</v>
       </c>
       <c r="K21" t="n">
-        <v>2.45068066756188</v>
+        <v>4.306448344051349</v>
       </c>
       <c r="L21" t="n">
-        <v>2.558577681114502</v>
+        <v>5.793138868768791</v>
       </c>
       <c r="M21" t="n">
-        <v>6.747090017590595</v>
+        <v>9.10235645483839</v>
       </c>
       <c r="N21" t="n">
-        <v>4.46504235056057</v>
+        <v>3.616046549728467</v>
       </c>
       <c r="O21" t="n">
-        <v>3.444165106436984</v>
+        <v>0.5448703718915626</v>
       </c>
       <c r="P21" t="n">
-        <v>1.425451306831502</v>
+        <v>3.715832309042212</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.636603695037504</v>
+        <v>18.82299429604058</v>
       </c>
       <c r="R21" t="n">
-        <v>3.653490449105069</v>
+        <v>2.238078966786023</v>
       </c>
       <c r="S21" t="n">
-        <v>1.546240385771993</v>
+        <v>7.957922727957765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.086206255518077</v>
+        <v>2.749066321749289</v>
       </c>
       <c r="U21" t="n">
-        <v>4.243974439731399</v>
+        <v>6.114960524610116</v>
       </c>
       <c r="V21" t="n">
-        <v>8.394561335972581</v>
+        <v>2.844858977705574</v>
       </c>
       <c r="W21" t="n">
-        <v>3.017356714324259</v>
+        <v>2.812511673236479</v>
       </c>
       <c r="X21" t="n">
-        <v>3.786267742097919</v>
+        <v>3.600456210500109</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.788277291000449</v>
+        <v>2.065065989183158</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.001763773951994</v>
+        <v>5.254963553285426</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.457635014505802</v>
+        <v>1.94281492280851</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.11137315662578</v>
+        <v>2.36655571737281</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.123591295143864</v>
+        <v>5.595577366879218</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.739522402764235</v>
+        <v>5.217402370722571</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.284783787325353</v>
+        <v>6.139193276574068</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.144722560080502</v>
+        <v>7.565549066803139</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.731534055155338</v>
+        <v>8.608103552158543</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.924368601578638</v>
+        <v>2.80506091050382</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.326865378671154</v>
+        <v>5.04586000416881</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.72442003658695</v>
+        <v>6.22625166990988</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.933773062240158</v>
+        <v>4.618848747302603</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.710748666703542</v>
+        <v>5.933147198536918</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.318207518688748</v>
+        <v>11.54566230649927</v>
       </c>
       <c r="AN21" t="n">
-        <v>11.59636003247607</v>
+        <v>8.663498172787461</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.45702315750865</v>
+        <v>4.066822006098313</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.695713303773745</v>
+        <v>4.627101831138335</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.986217706541443</v>
+        <v>4.513402878770203</v>
       </c>
       <c r="AR21" t="n">
-        <v>6.539006054097156</v>
+        <v>5.46327524160462</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.10017525335445</v>
+        <v>2.241046654823382</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.203923462073726</v>
+        <v>2.974019037881035</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.596413579592308</v>
+        <v>7.090640244260065</v>
       </c>
       <c r="AV21" t="n">
-        <v>9.073515666850291</v>
+        <v>3.619529380036476</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.5396248169345204</v>
+        <v>1.544427739917461</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.473575387411039</v>
+        <v>3.830212781210637</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.708840231348193</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>10.13002181646496</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>14.49884408387286</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>17.85622547865953</v>
+        <v>7.39554742806345</v>
       </c>
       <c r="G22" t="n">
-        <v>26.0488388227574</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>56.576983391941</v>
+        <v>17.76307901807696</v>
       </c>
       <c r="I22" t="n">
-        <v>16.42901806022578</v>
+        <v>54.1175979046472</v>
       </c>
       <c r="J22" t="n">
-        <v>26.17068644807724</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>145.6520672049043</v>
+        <v>45.41474718858526</v>
       </c>
       <c r="L22" t="n">
-        <v>102.718095694308</v>
+        <v>122.3343088171433</v>
       </c>
       <c r="M22" t="n">
-        <v>111.6292628450884</v>
+        <v>110.9282958033038</v>
       </c>
       <c r="N22" t="n">
-        <v>27.32648112097495</v>
+        <v>26.6484025546572</v>
       </c>
       <c r="O22" t="n">
-        <v>29.2815807207222</v>
+        <v>45.92869628932716</v>
       </c>
       <c r="P22" t="n">
-        <v>20.95352252152916</v>
+        <v>102.7646641418784</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.01503731736526</v>
+        <v>102.9003071209664</v>
       </c>
       <c r="R22" t="n">
-        <v>23.00299368613518</v>
+        <v>66.97429283123307</v>
       </c>
       <c r="S22" t="n">
-        <v>30.72689252253289</v>
+        <v>51.05665943498033</v>
       </c>
       <c r="T22" t="n">
-        <v>84.85217654711947</v>
+        <v>33.49928340062274</v>
       </c>
       <c r="U22" t="n">
-        <v>83.19987399380055</v>
+        <v>57.8109032747353</v>
       </c>
       <c r="V22" t="n">
-        <v>45.85169507773131</v>
+        <v>34.33931519108822</v>
       </c>
       <c r="W22" t="n">
-        <v>42.69440761361683</v>
+        <v>25.39676484116661</v>
       </c>
       <c r="X22" t="n">
-        <v>36.21262746909391</v>
+        <v>74.50390912026188</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6490443699208</v>
+        <v>123.8820856125484</v>
       </c>
       <c r="Z22" t="n">
-        <v>85.54751329725161</v>
+        <v>48.46451896088353</v>
       </c>
       <c r="AA22" t="n">
-        <v>70.97378703350032</v>
+        <v>69.70816477930001</v>
       </c>
       <c r="AB22" t="n">
-        <v>55.99207958886286</v>
+        <v>107.6262809171572</v>
       </c>
       <c r="AC22" t="n">
-        <v>49.48226870512777</v>
+        <v>67.44758864509666</v>
       </c>
       <c r="AD22" t="n">
-        <v>93.24638690813262</v>
+        <v>99.04319095066629</v>
       </c>
       <c r="AE22" t="n">
-        <v>85.54776593247546</v>
+        <v>61.09479379702309</v>
       </c>
       <c r="AF22" t="n">
-        <v>62.88840080005723</v>
+        <v>44.91303394166874</v>
       </c>
       <c r="AG22" t="n">
-        <v>101.6075333130287</v>
+        <v>75.02093142949548</v>
       </c>
       <c r="AH22" t="n">
-        <v>83.09751159083579</v>
+        <v>30.91647223567575</v>
       </c>
       <c r="AI22" t="n">
-        <v>56.01484149012568</v>
+        <v>112.5243682233959</v>
       </c>
       <c r="AJ22" t="n">
-        <v>43.04558290880356</v>
+        <v>22.43109067946585</v>
       </c>
       <c r="AK22" t="n">
-        <v>45.06485199508582</v>
+        <v>34.59114889755132</v>
       </c>
       <c r="AL22" t="n">
-        <v>42.6319029962557</v>
+        <v>19.66751662887539</v>
       </c>
       <c r="AM22" t="n">
-        <v>19.12128849627225</v>
+        <v>15.43362425061809</v>
       </c>
       <c r="AN22" t="n">
-        <v>29.89506132400117</v>
+        <v>12.68329524578025</v>
       </c>
       <c r="AO22" t="n">
-        <v>18.61635104618013</v>
+        <v>14.6221166538828</v>
       </c>
       <c r="AP22" t="n">
-        <v>16.36672858209986</v>
+        <v>11.18444392549577</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27.56490376941569</v>
+        <v>32.23730497311461</v>
       </c>
       <c r="AR22" t="n">
-        <v>15.81107675241997</v>
+        <v>8.563774333050272</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.732621304086848</v>
+        <v>12.14030782071399</v>
       </c>
       <c r="AT22" t="n">
-        <v>14.00152168734664</v>
+        <v>11.5719935477472</v>
       </c>
       <c r="AU22" t="n">
-        <v>10.87447907801992</v>
+        <v>24.81393699500802</v>
       </c>
       <c r="AV22" t="n">
-        <v>10.78381491592625</v>
+        <v>11.30702087815999</v>
       </c>
       <c r="AW22" t="n">
-        <v>14.26312091657283</v>
+        <v>15.37746846155461</v>
       </c>
       <c r="AX22" t="n">
-        <v>7.170867330694607</v>
+        <v>15.26828631706817</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>10.0008742549797</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9.10085814611201</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7.835266781979698</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.063926555825628</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>11.7596025698105</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>24.09578435261412</v>
+        <v>8.557147245104813</v>
       </c>
       <c r="I23" t="n">
-        <v>7.627535304425105</v>
+        <v>55.35098341265127</v>
       </c>
       <c r="J23" t="n">
-        <v>2.568199020985973</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.317607936752935</v>
+        <v>23.46631171041144</v>
       </c>
       <c r="L23" t="n">
-        <v>173.3091839294615</v>
+        <v>13.09539507142583</v>
       </c>
       <c r="M23" t="n">
-        <v>39.98780962990627</v>
+        <v>50.2577769553063</v>
       </c>
       <c r="N23" t="n">
-        <v>21.67940228109978</v>
+        <v>0.6540146166099561</v>
       </c>
       <c r="O23" t="n">
-        <v>84.24898328727633</v>
+        <v>80.67788808140929</v>
       </c>
       <c r="P23" t="n">
-        <v>133.0597141978217</v>
+        <v>15.2969974674211</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.79077147583452</v>
+        <v>169.1428189705988</v>
       </c>
       <c r="R23" t="n">
-        <v>51.32879254012298</v>
+        <v>4.585412139223976</v>
       </c>
       <c r="S23" t="n">
-        <v>18.57708881521676</v>
+        <v>45.24804556197319</v>
       </c>
       <c r="T23" t="n">
-        <v>118.9655841308113</v>
+        <v>11.1307511029059</v>
       </c>
       <c r="U23" t="n">
-        <v>27.43367003806782</v>
+        <v>31.18342414362411</v>
       </c>
       <c r="V23" t="n">
-        <v>21.51506978175389</v>
+        <v>54.05024566522408</v>
       </c>
       <c r="W23" t="n">
-        <v>32.84386861854372</v>
+        <v>59.1273791899162</v>
       </c>
       <c r="X23" t="n">
-        <v>43.94313148247596</v>
+        <v>35.74324011120961</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.20829879060136</v>
+        <v>25.81737705387604</v>
       </c>
       <c r="Z23" t="n">
-        <v>60.20656959546485</v>
+        <v>35.40463958807271</v>
       </c>
       <c r="AA23" t="n">
-        <v>38.3410735443353</v>
+        <v>9.785609381846175</v>
       </c>
       <c r="AB23" t="n">
-        <v>25.53056194336937</v>
+        <v>29.01986076475327</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.80363697365974</v>
+        <v>23.66401640075513</v>
       </c>
       <c r="AD23" t="n">
-        <v>24.15655176260568</v>
+        <v>44.77579799961082</v>
       </c>
       <c r="AE23" t="n">
-        <v>48.60495772601763</v>
+        <v>27.27863638483159</v>
       </c>
       <c r="AF23" t="n">
-        <v>51.94087056486396</v>
+        <v>63.10253077950387</v>
       </c>
       <c r="AG23" t="n">
-        <v>30.72072085752191</v>
+        <v>35.60069426015698</v>
       </c>
       <c r="AH23" t="n">
-        <v>39.44243983047644</v>
+        <v>19.3460025595457</v>
       </c>
       <c r="AI23" t="n">
-        <v>25.62145000699742</v>
+        <v>31.04527700609435</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.531841678273784</v>
+        <v>32.91866343211318</v>
       </c>
       <c r="AK23" t="n">
-        <v>50.5827415507685</v>
+        <v>26.81619147499253</v>
       </c>
       <c r="AL23" t="n">
-        <v>16.5233508948675</v>
+        <v>6.726258184597464</v>
       </c>
       <c r="AM23" t="n">
-        <v>9.877921638664656</v>
+        <v>4.315922160422534</v>
       </c>
       <c r="AN23" t="n">
-        <v>124.0132457039003</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>20.40093198814433</v>
+        <v>11.51056040975649</v>
       </c>
       <c r="AP23" t="n">
-        <v>8.273522001489672</v>
+        <v>15.92716485972078</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10.50753009442778</v>
+        <v>20.80894298875898</v>
       </c>
       <c r="AR23" t="n">
-        <v>14.27345009178848</v>
+        <v>37.1792361099375</v>
       </c>
       <c r="AS23" t="n">
-        <v>54.24028947489715</v>
+        <v>22.09901183152161</v>
       </c>
       <c r="AT23" t="n">
-        <v>31.20718599067215</v>
+        <v>24.60099145640845</v>
       </c>
       <c r="AU23" t="n">
-        <v>63.08936594660667</v>
+        <v>37.5301649834132</v>
       </c>
       <c r="AV23" t="n">
-        <v>9.362614144521809</v>
+        <v>25.26031817239736</v>
       </c>
       <c r="AW23" t="n">
-        <v>15.86797744289744</v>
+        <v>29.00273373913097</v>
       </c>
       <c r="AX23" t="n">
-        <v>17.72141163850924</v>
+        <v>25.06853834215815</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>7.159686740496081</v>
+        <v>4.696535212698323</v>
       </c>
       <c r="D24" t="n">
-        <v>4.871503906034973</v>
+        <v>5.197197687609778</v>
       </c>
       <c r="E24" t="n">
-        <v>4.709144885966746</v>
+        <v>3.079152288090762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9301359107553107</v>
+        <v>2.991374953127538</v>
       </c>
       <c r="G24" t="n">
-        <v>9.087784953780627</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.409631040868009</v>
+        <v>8.909476382381683</v>
       </c>
       <c r="I24" t="n">
-        <v>13.12654129151831</v>
+        <v>20.01941999849248</v>
       </c>
       <c r="J24" t="n">
-        <v>19.03417945773012</v>
+        <v>2.292433702115362</v>
       </c>
       <c r="K24" t="n">
-        <v>20.81467375685338</v>
+        <v>17.76221340572294</v>
       </c>
       <c r="L24" t="n">
-        <v>6.781430624023473</v>
+        <v>2.328216364282056</v>
       </c>
       <c r="M24" t="n">
-        <v>30.82572482484724</v>
+        <v>12.98345949930095</v>
       </c>
       <c r="N24" t="n">
-        <v>8.681186834698135</v>
+        <v>23.19717549839235</v>
       </c>
       <c r="O24" t="n">
-        <v>72.67007064194924</v>
+        <v>14.88884845476129</v>
       </c>
       <c r="P24" t="n">
-        <v>39.9080207769745</v>
+        <v>41.76339547309983</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.99354088880637</v>
+        <v>10.54140415257792</v>
       </c>
       <c r="R24" t="n">
-        <v>13.12926765663252</v>
+        <v>40.22151177816028</v>
       </c>
       <c r="S24" t="n">
-        <v>29.13209918639888</v>
+        <v>16.45310763184046</v>
       </c>
       <c r="T24" t="n">
-        <v>23.06414176360906</v>
+        <v>11.63353454382592</v>
       </c>
       <c r="U24" t="n">
-        <v>25.60083602006148</v>
+        <v>36.97510451022923</v>
       </c>
       <c r="V24" t="n">
-        <v>23.84878072570356</v>
+        <v>15.30374321023061</v>
       </c>
       <c r="W24" t="n">
-        <v>19.56463134056909</v>
+        <v>15.27446918152686</v>
       </c>
       <c r="X24" t="n">
-        <v>38.09241455569865</v>
+        <v>5.022403676464416</v>
       </c>
       <c r="Y24" t="n">
-        <v>46.81719159878433</v>
+        <v>20.16228915414166</v>
       </c>
       <c r="Z24" t="n">
-        <v>27.43979501287198</v>
+        <v>17.34601283679241</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.37448494646075</v>
+        <v>12.27128384846997</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.55036644288684</v>
+        <v>21.26535693788787</v>
       </c>
       <c r="AC24" t="n">
-        <v>36.44504531164451</v>
+        <v>15.55327464131189</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.437574706799957</v>
+        <v>10.82245283992037</v>
       </c>
       <c r="AE24" t="n">
-        <v>18.57824150408954</v>
+        <v>9.161461946237818</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.84397887019616</v>
+        <v>13.36258602563074</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.81668744251019</v>
+        <v>6.877903383810894</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.581770998818414</v>
+        <v>19.99659470962905</v>
       </c>
       <c r="AI24" t="n">
-        <v>14.98151267845635</v>
+        <v>13.65986194544575</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.92130796186068</v>
+        <v>16.91748538667296</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.345302255337371</v>
+        <v>0.1803859849998954</v>
       </c>
       <c r="AL24" t="n">
-        <v>6.232086522602304</v>
+        <v>6.393701697375247</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.135458971293821</v>
+        <v>4.703262234022435</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.567629490130994</v>
+        <v>3.348325199994423</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.15384228604908</v>
+        <v>1.239553079031857</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.494049793968608</v>
+        <v>2.310742521725673</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.786353293830371</v>
+        <v>2.984258959373079</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.551543886053688</v>
+        <v>2.106875275313748</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.372313606790538</v>
+        <v>7.030503827352378</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.895591196204059</v>
+        <v>3.785830895528811</v>
       </c>
       <c r="AU24" t="n">
-        <v>4.158790201529298</v>
+        <v>0.5225878765568728</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.381632337634985</v>
+        <v>5.21735499570107</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.517799542062546</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.133214578734793</v>
+        <v>5.375837144257236</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.820258240477234</v>
+        <v>1.514008097713594</v>
       </c>
       <c r="D25" t="n">
-        <v>6.043212978874665</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.472857713381634</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.529274208891475</v>
+        <v>11.73830472457633</v>
       </c>
       <c r="G25" t="n">
-        <v>14.7216436918569</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.59951284834753</v>
+        <v>6.608818183633133</v>
       </c>
       <c r="I25" t="n">
-        <v>13.70006916155936</v>
+        <v>38.41601748501289</v>
       </c>
       <c r="J25" t="n">
-        <v>1.831014790810285</v>
+        <v>22.87348499945947</v>
       </c>
       <c r="K25" t="n">
-        <v>30.76118623094585</v>
+        <v>9.541156697877485</v>
       </c>
       <c r="L25" t="n">
-        <v>4.695462127661928</v>
+        <v>67.87148669379286</v>
       </c>
       <c r="M25" t="n">
-        <v>166.1160633572857</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>6.854918521675285</v>
+        <v>39.32649343563077</v>
       </c>
       <c r="O25" t="n">
-        <v>38.94807334603276</v>
+        <v>13.06340830811634</v>
       </c>
       <c r="P25" t="n">
-        <v>36.32514366640699</v>
+        <v>43.4494649222955</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.28426121200055</v>
+        <v>35.7951486171963</v>
       </c>
       <c r="R25" t="n">
-        <v>41.98371736907115</v>
+        <v>87.97653591984655</v>
       </c>
       <c r="S25" t="n">
-        <v>42.58350310187437</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>21.32825845157131</v>
+        <v>8.480741588788952</v>
       </c>
       <c r="U25" t="n">
-        <v>108.4322466724981</v>
+        <v>24.53208021268602</v>
       </c>
       <c r="V25" t="n">
-        <v>14.40194305651299</v>
+        <v>13.34905018543822</v>
       </c>
       <c r="W25" t="n">
-        <v>13.27059756592695</v>
+        <v>14.43426892631235</v>
       </c>
       <c r="X25" t="n">
-        <v>33.85185042741286</v>
+        <v>3.569768695511284</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.177064341475516</v>
+        <v>93.76998950811065</v>
       </c>
       <c r="Z25" t="n">
-        <v>44.6186155205372</v>
+        <v>33.65456218062351</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.465854967132742</v>
+        <v>53.00352986128485</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.631554630146245</v>
+        <v>9.42213026136254</v>
       </c>
       <c r="AC25" t="n">
-        <v>26.78803866597512</v>
+        <v>18.69518275753569</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.049623957177474</v>
+        <v>18.92093946650154</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.63481578111608</v>
+        <v>32.48762112292768</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.545715927876643</v>
+        <v>0.4118607211799867</v>
       </c>
       <c r="AG25" t="n">
-        <v>16.29224037831919</v>
+        <v>4.107743609974693</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.482344811599174</v>
+        <v>3.720244111983465</v>
       </c>
       <c r="AI25" t="n">
-        <v>27.69620011956492</v>
+        <v>2.258665732836825</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20.14065839753205</v>
+        <v>24.23305883610173</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.8169605236423951</v>
+        <v>0.9161418750053838</v>
       </c>
       <c r="AL25" t="n">
-        <v>4.935173864703465</v>
+        <v>3.831147738889028</v>
       </c>
       <c r="AM25" t="n">
-        <v>17.38057692885867</v>
+        <v>21.95786164693681</v>
       </c>
       <c r="AN25" t="n">
-        <v>19.72082437007202</v>
+        <v>0.9285592654756637</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.4154658058746015</v>
+        <v>2.08273615543415</v>
       </c>
       <c r="AP25" t="n">
-        <v>42.77288732725749</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.4786818009456477</v>
+        <v>6.531687204802413</v>
       </c>
       <c r="AR25" t="n">
-        <v>107.9453415270242</v>
+        <v>4.230284891091125</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.498185263171665</v>
+        <v>8.978091607460881</v>
       </c>
       <c r="AT25" t="n">
-        <v>34.18010411671695</v>
+        <v>13.83548338434829</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.878873756064715</v>
+        <v>9.072958507023271</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.424598003337365</v>
+        <v>8.56306274344154</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.867022756059034</v>
+        <v>12.1166287958559</v>
       </c>
       <c r="AX25" t="n">
-        <v>13.23432369158239</v>
+        <v>13.97180061122348</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>9.771950952306096</v>
+        <v>18.14043074059233</v>
       </c>
       <c r="D26" t="n">
-        <v>19.31097793006483</v>
+        <v>15.01644905860343</v>
       </c>
       <c r="E26" t="n">
-        <v>29.2289187083463</v>
+        <v>36.49945055302022</v>
       </c>
       <c r="F26" t="n">
-        <v>10.81217222672721</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.69304861503638</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>26.38545712605967</v>
+        <v>195.4515531136489</v>
       </c>
       <c r="I26" t="n">
-        <v>59.36538105261384</v>
+        <v>45.4184100318285</v>
       </c>
       <c r="J26" t="n">
-        <v>164.2388913397676</v>
+        <v>80.70040539604172</v>
       </c>
       <c r="K26" t="n">
-        <v>29.56650687835814</v>
+        <v>126.6793113237402</v>
       </c>
       <c r="L26" t="n">
-        <v>30.24572796188541</v>
+        <v>21.26027254956367</v>
       </c>
       <c r="M26" t="n">
-        <v>24.74881077540011</v>
+        <v>18.60702472691762</v>
       </c>
       <c r="N26" t="n">
-        <v>44.51559707419789</v>
+        <v>76.86504964557369</v>
       </c>
       <c r="O26" t="n">
-        <v>50.28914159836645</v>
+        <v>49.37573321348034</v>
       </c>
       <c r="P26" t="n">
-        <v>92.40946775462267</v>
+        <v>102.3362786673219</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.88045248343001</v>
+        <v>64.6948922086372</v>
       </c>
       <c r="R26" t="n">
-        <v>108.8416764543335</v>
+        <v>41.38640317054067</v>
       </c>
       <c r="S26" t="n">
-        <v>222.4653956802875</v>
+        <v>106.698833441515</v>
       </c>
       <c r="T26" t="n">
-        <v>37.91900896297577</v>
+        <v>68.46779391559649</v>
       </c>
       <c r="U26" t="n">
-        <v>56.26337709263269</v>
+        <v>31.64830704802335</v>
       </c>
       <c r="V26" t="n">
-        <v>73.76773065668739</v>
+        <v>40.30626654145918</v>
       </c>
       <c r="W26" t="n">
-        <v>42.4118034690609</v>
+        <v>74.15524751219775</v>
       </c>
       <c r="X26" t="n">
-        <v>89.25451406301192</v>
+        <v>79.77553231608145</v>
       </c>
       <c r="Y26" t="n">
-        <v>126.0399673346878</v>
+        <v>192.4473722437153</v>
       </c>
       <c r="Z26" t="n">
-        <v>87.35535106432022</v>
+        <v>42.36833784060002</v>
       </c>
       <c r="AA26" t="n">
-        <v>92.09152866631671</v>
+        <v>44.75652847720524</v>
       </c>
       <c r="AB26" t="n">
-        <v>79.4231144896399</v>
+        <v>119.4617660464392</v>
       </c>
       <c r="AC26" t="n">
-        <v>137.0054914390586</v>
+        <v>55.71853216465776</v>
       </c>
       <c r="AD26" t="n">
-        <v>147.7997248266345</v>
+        <v>105.8380539377854</v>
       </c>
       <c r="AE26" t="n">
-        <v>84.28699906791539</v>
+        <v>91.01761956351645</v>
       </c>
       <c r="AF26" t="n">
-        <v>43.2329157726743</v>
+        <v>88.7006632885235</v>
       </c>
       <c r="AG26" t="n">
-        <v>86.18548276708027</v>
+        <v>147.2219239397374</v>
       </c>
       <c r="AH26" t="n">
-        <v>234.6082695559685</v>
+        <v>193.2383952731623</v>
       </c>
       <c r="AI26" t="n">
-        <v>79.14821592112948</v>
+        <v>106.2352483343327</v>
       </c>
       <c r="AJ26" t="n">
-        <v>54.92963312556849</v>
+        <v>162.7523587437415</v>
       </c>
       <c r="AK26" t="n">
-        <v>40.98552238956923</v>
+        <v>91.54342427133273</v>
       </c>
       <c r="AL26" t="n">
-        <v>32.8832975622851</v>
+        <v>50.05538464783497</v>
       </c>
       <c r="AM26" t="n">
-        <v>28.16949317019164</v>
+        <v>36.94902025134088</v>
       </c>
       <c r="AN26" t="n">
-        <v>39.88086001413874</v>
+        <v>59.51803778359167</v>
       </c>
       <c r="AO26" t="n">
-        <v>37.40548569150495</v>
+        <v>26.90893067484667</v>
       </c>
       <c r="AP26" t="n">
-        <v>32.92528077872255</v>
+        <v>25.88951929047895</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23.4342403419027</v>
+        <v>18.6537976218555</v>
       </c>
       <c r="AR26" t="n">
-        <v>20.6519951187692</v>
+        <v>22.29937412074374</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.16790210738497</v>
+        <v>20.39892173692368</v>
       </c>
       <c r="AT26" t="n">
-        <v>15.89888549740388</v>
+        <v>20.97123713855813</v>
       </c>
       <c r="AU26" t="n">
-        <v>25.71662867397777</v>
+        <v>15.39580215215287</v>
       </c>
       <c r="AV26" t="n">
-        <v>20.17351212521127</v>
+        <v>21.83385042315075</v>
       </c>
       <c r="AW26" t="n">
-        <v>18.46723532458141</v>
+        <v>16.94775163400632</v>
       </c>
       <c r="AX26" t="n">
-        <v>10.0564523092752</v>
+        <v>17.08510021633037</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.086537008301429</v>
+        <v>3.969978288357205</v>
       </c>
       <c r="D27" t="n">
-        <v>1.738466116645705</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9923405257997764</v>
+        <v>1.023628485276927</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1607242270950482</v>
+        <v>2.84174520942947</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07565575863170727</v>
+        <v>3.443445990045075</v>
       </c>
       <c r="H27" t="n">
-        <v>7.487629628208595</v>
+        <v>2.482545313907691</v>
       </c>
       <c r="I27" t="n">
-        <v>2.473669145027548</v>
+        <v>3.920881029312659</v>
       </c>
       <c r="J27" t="n">
-        <v>1.128930145786628</v>
+        <v>5.831362610225643</v>
       </c>
       <c r="K27" t="n">
-        <v>4.372854987071711</v>
+        <v>5.287703768906796</v>
       </c>
       <c r="L27" t="n">
-        <v>2.132814043872856</v>
+        <v>14.02234144573604</v>
       </c>
       <c r="M27" t="n">
-        <v>1.442015479776054</v>
+        <v>6.808231159197483</v>
       </c>
       <c r="N27" t="n">
-        <v>3.939035465503425</v>
+        <v>8.065904441325339</v>
       </c>
       <c r="O27" t="n">
-        <v>8.318787328615576</v>
+        <v>1.615803936152639</v>
       </c>
       <c r="P27" t="n">
-        <v>5.798042667487538</v>
+        <v>2.401462536691313</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.845689382579734</v>
+        <v>11.84964777359835</v>
       </c>
       <c r="R27" t="n">
-        <v>11.52005663426291</v>
+        <v>4.171880407273616</v>
       </c>
       <c r="S27" t="n">
-        <v>2.430408867140587</v>
+        <v>10.13777243605095</v>
       </c>
       <c r="T27" t="n">
-        <v>1.468609719517592</v>
+        <v>6.617655835473681</v>
       </c>
       <c r="U27" t="n">
-        <v>3.0500315896659</v>
+        <v>4.715686805667083</v>
       </c>
       <c r="V27" t="n">
-        <v>8.583030812178452</v>
+        <v>4.906436156778596</v>
       </c>
       <c r="W27" t="n">
-        <v>2.883230597186006</v>
+        <v>5.236026810543406</v>
       </c>
       <c r="X27" t="n">
-        <v>1.568134065211664</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.246073539585254</v>
+        <v>6.88251238555647</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.816414427796778</v>
+        <v>4.251080256534062</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.88859646141836</v>
+        <v>4.865454726028069</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.591133898394276</v>
+        <v>7.548617814508988</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.225115644003863</v>
+        <v>4.831498659728621</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.393816574130641</v>
+        <v>7.352842592491518</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.166911944618287</v>
+        <v>5.684837905626704</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.690343062043123</v>
+        <v>6.377106395966757</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.685936848331909</v>
+        <v>3.136492811928165</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.753538724958466</v>
+        <v>5.860854913039002</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.015097695137123</v>
+        <v>5.23868896503421</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.092364059325763</v>
+        <v>6.311241906837333</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.144837044847808</v>
+        <v>6.79184167718935</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.200755750672745</v>
+        <v>3.711773535852939</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.87360206252899</v>
+        <v>3.533515474166855</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.429151630954561</v>
+        <v>8.043999973710461</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.553334684209429</v>
+        <v>2.796886261385993</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.392479632463127</v>
+        <v>2.511997090011486</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.641090656272155</v>
+        <v>4.557134835193726</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.559728507893959</v>
+        <v>9.844620374471255</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.599370885758921</v>
+        <v>1.205730999255638</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.825053842702129</v>
+        <v>4.079810618717141</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.19778737869813</v>
+        <v>4.852164178874062</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.720237518864467</v>
+        <v>2.425779917312824</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.311934881397642</v>
+        <v>3.456031216293718</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.831631322599491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.271046828317575</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16.4712413617837</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10.7594431925827</v>
+        <v>17.37382605915296</v>
       </c>
       <c r="F28" t="n">
-        <v>6.022204072065206</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>14.4710489625429</v>
+        <v>25.37600119048495</v>
       </c>
       <c r="H28" t="n">
-        <v>47.56177447497959</v>
+        <v>15.60457482669956</v>
       </c>
       <c r="I28" t="n">
-        <v>25.69760294364672</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>103.9010365990083</v>
+        <v>8.09280803187637</v>
       </c>
       <c r="K28" t="n">
-        <v>10.09059582235466</v>
+        <v>94.63108129803855</v>
       </c>
       <c r="L28" t="n">
-        <v>14.55130947476228</v>
+        <v>41.29078323747255</v>
       </c>
       <c r="M28" t="n">
-        <v>83.05926440607607</v>
+        <v>101.9249092121937</v>
       </c>
       <c r="N28" t="n">
-        <v>48.18552554285964</v>
+        <v>33.89163820156217</v>
       </c>
       <c r="O28" t="n">
-        <v>72.99171945713633</v>
+        <v>99.21493915764415</v>
       </c>
       <c r="P28" t="n">
-        <v>34.35879197807172</v>
+        <v>27.75478053997505</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.85180230502079</v>
+        <v>0.6854232783553087</v>
       </c>
       <c r="R28" t="n">
-        <v>32.5581800605226</v>
+        <v>68.3835310500298</v>
       </c>
       <c r="S28" t="n">
-        <v>34.83803500241073</v>
+        <v>32.97164307482174</v>
       </c>
       <c r="T28" t="n">
-        <v>106.723038322849</v>
+        <v>45.4009963465276</v>
       </c>
       <c r="U28" t="n">
-        <v>32.1059109384839</v>
+        <v>158.5398765645108</v>
       </c>
       <c r="V28" t="n">
-        <v>41.61517501517594</v>
+        <v>84.01555811683721</v>
       </c>
       <c r="W28" t="n">
-        <v>49.32775665724127</v>
+        <v>53.72329050838838</v>
       </c>
       <c r="X28" t="n">
-        <v>81.01787318714918</v>
+        <v>60.31592677389766</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.4372877064332</v>
+        <v>141.6575460300607</v>
       </c>
       <c r="Z28" t="n">
-        <v>48.29201090036731</v>
+        <v>72.21669150235505</v>
       </c>
       <c r="AA28" t="n">
-        <v>84.10712555558527</v>
+        <v>50.1565818686723</v>
       </c>
       <c r="AB28" t="n">
-        <v>61.51152546039872</v>
+        <v>49.52715523665408</v>
       </c>
       <c r="AC28" t="n">
-        <v>56.18177686661912</v>
+        <v>97.46130784647289</v>
       </c>
       <c r="AD28" t="n">
-        <v>47.21314332736774</v>
+        <v>74.50637385248966</v>
       </c>
       <c r="AE28" t="n">
-        <v>44.85760522534461</v>
+        <v>98.21574223199364</v>
       </c>
       <c r="AF28" t="n">
-        <v>41.70403175328445</v>
+        <v>56.73501713477213</v>
       </c>
       <c r="AG28" t="n">
-        <v>89.7891648109281</v>
+        <v>38.8101875791841</v>
       </c>
       <c r="AH28" t="n">
-        <v>77.38679426355739</v>
+        <v>27.67884673962651</v>
       </c>
       <c r="AI28" t="n">
-        <v>56.36657148381721</v>
+        <v>27.12750778207389</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23.11967170076096</v>
+        <v>32.57737929454107</v>
       </c>
       <c r="AK28" t="n">
-        <v>40.63785637347853</v>
+        <v>29.8606230952394</v>
       </c>
       <c r="AL28" t="n">
-        <v>17.6978145283075</v>
+        <v>52.28051747394809</v>
       </c>
       <c r="AM28" t="n">
-        <v>13.40926734059976</v>
+        <v>30.60342463312811</v>
       </c>
       <c r="AN28" t="n">
-        <v>41.25148071110235</v>
+        <v>28.73806948336934</v>
       </c>
       <c r="AO28" t="n">
-        <v>24.13930650118964</v>
+        <v>12.78515609897427</v>
       </c>
       <c r="AP28" t="n">
-        <v>13.98963406330296</v>
+        <v>16.88797228097419</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25.9621864363801</v>
+        <v>15.01481702069417</v>
       </c>
       <c r="AR28" t="n">
-        <v>19.42232735149837</v>
+        <v>7.771536546724845</v>
       </c>
       <c r="AS28" t="n">
-        <v>16.43708709020375</v>
+        <v>13.9183584441089</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.47239092448544</v>
+        <v>11.67783818609733</v>
       </c>
       <c r="AU28" t="n">
-        <v>13.73681977655189</v>
+        <v>10.13685376748427</v>
       </c>
       <c r="AV28" t="n">
-        <v>19.05220552820592</v>
+        <v>10.20443709969349</v>
       </c>
       <c r="AW28" t="n">
-        <v>24.35481794200491</v>
+        <v>8.130310836895204</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.88250704596202</v>
+        <v>13.10566454505235</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>31.91788468221691</v>
+        <v>2.453106379985983</v>
       </c>
       <c r="D29" t="n">
-        <v>5.536406398146495</v>
+        <v>26.22954822441372</v>
       </c>
       <c r="E29" t="n">
-        <v>7.248131991986605</v>
+        <v>22.54151104850561</v>
       </c>
       <c r="F29" t="n">
-        <v>29.37406239278504</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.54959904078353</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>115.8454685969152</v>
+        <v>8.124758736401251</v>
       </c>
       <c r="I29" t="n">
-        <v>3.197738671240654</v>
+        <v>28.55826069984006</v>
       </c>
       <c r="J29" t="n">
-        <v>62.89099057811911</v>
+        <v>37.85884162952338</v>
       </c>
       <c r="K29" t="n">
-        <v>85.58862164644569</v>
+        <v>98.64387837262237</v>
       </c>
       <c r="L29" t="n">
-        <v>9.824120757176818</v>
+        <v>39.70652838946975</v>
       </c>
       <c r="M29" t="n">
-        <v>22.05696044734993</v>
+        <v>22.32528037900561</v>
       </c>
       <c r="N29" t="n">
-        <v>21.84535675085583</v>
+        <v>33.55227840572876</v>
       </c>
       <c r="O29" t="n">
-        <v>28.37115810425028</v>
+        <v>191.8184059831851</v>
       </c>
       <c r="P29" t="n">
-        <v>13.12749838400131</v>
+        <v>94.73865896061382</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.56346512261054</v>
+        <v>19.32909861548664</v>
       </c>
       <c r="R29" t="n">
-        <v>15.94045537455208</v>
+        <v>23.54085074331519</v>
       </c>
       <c r="S29" t="n">
-        <v>81.80026881125895</v>
+        <v>43.1020791124243</v>
       </c>
       <c r="T29" t="n">
-        <v>20.70378404583575</v>
+        <v>9.259533417047795</v>
       </c>
       <c r="U29" t="n">
-        <v>74.04509559402467</v>
+        <v>108.2506934219625</v>
       </c>
       <c r="V29" t="n">
-        <v>21.51276976336838</v>
+        <v>192.301289861459</v>
       </c>
       <c r="W29" t="n">
-        <v>97.66235961789832</v>
+        <v>45.75909681178173</v>
       </c>
       <c r="X29" t="n">
-        <v>24.21736889180221</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>77.3417267800822</v>
+        <v>0.8201900585837822</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.21311128918776</v>
+        <v>21.17643586947187</v>
       </c>
       <c r="AA29" t="n">
-        <v>38.03098974979963</v>
+        <v>28.5101581210626</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.48871251411931</v>
+        <v>1.815272216898039</v>
       </c>
       <c r="AC29" t="n">
-        <v>36.99942330579591</v>
+        <v>53.87671982669174</v>
       </c>
       <c r="AD29" t="n">
-        <v>79.61257218703585</v>
+        <v>38.93932230198422</v>
       </c>
       <c r="AE29" t="n">
-        <v>20.63147516518233</v>
+        <v>35.40150355074534</v>
       </c>
       <c r="AF29" t="n">
-        <v>24.80464067705346</v>
+        <v>43.64196951588114</v>
       </c>
       <c r="AG29" t="n">
-        <v>6.397341963179835</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>14.6459011706281</v>
+        <v>82.55093246946686</v>
       </c>
       <c r="AI29" t="n">
-        <v>8.861717756715475</v>
+        <v>22.62552463019444</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22.51031483729258</v>
+        <v>125.1716342103816</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.573130340946358</v>
+        <v>64.27760509021451</v>
       </c>
       <c r="AL29" t="n">
-        <v>99.54667813388537</v>
+        <v>18.56840963724327</v>
       </c>
       <c r="AM29" t="n">
-        <v>26.36990245745933</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>24.07289909126798</v>
+        <v>17.71398949501712</v>
       </c>
       <c r="AO29" t="n">
-        <v>39.21411337362988</v>
+        <v>0.8065816441729874</v>
       </c>
       <c r="AP29" t="n">
-        <v>8.112996792349762</v>
+        <v>34.29899361715036</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6.677228998655665</v>
+        <v>19.66858272199208</v>
       </c>
       <c r="AR29" t="n">
-        <v>14.0926968241901</v>
+        <v>20.92188638740005</v>
       </c>
       <c r="AS29" t="n">
-        <v>21.85152386635301</v>
+        <v>2.616758148801013</v>
       </c>
       <c r="AT29" t="n">
-        <v>14.98113037107315</v>
+        <v>38.4521485408635</v>
       </c>
       <c r="AU29" t="n">
-        <v>30.00989148086635</v>
+        <v>45.23944653458071</v>
       </c>
       <c r="AV29" t="n">
-        <v>43.4746356849664</v>
+        <v>7.976661822480988</v>
       </c>
       <c r="AW29" t="n">
-        <v>32.54828891481876</v>
+        <v>9.539480644888258</v>
       </c>
       <c r="AX29" t="n">
-        <v>49.4627627402334</v>
+        <v>27.97111571450726</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.464296621820176</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.341943268340394</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.594595997641211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.627236191281438</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.443093093073561</v>
+        <v>4.833432369254433</v>
       </c>
       <c r="H30" t="n">
-        <v>1.903374212273329</v>
+        <v>4.12214947559524</v>
       </c>
       <c r="I30" t="n">
-        <v>3.629731776950248</v>
+        <v>2.240245493370506</v>
       </c>
       <c r="J30" t="n">
-        <v>2.242441619720753</v>
+        <v>27.8088709734619</v>
       </c>
       <c r="K30" t="n">
-        <v>24.09601270336673</v>
+        <v>36.6913857420186</v>
       </c>
       <c r="L30" t="n">
-        <v>21.10412072586621</v>
+        <v>11.10391688774973</v>
       </c>
       <c r="M30" t="n">
-        <v>17.33656015529359</v>
+        <v>7.711100768185164</v>
       </c>
       <c r="N30" t="n">
-        <v>27.81807161954406</v>
+        <v>52.37430939475634</v>
       </c>
       <c r="O30" t="n">
-        <v>13.9897871707573</v>
+        <v>4.828646597325924</v>
       </c>
       <c r="P30" t="n">
-        <v>17.31995783958746</v>
+        <v>21.24495673124226</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.1966801959022</v>
+        <v>5.047927237315056</v>
       </c>
       <c r="R30" t="n">
-        <v>34.21585999015645</v>
+        <v>17.2010645238779</v>
       </c>
       <c r="S30" t="n">
-        <v>11.02191217965884</v>
+        <v>18.61780179719506</v>
       </c>
       <c r="T30" t="n">
-        <v>12.21021208674581</v>
+        <v>33.72461158789173</v>
       </c>
       <c r="U30" t="n">
-        <v>9.886696622982443</v>
+        <v>10.78014511507421</v>
       </c>
       <c r="V30" t="n">
-        <v>34.66436373576889</v>
+        <v>20.57760794869752</v>
       </c>
       <c r="W30" t="n">
-        <v>25.44332961831972</v>
+        <v>31.13612186763252</v>
       </c>
       <c r="X30" t="n">
-        <v>8.785203655886365</v>
+        <v>44.83491093997888</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.03921963924028</v>
+        <v>19.14747185304186</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.73607109357541</v>
+        <v>13.77583524732256</v>
       </c>
       <c r="AA30" t="n">
-        <v>10.17553970976416</v>
+        <v>8.633705385921768</v>
       </c>
       <c r="AB30" t="n">
-        <v>44.2730123097713</v>
+        <v>18.68710528700222</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.28918923385179</v>
+        <v>15.86721933152639</v>
       </c>
       <c r="AD30" t="n">
-        <v>30.12156403894611</v>
+        <v>8.768709420447411</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.04070712085653</v>
+        <v>11.12293102988284</v>
       </c>
       <c r="AF30" t="n">
-        <v>32.46457666318692</v>
+        <v>20.45453789829582</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.00996202858995</v>
+        <v>10.11593157032762</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.795361540096932</v>
+        <v>12.59595979140465</v>
       </c>
       <c r="AI30" t="n">
-        <v>12.28548832106491</v>
+        <v>9.684859107022314</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.345465028939</v>
+        <v>6.683136048627241</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.994266740017103</v>
+        <v>3.567072274345498</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.309863123791732</v>
+        <v>7.575673729085879</v>
       </c>
       <c r="AM30" t="n">
-        <v>8.672437188932239</v>
+        <v>4.804212911586752</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.216643158871434</v>
+        <v>6.12320548798001</v>
       </c>
       <c r="AO30" t="n">
-        <v>9.277560333300171</v>
+        <v>0.7654866049653812</v>
       </c>
       <c r="AP30" t="n">
-        <v>8.787773597831022</v>
+        <v>2.070364520389257</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.5430495157821111</v>
+        <v>0.7513252530440696</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.592547599946569</v>
+        <v>5.656980732830906</v>
       </c>
       <c r="AS30" t="n">
-        <v>7.894512868805751</v>
+        <v>1.79782135998266</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.88172285202303</v>
+        <v>5.066566254857368</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.958231156502632</v>
+        <v>3.829790789845753</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.577294364465466</v>
+        <v>0.8143927613704705</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.190866829629864</v>
+        <v>4.508747430102698</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.515581620157441</v>
+        <v>2.291654885151048</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>6.218476318637904</v>
+        <v>16.97229954693643</v>
       </c>
       <c r="D31" t="n">
-        <v>1.097328306993981</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>13.77136272258065</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.033588071852892</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.25000701673444</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>224.4976276937805</v>
+        <v>19.57965148425138</v>
       </c>
       <c r="I31" t="n">
-        <v>6.50264876053282</v>
+        <v>35.60376541542534</v>
       </c>
       <c r="J31" t="n">
-        <v>72.91457381671025</v>
+        <v>128.6074451684635</v>
       </c>
       <c r="K31" t="n">
-        <v>40.963929354016</v>
+        <v>72.27055280225632</v>
       </c>
       <c r="L31" t="n">
-        <v>20.6572167561138</v>
+        <v>98.38634990953857</v>
       </c>
       <c r="M31" t="n">
-        <v>90.03777708165516</v>
+        <v>66.74466974910928</v>
       </c>
       <c r="N31" t="n">
-        <v>12.4955280668461</v>
+        <v>296.8756477196009</v>
       </c>
       <c r="O31" t="n">
-        <v>76.87625240465228</v>
+        <v>106.4331973491846</v>
       </c>
       <c r="P31" t="n">
-        <v>60.36781927746896</v>
+        <v>47.54445646221701</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.24644604587605</v>
+        <v>29.8123891960974</v>
       </c>
       <c r="R31" t="n">
-        <v>38.73707137745832</v>
+        <v>26.13338078621226</v>
       </c>
       <c r="S31" t="n">
-        <v>7.954726181495339</v>
+        <v>2.838328582474092</v>
       </c>
       <c r="T31" t="n">
-        <v>133.7475365120091</v>
+        <v>13.1424103116346</v>
       </c>
       <c r="U31" t="n">
-        <v>34.89349996456336</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>22.16071931412851</v>
+        <v>3.43137177472191</v>
       </c>
       <c r="W31" t="n">
-        <v>51.4937502931818</v>
+        <v>1.399778581001559</v>
       </c>
       <c r="X31" t="n">
-        <v>42.86154391361227</v>
+        <v>6.230778507832176</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.92363764215078</v>
+        <v>26.44620225753259</v>
       </c>
       <c r="Z31" t="n">
-        <v>109.0963102178236</v>
+        <v>33.25053806942809</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.151821195534197</v>
+        <v>12.65048940082095</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.52678916075487</v>
+        <v>8.729992773244453</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.79845745205647</v>
+        <v>23.72768279619394</v>
       </c>
       <c r="AD31" t="n">
-        <v>37.83673292729743</v>
+        <v>16.15710051515447</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.331447931659315</v>
+        <v>3.663611741766043</v>
       </c>
       <c r="AF31" t="n">
-        <v>6.866548844210273</v>
+        <v>10.08671051021182</v>
       </c>
       <c r="AG31" t="n">
-        <v>5.120366398760811</v>
+        <v>1.13175846024406</v>
       </c>
       <c r="AH31" t="n">
-        <v>3.994046974379153</v>
+        <v>0.9169034091429649</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.2299130897672468</v>
+        <v>13.91810774445337</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.8862518934069756</v>
+        <v>3.145202925484928</v>
       </c>
       <c r="AK31" t="n">
-        <v>5.01906420455147</v>
+        <v>8.284876679643968</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.876295991690214</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.672111553372862</v>
+        <v>7.066566446259952</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.23868456339837</v>
+        <v>2.465214520152704</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.087165561110522</v>
+        <v>6.87639324232252</v>
       </c>
       <c r="AP31" t="n">
-        <v>21.86699911455744</v>
+        <v>2.776169893256108</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.928202501216437</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>2.882995806544998</v>
+        <v>5.690594147085578</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.449692086803302</v>
+        <v>3.595654084413663</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.55400398433218</v>
+        <v>26.85832225017745</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.892142498650535</v>
+        <v>0.1993466863910363</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.395885435770991</v>
+        <v>3.220268597815315</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.6475272055637867</v>
+        <v>0.5960722847816893</v>
       </c>
       <c r="AX31" t="n">
-        <v>6.313318583788777</v>
+        <v>7.446448465901581</v>
       </c>
     </row>
   </sheetData>
